--- a/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,2802 +1267,2802 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>4574</v>
+        <v>4521</v>
       </c>
       <c r="D64" t="n">
-        <v>5165</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>4704</v>
+        <v>4574</v>
       </c>
       <c r="D65" t="n">
-        <v>5292</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>4778</v>
+        <v>4704</v>
       </c>
       <c r="D66" t="n">
-        <v>5369</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>4854</v>
+        <v>4778</v>
       </c>
       <c r="D67" t="n">
-        <v>5445</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>4907</v>
+        <v>4854</v>
       </c>
       <c r="D68" t="n">
-        <v>5498</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>4983</v>
+        <v>4907</v>
       </c>
       <c r="D69" t="n">
-        <v>5574</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>5036</v>
+        <v>4983</v>
       </c>
       <c r="D70" t="n">
-        <v>5627</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>5165</v>
+        <v>5036</v>
       </c>
       <c r="D71" t="n">
-        <v>5756</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>5292</v>
+        <v>5112</v>
       </c>
       <c r="D72" t="n">
-        <v>5978</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>5369</v>
+        <v>5165</v>
       </c>
       <c r="D73" t="n">
-        <v>6031</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>5445</v>
+        <v>5292</v>
       </c>
       <c r="D74" t="n">
-        <v>6107</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5498</v>
+        <v>5369</v>
       </c>
       <c r="D75" t="n">
-        <v>6160</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>5574</v>
+        <v>5445</v>
       </c>
       <c r="D76" t="n">
-        <v>6236</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>5627</v>
+        <v>5498</v>
       </c>
       <c r="D77" t="n">
-        <v>6289</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>5756</v>
+        <v>5574</v>
       </c>
       <c r="D78" t="n">
-        <v>6365</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>5904</v>
+        <v>5627</v>
       </c>
       <c r="D79" t="n">
-        <v>6492</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>5978</v>
+        <v>5703</v>
       </c>
       <c r="D80" t="n">
-        <v>6591</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>6031</v>
+        <v>5756</v>
       </c>
       <c r="D81" t="n">
-        <v>6644</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>6107</v>
+        <v>5880</v>
       </c>
       <c r="D82" t="n">
-        <v>6720</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>6160</v>
+        <v>5960</v>
       </c>
       <c r="D83" t="n">
-        <v>6773</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>6236</v>
+        <v>6036</v>
       </c>
       <c r="D84" t="n">
-        <v>6849</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6289</v>
+        <v>6089</v>
       </c>
       <c r="D85" t="n">
-        <v>6902</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>6365</v>
+        <v>6165</v>
       </c>
       <c r="D86" t="n">
-        <v>6978</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>6492</v>
+        <v>6218</v>
       </c>
       <c r="D87" t="n">
-        <v>7080</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>6591</v>
+        <v>6294</v>
       </c>
       <c r="D88" t="n">
-        <v>7179</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6644</v>
+        <v>6347</v>
       </c>
       <c r="D89" t="n">
-        <v>7235</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>6720</v>
+        <v>6468</v>
       </c>
       <c r="D90" t="n">
-        <v>7311</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>6773</v>
+        <v>6551</v>
       </c>
       <c r="D91" t="n">
-        <v>7364</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>6849</v>
+        <v>6627</v>
       </c>
       <c r="D92" t="n">
-        <v>7440</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>6902</v>
+        <v>6680</v>
       </c>
       <c r="D93" t="n">
-        <v>7493</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>6978</v>
+        <v>6756</v>
       </c>
       <c r="D94" t="n">
-        <v>7569</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>7080</v>
+        <v>6809</v>
       </c>
       <c r="D95" t="n">
-        <v>7668</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>7179</v>
+        <v>6885</v>
       </c>
       <c r="D96" t="n">
-        <v>7767</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>7235</v>
+        <v>6938</v>
       </c>
       <c r="D97" t="n">
-        <v>7826</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>7311</v>
+        <v>7056</v>
       </c>
       <c r="D98" t="n">
-        <v>7902</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>7364</v>
+        <v>7142</v>
       </c>
       <c r="D99" t="n">
-        <v>7955</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7440</v>
+        <v>7218</v>
       </c>
       <c r="D100" t="n">
-        <v>8031</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>7493</v>
+        <v>7271</v>
       </c>
       <c r="D101" t="n">
-        <v>8084</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>7569</v>
+        <v>7347</v>
       </c>
       <c r="D102" t="n">
-        <v>8160</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>7668</v>
+        <v>7400</v>
       </c>
       <c r="D103" t="n">
-        <v>8256</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>7767</v>
+        <v>7476</v>
       </c>
       <c r="D104" t="n">
-        <v>8355</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>7826</v>
+        <v>7529</v>
       </c>
       <c r="D105" t="n">
-        <v>8417</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>7902</v>
+        <v>7644</v>
       </c>
       <c r="D106" t="n">
-        <v>8493</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>7955</v>
+        <v>7733</v>
       </c>
       <c r="D107" t="n">
-        <v>8546</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>8031</v>
+        <v>7809</v>
       </c>
       <c r="D108" t="n">
-        <v>8622</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>8084</v>
+        <v>7862</v>
       </c>
       <c r="D109" t="n">
-        <v>8675</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>8160</v>
+        <v>7938</v>
       </c>
       <c r="D110" t="n">
-        <v>8751</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>8256</v>
+        <v>7991</v>
       </c>
       <c r="D111" t="n">
-        <v>8844</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>8355</v>
+        <v>8067</v>
       </c>
       <c r="D112" t="n">
-        <v>8943</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>8417</v>
+        <v>8120</v>
       </c>
       <c r="D113" t="n">
-        <v>9008</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>8493</v>
+        <v>8232</v>
       </c>
       <c r="D114" t="n">
-        <v>9084</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>8546</v>
+        <v>8324</v>
       </c>
       <c r="D115" t="n">
-        <v>9137</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>8622</v>
+        <v>8400</v>
       </c>
       <c r="D116" t="n">
-        <v>9213</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>8675</v>
+        <v>8453</v>
       </c>
       <c r="D117" t="n">
-        <v>9266</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>8751</v>
+        <v>8529</v>
       </c>
       <c r="D118" t="n">
-        <v>9342</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="n">
-        <v>8844</v>
+        <v>8582</v>
       </c>
       <c r="D119" t="n">
-        <v>9432</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>8943</v>
+        <v>8658</v>
       </c>
       <c r="D120" t="n">
-        <v>9531</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>9008</v>
+        <v>8711</v>
       </c>
       <c r="D121" t="n">
-        <v>9599</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>9084</v>
+        <v>8820</v>
       </c>
       <c r="D122" t="n">
-        <v>9675</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>9137</v>
+        <v>8915</v>
       </c>
       <c r="D123" t="n">
-        <v>9728</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>9213</v>
+        <v>8991</v>
       </c>
       <c r="D124" t="n">
-        <v>9804</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>9266</v>
+        <v>9044</v>
       </c>
       <c r="D125" t="n">
-        <v>9857</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>9342</v>
+        <v>9120</v>
       </c>
       <c r="D126" t="n">
-        <v>9933</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>9432</v>
+        <v>9173</v>
       </c>
       <c r="D127" t="n">
-        <v>10020</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>9531</v>
+        <v>9249</v>
       </c>
       <c r="D128" t="n">
-        <v>10119</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>9599</v>
+        <v>9302</v>
       </c>
       <c r="D129" t="n">
-        <v>10190</v>
+        <v>9893</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>9675</v>
+        <v>9408</v>
       </c>
       <c r="D130" t="n">
-        <v>10266</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>9728</v>
+        <v>9506</v>
       </c>
       <c r="D131" t="n">
-        <v>10319</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>9804</v>
+        <v>9582</v>
       </c>
       <c r="D132" t="n">
-        <v>10395</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C133" t="n">
-        <v>9857</v>
+        <v>9635</v>
       </c>
       <c r="D133" t="n">
-        <v>10448</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>9933</v>
+        <v>9711</v>
       </c>
       <c r="D134" t="n">
-        <v>10524</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>10020</v>
+        <v>9764</v>
       </c>
       <c r="D135" t="n">
-        <v>10608</v>
+        <v>10355</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>10119</v>
+        <v>9840</v>
       </c>
       <c r="D136" t="n">
-        <v>10707</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C137" t="n">
-        <v>10190</v>
+        <v>9893</v>
       </c>
       <c r="D137" t="n">
-        <v>10781</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>10266</v>
+        <v>9996</v>
       </c>
       <c r="D138" t="n">
-        <v>10857</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>10319</v>
+        <v>10097</v>
       </c>
       <c r="D139" t="n">
-        <v>10910</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>10395</v>
+        <v>10173</v>
       </c>
       <c r="D140" t="n">
-        <v>10986</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>10448</v>
+        <v>10226</v>
       </c>
       <c r="D141" t="n">
-        <v>11039</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>10524</v>
+        <v>10302</v>
       </c>
       <c r="D142" t="n">
-        <v>11115</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>10608</v>
+        <v>10355</v>
       </c>
       <c r="D143" t="n">
-        <v>11196</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>10707</v>
+        <v>10431</v>
       </c>
       <c r="D144" t="n">
-        <v>11295</v>
+        <v>11022</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>10781</v>
+        <v>10484</v>
       </c>
       <c r="D145" t="n">
-        <v>11372</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>10857</v>
+        <v>10586</v>
       </c>
       <c r="D146" t="n">
-        <v>11448</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>10910</v>
+        <v>10688</v>
       </c>
       <c r="D147" t="n">
-        <v>11501</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
-        <v>10986</v>
+        <v>10764</v>
       </c>
       <c r="D148" t="n">
-        <v>11577</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>11039</v>
+        <v>10817</v>
       </c>
       <c r="D149" t="n">
-        <v>11630</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>11115</v>
+        <v>10893</v>
       </c>
       <c r="D150" t="n">
-        <v>11706</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>11196</v>
+        <v>10946</v>
       </c>
       <c r="D151" t="n">
-        <v>11784</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>11295</v>
+        <v>11022</v>
       </c>
       <c r="D152" t="n">
-        <v>11883</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>11372</v>
+        <v>11075</v>
       </c>
       <c r="D153" t="n">
-        <v>11963</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>11448</v>
+        <v>11177</v>
       </c>
       <c r="D154" t="n">
-        <v>12039</v>
+        <v>11768</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>11501</v>
+        <v>11279</v>
       </c>
       <c r="D155" t="n">
-        <v>12092</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>11577</v>
+        <v>11355</v>
       </c>
       <c r="D156" t="n">
-        <v>12168</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
-        <v>11630</v>
+        <v>11408</v>
       </c>
       <c r="D157" t="n">
-        <v>12221</v>
+        <v>11999</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>11706</v>
+        <v>11484</v>
       </c>
       <c r="D158" t="n">
-        <v>12297</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>11784</v>
+        <v>11537</v>
       </c>
       <c r="D159" t="n">
-        <v>12372</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>11883</v>
+        <v>11613</v>
       </c>
       <c r="D160" t="n">
-        <v>12471</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>11963</v>
+        <v>11666</v>
       </c>
       <c r="D161" t="n">
-        <v>12554</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>12039</v>
+        <v>11768</v>
       </c>
       <c r="D162" t="n">
-        <v>12630</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>12092</v>
+        <v>11870</v>
       </c>
       <c r="D163" t="n">
-        <v>12683</v>
+        <v>12461</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>12168</v>
+        <v>11946</v>
       </c>
       <c r="D164" t="n">
-        <v>12759</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C165" t="n">
-        <v>12221</v>
+        <v>11999</v>
       </c>
       <c r="D165" t="n">
-        <v>12812</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>12297</v>
+        <v>12075</v>
       </c>
       <c r="D166" t="n">
-        <v>12888</v>
+        <v>12666</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>12372</v>
+        <v>12128</v>
       </c>
       <c r="D167" t="n">
-        <v>12960</v>
+        <v>12719</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
-        <v>12471</v>
+        <v>12204</v>
       </c>
       <c r="D168" t="n">
-        <v>13059</v>
+        <v>12795</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>12554</v>
+        <v>12257</v>
       </c>
       <c r="D169" t="n">
-        <v>13145</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>12630</v>
+        <v>12359</v>
       </c>
       <c r="D170" t="n">
-        <v>13221</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>12683</v>
+        <v>12461</v>
       </c>
       <c r="D171" t="n">
-        <v>13274</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>12759</v>
+        <v>12537</v>
       </c>
       <c r="D172" t="n">
-        <v>13350</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>12812</v>
+        <v>12590</v>
       </c>
       <c r="D173" t="n">
-        <v>13403</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>12888</v>
+        <v>12666</v>
       </c>
       <c r="D174" t="n">
-        <v>13479</v>
+        <v>13257</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>12960</v>
+        <v>12719</v>
       </c>
       <c r="D175" t="n">
-        <v>13548</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>13059</v>
+        <v>12795</v>
       </c>
       <c r="D176" t="n">
-        <v>13647</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>13145</v>
+        <v>12848</v>
       </c>
       <c r="D177" t="n">
-        <v>13736</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>13221</v>
+        <v>12950</v>
       </c>
       <c r="D178" t="n">
-        <v>13812</v>
+        <v>13541</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>13274</v>
+        <v>13052</v>
       </c>
       <c r="D179" t="n">
-        <v>13865</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C180" t="n">
-        <v>13350</v>
+        <v>13128</v>
       </c>
       <c r="D180" t="n">
-        <v>13941</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>13403</v>
+        <v>13181</v>
       </c>
       <c r="D181" t="n">
-        <v>13994</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>13479</v>
+        <v>13257</v>
       </c>
       <c r="D182" t="n">
-        <v>14070</v>
+        <v>13848</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>13548</v>
+        <v>13310</v>
       </c>
       <c r="D183" t="n">
-        <v>14136</v>
+        <v>13901</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
-        <v>13647</v>
+        <v>13386</v>
       </c>
       <c r="D184" t="n">
-        <v>14235</v>
+        <v>13977</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>13736</v>
+        <v>13439</v>
       </c>
       <c r="D185" t="n">
-        <v>14327</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>13812</v>
+        <v>13541</v>
       </c>
       <c r="D186" t="n">
-        <v>14403</v>
+        <v>14132</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
-        <v>13865</v>
+        <v>13643</v>
       </c>
       <c r="D187" t="n">
-        <v>14456</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C188" t="n">
-        <v>13941</v>
+        <v>13719</v>
       </c>
       <c r="D188" t="n">
-        <v>14532</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
-        <v>13994</v>
+        <v>13772</v>
       </c>
       <c r="D189" t="n">
-        <v>14585</v>
+        <v>14363</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>14070</v>
+        <v>13848</v>
       </c>
       <c r="D190" t="n">
-        <v>14661</v>
+        <v>14439</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="n">
-        <v>14136</v>
+        <v>13901</v>
       </c>
       <c r="D191" t="n">
-        <v>14724</v>
+        <v>14492</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C192" t="n">
-        <v>14235</v>
+        <v>13977</v>
       </c>
       <c r="D192" t="n">
-        <v>14823</v>
+        <v>14568</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C193" t="n">
-        <v>14327</v>
+        <v>14030</v>
       </c>
       <c r="D193" t="n">
-        <v>14918</v>
+        <v>14621</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>14403</v>
+        <v>14132</v>
       </c>
       <c r="D194" t="n">
-        <v>14994</v>
+        <v>14723</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>14456</v>
+        <v>14234</v>
       </c>
       <c r="D195" t="n">
-        <v>15047</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>14532</v>
+        <v>14310</v>
       </c>
       <c r="D196" t="n">
-        <v>15123</v>
+        <v>14901</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>14585</v>
+        <v>14363</v>
       </c>
       <c r="D197" t="n">
-        <v>15176</v>
+        <v>14954</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>14661</v>
+        <v>14439</v>
       </c>
       <c r="D198" t="n">
-        <v>15252</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>14724</v>
+        <v>14492</v>
       </c>
       <c r="D199" t="n">
-        <v>15312</v>
+        <v>15083</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C200" t="n">
-        <v>14823</v>
+        <v>14568</v>
       </c>
       <c r="D200" t="n">
-        <v>15411</v>
+        <v>15159</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>14918</v>
+        <v>14621</v>
       </c>
       <c r="D201" t="n">
-        <v>15509</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>14994</v>
+        <v>14723</v>
       </c>
       <c r="D202" t="n">
-        <v>15585</v>
+        <v>15314</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>15047</v>
+        <v>14825</v>
       </c>
       <c r="D203" t="n">
-        <v>15638</v>
+        <v>15416</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>15123</v>
+        <v>14901</v>
       </c>
       <c r="D204" t="n">
-        <v>15714</v>
+        <v>15492</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C205" t="n">
-        <v>15176</v>
+        <v>14954</v>
       </c>
       <c r="D205" t="n">
-        <v>15767</v>
+        <v>15545</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>15252</v>
+        <v>15030</v>
       </c>
       <c r="D206" t="n">
-        <v>15843</v>
+        <v>15621</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>15312</v>
+        <v>15083</v>
       </c>
       <c r="D207" t="n">
-        <v>15900</v>
+        <v>15674</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>15411</v>
+        <v>15159</v>
       </c>
       <c r="D208" t="n">
-        <v>15999</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>15509</v>
+        <v>15212</v>
       </c>
       <c r="D209" t="n">
-        <v>16100</v>
+        <v>15803</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>15585</v>
+        <v>15314</v>
       </c>
       <c r="D210" t="n">
-        <v>16176</v>
+        <v>15905</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211" t="n">
-        <v>15638</v>
+        <v>15416</v>
       </c>
       <c r="D211" t="n">
-        <v>16229</v>
+        <v>16007</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>15714</v>
+        <v>15492</v>
       </c>
       <c r="D212" t="n">
-        <v>16305</v>
+        <v>16083</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C213" t="n">
-        <v>15767</v>
+        <v>15545</v>
       </c>
       <c r="D213" t="n">
-        <v>16358</v>
+        <v>16136</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>15843</v>
+        <v>15621</v>
       </c>
       <c r="D214" t="n">
-        <v>16434</v>
+        <v>16212</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
-        <v>15900</v>
+        <v>15674</v>
       </c>
       <c r="D215" t="n">
-        <v>16490</v>
+        <v>16265</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C216" t="n">
-        <v>15999</v>
+        <v>15750</v>
       </c>
       <c r="D216" t="n">
-        <v>16589</v>
+        <v>16341</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C217" t="n">
-        <v>16100</v>
+        <v>15803</v>
       </c>
       <c r="D217" t="n">
-        <v>16691</v>
+        <v>16394</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>16176</v>
+        <v>15905</v>
       </c>
       <c r="D218" t="n">
-        <v>16767</v>
+        <v>16496</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>16229</v>
+        <v>16007</v>
       </c>
       <c r="D219" t="n">
-        <v>16820</v>
+        <v>16598</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>16305</v>
+        <v>16083</v>
       </c>
       <c r="D220" t="n">
-        <v>16896</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" t="n">
-        <v>16358</v>
+        <v>16136</v>
       </c>
       <c r="D221" t="n">
-        <v>16949</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>16434</v>
+        <v>16212</v>
       </c>
       <c r="D222" t="n">
-        <v>17025</v>
+        <v>16803</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>16490</v>
+        <v>16265</v>
       </c>
       <c r="D223" t="n">
-        <v>17081</v>
+        <v>16856</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>16589</v>
+        <v>16341</v>
       </c>
       <c r="D224" t="n">
-        <v>17180</v>
+        <v>16932</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>16691</v>
+        <v>16394</v>
       </c>
       <c r="D225" t="n">
-        <v>17282</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>16767</v>
+        <v>16496</v>
       </c>
       <c r="D226" t="n">
-        <v>17358</v>
+        <v>17087</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>16820</v>
+        <v>16598</v>
       </c>
       <c r="D227" t="n">
-        <v>17411</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C228" t="n">
-        <v>16896</v>
+        <v>16674</v>
       </c>
       <c r="D228" t="n">
-        <v>17487</v>
+        <v>17265</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C229" t="n">
-        <v>16949</v>
+        <v>16727</v>
       </c>
       <c r="D229" t="n">
-        <v>17540</v>
+        <v>17318</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>17025</v>
+        <v>16803</v>
       </c>
       <c r="D230" t="n">
-        <v>17616</v>
+        <v>17394</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="n">
-        <v>17081</v>
+        <v>16856</v>
       </c>
       <c r="D231" t="n">
-        <v>17672</v>
+        <v>17447</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C232" t="n">
-        <v>17180</v>
+        <v>16932</v>
       </c>
       <c r="D232" t="n">
-        <v>17771</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>17282</v>
+        <v>16985</v>
       </c>
       <c r="D233" t="n">
-        <v>17873</v>
+        <v>17576</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>17358</v>
+        <v>17087</v>
       </c>
       <c r="D234" t="n">
-        <v>17949</v>
+        <v>17678</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235" t="n">
-        <v>17411</v>
+        <v>17189</v>
       </c>
       <c r="D235" t="n">
-        <v>18002</v>
+        <v>17780</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C236" t="n">
-        <v>17487</v>
+        <v>17265</v>
       </c>
       <c r="D236" t="n">
-        <v>18078</v>
+        <v>17856</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" t="n">
-        <v>17540</v>
+        <v>17318</v>
       </c>
       <c r="D237" t="n">
-        <v>18131</v>
+        <v>17909</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>17616</v>
+        <v>17394</v>
       </c>
       <c r="D238" t="n">
-        <v>18207</v>
+        <v>17985</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="n">
-        <v>17672</v>
+        <v>17447</v>
       </c>
       <c r="D239" t="n">
-        <v>18263</v>
+        <v>18038</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C240" t="n">
-        <v>17771</v>
+        <v>17523</v>
       </c>
       <c r="D240" t="n">
-        <v>18362</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>17873</v>
+        <v>17576</v>
       </c>
       <c r="D241" t="n">
-        <v>18464</v>
+        <v>18167</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>17949</v>
+        <v>17678</v>
       </c>
       <c r="D242" t="n">
-        <v>18540</v>
+        <v>18269</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>18002</v>
+        <v>17780</v>
       </c>
       <c r="D243" t="n">
-        <v>18593</v>
+        <v>18371</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>18078</v>
+        <v>17856</v>
       </c>
       <c r="D244" t="n">
-        <v>18669</v>
+        <v>18447</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C245" t="n">
-        <v>18131</v>
+        <v>17909</v>
       </c>
       <c r="D245" t="n">
-        <v>18722</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>18207</v>
+        <v>17985</v>
       </c>
       <c r="D246" t="n">
-        <v>18798</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="n">
-        <v>18263</v>
+        <v>18038</v>
       </c>
       <c r="D247" t="n">
-        <v>18854</v>
+        <v>18629</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C248" t="n">
-        <v>18362</v>
+        <v>18114</v>
       </c>
       <c r="D248" t="n">
-        <v>18953</v>
+        <v>18705</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C249" t="n">
-        <v>18464</v>
+        <v>18167</v>
       </c>
       <c r="D249" t="n">
-        <v>19055</v>
+        <v>18758</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>18540</v>
+        <v>18269</v>
       </c>
       <c r="D250" t="n">
-        <v>19131</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C251" t="n">
-        <v>18593</v>
+        <v>18371</v>
       </c>
       <c r="D251" t="n">
-        <v>19184</v>
+        <v>18962</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C252" t="n">
-        <v>18669</v>
+        <v>18447</v>
       </c>
       <c r="D252" t="n">
-        <v>19260</v>
+        <v>19038</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C253" t="n">
-        <v>18722</v>
+        <v>18500</v>
       </c>
       <c r="D253" t="n">
-        <v>19313</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>18798</v>
+        <v>18576</v>
       </c>
       <c r="D254" t="n">
-        <v>19389</v>
+        <v>19167</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
-        <v>18854</v>
+        <v>18629</v>
       </c>
       <c r="D255" t="n">
-        <v>19445</v>
+        <v>19220</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
-        <v>18953</v>
+        <v>18705</v>
       </c>
       <c r="D256" t="n">
-        <v>19544</v>
+        <v>19296</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C257" t="n">
-        <v>19055</v>
+        <v>18758</v>
       </c>
       <c r="D257" t="n">
-        <v>19646</v>
+        <v>19349</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>19131</v>
+        <v>18860</v>
       </c>
       <c r="D258" t="n">
-        <v>19722</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C259" t="n">
-        <v>19184</v>
+        <v>18962</v>
       </c>
       <c r="D259" t="n">
-        <v>19775</v>
+        <v>19553</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>19260</v>
+        <v>19038</v>
       </c>
       <c r="D260" t="n">
-        <v>19851</v>
+        <v>19629</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C261" t="n">
-        <v>19313</v>
+        <v>19091</v>
       </c>
       <c r="D261" t="n">
-        <v>19904</v>
+        <v>19682</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>19389</v>
+        <v>19167</v>
       </c>
       <c r="D262" t="n">
-        <v>19980</v>
+        <v>19758</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" t="n">
-        <v>19445</v>
+        <v>19220</v>
       </c>
       <c r="D263" t="n">
-        <v>20036</v>
+        <v>19811</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>264</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C264" t="n">
-        <v>19544</v>
+        <v>19349</v>
       </c>
       <c r="D264" t="n">
-        <v>20135</v>
+        <v>19940</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>265</v>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>19646</v>
+        <v>19451</v>
       </c>
       <c r="D265" t="n">
-        <v>20237</v>
+        <v>20042</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>266</v>
       </c>
       <c r="B266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="n">
-        <v>19722</v>
+        <v>19553</v>
       </c>
       <c r="D266" t="n">
-        <v>20313</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" t="n">
-        <v>19775</v>
+        <v>19629</v>
       </c>
       <c r="D267" t="n">
-        <v>20366</v>
+        <v>20220</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>268</v>
       </c>
       <c r="B268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C268" t="n">
-        <v>19851</v>
+        <v>19682</v>
       </c>
       <c r="D268" t="n">
-        <v>20442</v>
+        <v>20273</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>19904</v>
+        <v>19758</v>
       </c>
       <c r="D269" t="n">
-        <v>20495</v>
+        <v>20349</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C270" t="n">
-        <v>19980</v>
+        <v>19811</v>
       </c>
       <c r="D270" t="n">
-        <v>20571</v>
+        <v>20402</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>271</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C271" t="n">
-        <v>20036</v>
+        <v>19940</v>
       </c>
       <c r="D271" t="n">
-        <v>20627</v>
+        <v>20531</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4185,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>20135</v>
+        <v>20042</v>
       </c>
       <c r="D272" t="n">
-        <v>20726</v>
+        <v>20633</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4199,10 +4199,10 @@
         <v>2</v>
       </c>
       <c r="C273" t="n">
-        <v>20237</v>
+        <v>20144</v>
       </c>
       <c r="D273" t="n">
-        <v>20828</v>
+        <v>20735</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4213,10 +4213,10 @@
         <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>20313</v>
+        <v>20220</v>
       </c>
       <c r="D274" t="n">
-        <v>20904</v>
+        <v>20811</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4227,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="C275" t="n">
-        <v>20366</v>
+        <v>20273</v>
       </c>
       <c r="D275" t="n">
-        <v>20957</v>
+        <v>20864</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4241,10 +4241,10 @@
         <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>20442</v>
+        <v>20349</v>
       </c>
       <c r="D276" t="n">
-        <v>21033</v>
+        <v>20940</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4255,10 +4255,10 @@
         <v>6</v>
       </c>
       <c r="C277" t="n">
-        <v>20495</v>
+        <v>20402</v>
       </c>
       <c r="D277" t="n">
-        <v>21086</v>
+        <v>20993</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>20571</v>
+        <v>20478</v>
       </c>
       <c r="D278" t="n">
-        <v>21162</v>
+        <v>21069</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>279</v>
       </c>
       <c r="B279" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>20627</v>
+        <v>20531</v>
       </c>
       <c r="D279" t="n">
-        <v>21218</v>
+        <v>21122</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4297,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>20726</v>
+        <v>20633</v>
       </c>
       <c r="D280" t="n">
-        <v>21317</v>
+        <v>21224</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4311,10 +4311,10 @@
         <v>2</v>
       </c>
       <c r="C281" t="n">
-        <v>20828</v>
+        <v>20735</v>
       </c>
       <c r="D281" t="n">
-        <v>21419</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4325,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="C282" t="n">
-        <v>20904</v>
+        <v>20811</v>
       </c>
       <c r="D282" t="n">
-        <v>21495</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4339,10 +4339,10 @@
         <v>4</v>
       </c>
       <c r="C283" t="n">
-        <v>20957</v>
+        <v>20864</v>
       </c>
       <c r="D283" t="n">
-        <v>21548</v>
+        <v>21455</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4353,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>21033</v>
+        <v>20940</v>
       </c>
       <c r="D284" t="n">
-        <v>21624</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4367,10 +4367,10 @@
         <v>6</v>
       </c>
       <c r="C285" t="n">
-        <v>21086</v>
+        <v>20993</v>
       </c>
       <c r="D285" t="n">
-        <v>21677</v>
+        <v>21584</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>286</v>
       </c>
       <c r="B286" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>21162</v>
+        <v>21069</v>
       </c>
       <c r="D286" t="n">
-        <v>21753</v>
+        <v>21660</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>287</v>
       </c>
       <c r="B287" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C287" t="n">
-        <v>21218</v>
+        <v>21122</v>
       </c>
       <c r="D287" t="n">
-        <v>21809</v>
+        <v>21713</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4409,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>21317</v>
+        <v>21224</v>
       </c>
       <c r="D288" t="n">
-        <v>21908</v>
+        <v>21815</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="C289" t="n">
-        <v>21419</v>
+        <v>21326</v>
       </c>
       <c r="D289" t="n">
-        <v>22010</v>
+        <v>21917</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4437,10 +4437,10 @@
         <v>3</v>
       </c>
       <c r="C290" t="n">
-        <v>21495</v>
+        <v>21402</v>
       </c>
       <c r="D290" t="n">
-        <v>22086</v>
+        <v>21993</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4451,1256 +4451,1242 @@
         <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>21548</v>
+        <v>21455</v>
       </c>
       <c r="D291" t="n">
-        <v>22139</v>
+        <v>22046</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C292" t="n">
-        <v>21624</v>
+        <v>21584</v>
       </c>
       <c r="D292" t="n">
-        <v>22215</v>
+        <v>22175</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C293" t="n">
-        <v>21677</v>
+        <v>21660</v>
       </c>
       <c r="D293" t="n">
-        <v>22268</v>
+        <v>22251</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B294" t="n">
         <v>8</v>
       </c>
       <c r="C294" t="n">
-        <v>21753</v>
+        <v>21713</v>
       </c>
       <c r="D294" t="n">
-        <v>22344</v>
+        <v>22304</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>21809</v>
+        <v>21815</v>
       </c>
       <c r="D295" t="n">
-        <v>22400</v>
+        <v>22406</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C296" t="n">
-        <v>21908</v>
+        <v>21917</v>
       </c>
       <c r="D296" t="n">
-        <v>22499</v>
+        <v>22508</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>22010</v>
+        <v>21993</v>
       </c>
       <c r="D297" t="n">
-        <v>22601</v>
+        <v>22584</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C298" t="n">
-        <v>22086</v>
+        <v>22046</v>
       </c>
       <c r="D298" t="n">
-        <v>22677</v>
+        <v>22637</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C299" t="n">
-        <v>22139</v>
+        <v>22175</v>
       </c>
       <c r="D299" t="n">
-        <v>22730</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C300" t="n">
-        <v>22215</v>
+        <v>22251</v>
       </c>
       <c r="D300" t="n">
-        <v>22806</v>
+        <v>22870</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C301" t="n">
-        <v>22268</v>
+        <v>22304</v>
       </c>
       <c r="D301" t="n">
-        <v>22859</v>
+        <v>22923</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>22344</v>
+        <v>22406</v>
       </c>
       <c r="D302" t="n">
-        <v>22935</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B303" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C303" t="n">
-        <v>22400</v>
+        <v>22508</v>
       </c>
       <c r="D303" t="n">
-        <v>22991</v>
+        <v>23099</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304" t="n">
-        <v>22499</v>
+        <v>22584</v>
       </c>
       <c r="D304" t="n">
-        <v>23090</v>
+        <v>23175</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C305" t="n">
-        <v>22601</v>
+        <v>22637</v>
       </c>
       <c r="D305" t="n">
-        <v>23192</v>
+        <v>23228</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B306" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>22677</v>
+        <v>22766</v>
       </c>
       <c r="D306" t="n">
-        <v>23268</v>
+        <v>23357</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>22730</v>
+        <v>22822</v>
       </c>
       <c r="D307" t="n">
-        <v>23321</v>
+        <v>23413</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B308" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C308" t="n">
-        <v>22806</v>
+        <v>22870</v>
       </c>
       <c r="D308" t="n">
-        <v>23397</v>
+        <v>23486</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C309" t="n">
-        <v>22859</v>
+        <v>22923</v>
       </c>
       <c r="D309" t="n">
-        <v>23450</v>
+        <v>23539</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>22935</v>
+        <v>23025</v>
       </c>
       <c r="D310" t="n">
-        <v>23526</v>
+        <v>23641</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C311" t="n">
-        <v>22991</v>
+        <v>23099</v>
       </c>
       <c r="D311" t="n">
-        <v>23582</v>
+        <v>23694</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C312" t="n">
-        <v>23090</v>
+        <v>23175</v>
       </c>
       <c r="D312" t="n">
-        <v>23681</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C313" t="n">
-        <v>23192</v>
+        <v>23228</v>
       </c>
       <c r="D313" t="n">
-        <v>23783</v>
+        <v>23823</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C314" t="n">
-        <v>23268</v>
+        <v>23357</v>
       </c>
       <c r="D314" t="n">
-        <v>23859</v>
+        <v>23948</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B315" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
-        <v>23321</v>
+        <v>23413</v>
       </c>
       <c r="D315" t="n">
-        <v>23912</v>
+        <v>24004</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B316" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C316" t="n">
-        <v>23397</v>
+        <v>23486</v>
       </c>
       <c r="D316" t="n">
-        <v>23988</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B317" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C317" t="n">
-        <v>23450</v>
+        <v>23539</v>
       </c>
       <c r="D317" t="n">
-        <v>24041</v>
+        <v>24130</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B318" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>23526</v>
+        <v>23641</v>
       </c>
       <c r="D318" t="n">
-        <v>24117</v>
+        <v>24232</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B319" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C319" t="n">
-        <v>23582</v>
+        <v>23694</v>
       </c>
       <c r="D319" t="n">
-        <v>24173</v>
+        <v>24285</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C320" t="n">
-        <v>23681</v>
+        <v>23770</v>
       </c>
       <c r="D320" t="n">
-        <v>24272</v>
+        <v>24361</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C321" t="n">
-        <v>23783</v>
+        <v>23823</v>
       </c>
       <c r="D321" t="n">
-        <v>24374</v>
+        <v>24414</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C322" t="n">
-        <v>23859</v>
+        <v>23948</v>
       </c>
       <c r="D322" t="n">
-        <v>24450</v>
+        <v>24539</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C323" t="n">
-        <v>23912</v>
+        <v>24004</v>
       </c>
       <c r="D323" t="n">
-        <v>24503</v>
+        <v>24595</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B324" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C324" t="n">
-        <v>23988</v>
+        <v>24077</v>
       </c>
       <c r="D324" t="n">
-        <v>24579</v>
+        <v>24668</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B325" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C325" t="n">
-        <v>24041</v>
+        <v>24130</v>
       </c>
       <c r="D325" t="n">
-        <v>24632</v>
+        <v>24721</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B326" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>24117</v>
+        <v>24232</v>
       </c>
       <c r="D326" t="n">
-        <v>24708</v>
+        <v>24823</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B327" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C327" t="n">
-        <v>24173</v>
+        <v>24285</v>
       </c>
       <c r="D327" t="n">
-        <v>24764</v>
+        <v>24876</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C328" t="n">
-        <v>24272</v>
+        <v>24361</v>
       </c>
       <c r="D328" t="n">
-        <v>24863</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B329" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C329" t="n">
-        <v>24374</v>
+        <v>24414</v>
       </c>
       <c r="D329" t="n">
-        <v>24965</v>
+        <v>25005</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C330" t="n">
-        <v>24450</v>
+        <v>24539</v>
       </c>
       <c r="D330" t="n">
-        <v>25041</v>
+        <v>25130</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>24503</v>
+        <v>24595</v>
       </c>
       <c r="D331" t="n">
-        <v>25094</v>
+        <v>25186</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B332" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C332" t="n">
-        <v>24579</v>
+        <v>24668</v>
       </c>
       <c r="D332" t="n">
-        <v>25170</v>
+        <v>25259</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C333" t="n">
-        <v>24632</v>
+        <v>24721</v>
       </c>
       <c r="D333" t="n">
-        <v>25223</v>
+        <v>25312</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B334" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>24708</v>
+        <v>24823</v>
       </c>
       <c r="D334" t="n">
-        <v>25299</v>
+        <v>25414</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C335" t="n">
-        <v>24764</v>
+        <v>24876</v>
       </c>
       <c r="D335" t="n">
-        <v>25355</v>
+        <v>25467</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C336" t="n">
-        <v>24863</v>
+        <v>24952</v>
       </c>
       <c r="D336" t="n">
-        <v>25454</v>
+        <v>25543</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C337" t="n">
-        <v>24965</v>
+        <v>25005</v>
       </c>
       <c r="D337" t="n">
-        <v>25556</v>
+        <v>25596</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B338" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C338" t="n">
-        <v>25041</v>
+        <v>25130</v>
       </c>
       <c r="D338" t="n">
-        <v>25632</v>
+        <v>25721</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B339" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C339" t="n">
-        <v>25094</v>
+        <v>25186</v>
       </c>
       <c r="D339" t="n">
-        <v>25685</v>
+        <v>25777</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C340" t="n">
-        <v>25170</v>
+        <v>25259</v>
       </c>
       <c r="D340" t="n">
-        <v>25761</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C341" t="n">
-        <v>25223</v>
+        <v>25312</v>
       </c>
       <c r="D341" t="n">
-        <v>25814</v>
+        <v>25903</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B342" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>25299</v>
+        <v>25414</v>
       </c>
       <c r="D342" t="n">
-        <v>25890</v>
+        <v>26005</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>25355</v>
+        <v>25467</v>
       </c>
       <c r="D343" t="n">
-        <v>25946</v>
+        <v>26058</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C344" t="n">
-        <v>25454</v>
+        <v>25543</v>
       </c>
       <c r="D344" t="n">
-        <v>26045</v>
+        <v>26134</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C345" t="n">
-        <v>25556</v>
+        <v>25596</v>
       </c>
       <c r="D345" t="n">
-        <v>26147</v>
+        <v>26187</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C346" t="n">
-        <v>25632</v>
+        <v>25721</v>
       </c>
       <c r="D346" t="n">
-        <v>26223</v>
+        <v>26312</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C347" t="n">
-        <v>25685</v>
+        <v>25777</v>
       </c>
       <c r="D347" t="n">
-        <v>26276</v>
+        <v>26368</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B348" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C348" t="n">
-        <v>25761</v>
+        <v>25850</v>
       </c>
       <c r="D348" t="n">
-        <v>26352</v>
+        <v>26441</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B349" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C349" t="n">
-        <v>25814</v>
+        <v>25903</v>
       </c>
       <c r="D349" t="n">
-        <v>26405</v>
+        <v>26494</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>25890</v>
+        <v>26005</v>
       </c>
       <c r="D350" t="n">
-        <v>26481</v>
+        <v>26596</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B351" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C351" t="n">
-        <v>25946</v>
+        <v>26058</v>
       </c>
       <c r="D351" t="n">
-        <v>26537</v>
+        <v>26649</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C352" t="n">
-        <v>26045</v>
+        <v>26134</v>
       </c>
       <c r="D352" t="n">
-        <v>26636</v>
+        <v>26725</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C353" t="n">
-        <v>26147</v>
+        <v>26187</v>
       </c>
       <c r="D353" t="n">
-        <v>26738</v>
+        <v>26778</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C354" t="n">
-        <v>26223</v>
+        <v>26312</v>
       </c>
       <c r="D354" t="n">
-        <v>26814</v>
+        <v>26903</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C355" t="n">
-        <v>26276</v>
+        <v>26368</v>
       </c>
       <c r="D355" t="n">
-        <v>26867</v>
+        <v>26959</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C356" t="n">
-        <v>26352</v>
+        <v>26441</v>
       </c>
       <c r="D356" t="n">
-        <v>26943</v>
+        <v>27032</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B357" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C357" t="n">
-        <v>26405</v>
+        <v>26494</v>
       </c>
       <c r="D357" t="n">
-        <v>26996</v>
+        <v>27085</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B358" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>26481</v>
+        <v>26596</v>
       </c>
       <c r="D358" t="n">
-        <v>27072</v>
+        <v>27187</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C359" t="n">
-        <v>26537</v>
+        <v>26649</v>
       </c>
       <c r="D359" t="n">
-        <v>27128</v>
+        <v>27240</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C360" t="n">
-        <v>26636</v>
+        <v>26725</v>
       </c>
       <c r="D360" t="n">
-        <v>27227</v>
+        <v>27316</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C361" t="n">
-        <v>26738</v>
+        <v>26778</v>
       </c>
       <c r="D361" t="n">
-        <v>27329</v>
+        <v>27369</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>26814</v>
+        <v>26903</v>
       </c>
       <c r="D362" t="n">
-        <v>27405</v>
+        <v>27494</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B363" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C363" t="n">
-        <v>26867</v>
+        <v>26959</v>
       </c>
       <c r="D363" t="n">
-        <v>27458</v>
+        <v>27550</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B364" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C364" t="n">
-        <v>26943</v>
+        <v>27032</v>
       </c>
       <c r="D364" t="n">
-        <v>27534</v>
+        <v>27623</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C365" t="n">
-        <v>26996</v>
+        <v>27085</v>
       </c>
       <c r="D365" t="n">
-        <v>27587</v>
+        <v>27676</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B366" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>27072</v>
+        <v>27187</v>
       </c>
       <c r="D366" t="n">
-        <v>27663</v>
+        <v>27778</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B367" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C367" t="n">
-        <v>27128</v>
+        <v>27240</v>
       </c>
       <c r="D367" t="n">
-        <v>27719</v>
+        <v>27831</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C368" t="n">
-        <v>27227</v>
+        <v>27316</v>
       </c>
       <c r="D368" t="n">
-        <v>27818</v>
+        <v>27907</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C369" t="n">
-        <v>27329</v>
+        <v>27369</v>
       </c>
       <c r="D369" t="n">
-        <v>27920</v>
+        <v>27960</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C370" t="n">
-        <v>27405</v>
+        <v>27494</v>
       </c>
       <c r="D370" t="n">
-        <v>27996</v>
+        <v>28085</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B371" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C371" t="n">
-        <v>27458</v>
+        <v>27550</v>
       </c>
       <c r="D371" t="n">
-        <v>28049</v>
+        <v>28141</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B372" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C372" t="n">
-        <v>27534</v>
+        <v>27623</v>
       </c>
       <c r="D372" t="n">
-        <v>28125</v>
+        <v>28214</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C373" t="n">
-        <v>27587</v>
+        <v>27676</v>
       </c>
       <c r="D373" t="n">
-        <v>28178</v>
+        <v>28267</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B374" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>27663</v>
+        <v>27778</v>
       </c>
       <c r="D374" t="n">
-        <v>28254</v>
+        <v>28369</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C375" t="n">
-        <v>27719</v>
+        <v>27831</v>
       </c>
       <c r="D375" t="n">
-        <v>28310</v>
+        <v>28422</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C376" t="n">
-        <v>27818</v>
+        <v>27907</v>
       </c>
       <c r="D376" t="n">
-        <v>28409</v>
+        <v>28498</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C377" t="n">
-        <v>27920</v>
+        <v>27960</v>
       </c>
       <c r="D377" t="n">
-        <v>28511</v>
+        <v>28551</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C378" t="n">
-        <v>27996</v>
+        <v>28085</v>
       </c>
       <c r="D378" t="n">
-        <v>28587</v>
+        <v>28676</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B379" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C379" t="n">
-        <v>28049</v>
+        <v>28141</v>
       </c>
       <c r="D379" t="n">
-        <v>28640</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" t="n">
-        <v>380</v>
-      </c>
-      <c r="B380" t="n">
-        <v>5</v>
-      </c>
-      <c r="C380" t="n">
-        <v>28125</v>
-      </c>
-      <c r="D380" t="n">
-        <v>28716</v>
+        <v>28732</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D8" t="n">
         <v>975</v>
@@ -497,5196 +497,5084 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="D9" t="n">
-        <v>1028</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>717</v>
       </c>
       <c r="D10" t="n">
-        <v>1176</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>641</v>
+        <v>770</v>
       </c>
       <c r="D11" t="n">
-        <v>1232</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>717</v>
+        <v>846</v>
       </c>
       <c r="D12" t="n">
-        <v>1308</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>770</v>
+        <v>899</v>
       </c>
       <c r="D13" t="n">
-        <v>1361</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>846</v>
+        <v>975</v>
       </c>
       <c r="D14" t="n">
-        <v>1437</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>899</v>
+        <v>641</v>
       </c>
       <c r="D15" t="n">
-        <v>1490</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>975</v>
+        <v>1176</v>
       </c>
       <c r="D16" t="n">
-        <v>1566</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1028</v>
+        <v>1277</v>
       </c>
       <c r="D17" t="n">
-        <v>1619</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1176</v>
+        <v>1335</v>
       </c>
       <c r="D18" t="n">
-        <v>1764</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1232</v>
+        <v>1388</v>
       </c>
       <c r="D19" t="n">
-        <v>1823</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1308</v>
+        <v>1464</v>
       </c>
       <c r="D20" t="n">
-        <v>1899</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1361</v>
+        <v>1517</v>
       </c>
       <c r="D21" t="n">
-        <v>1952</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>1437</v>
+        <v>1593</v>
       </c>
       <c r="D22" t="n">
-        <v>2028</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1490</v>
+        <v>1695</v>
       </c>
       <c r="D23" t="n">
-        <v>2081</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1566</v>
+        <v>1764</v>
       </c>
       <c r="D24" t="n">
-        <v>2157</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>1619</v>
+        <v>1865</v>
       </c>
       <c r="D25" t="n">
-        <v>2210</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>1764</v>
+        <v>1948</v>
       </c>
       <c r="D26" t="n">
-        <v>2352</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>1823</v>
+        <v>2001</v>
       </c>
       <c r="D27" t="n">
-        <v>2414</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>1899</v>
+        <v>2077</v>
       </c>
       <c r="D28" t="n">
-        <v>2490</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>1952</v>
+        <v>2130</v>
       </c>
       <c r="D29" t="n">
-        <v>2543</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>2028</v>
+        <v>2206</v>
       </c>
       <c r="D30" t="n">
-        <v>2619</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2081</v>
+        <v>2308</v>
       </c>
       <c r="D31" t="n">
-        <v>2672</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2157</v>
+        <v>2364</v>
       </c>
       <c r="D32" t="n">
-        <v>2748</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>2210</v>
+        <v>2463</v>
       </c>
       <c r="D33" t="n">
-        <v>2801</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>2352</v>
+        <v>2546</v>
       </c>
       <c r="D34" t="n">
-        <v>2940</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>2414</v>
+        <v>2599</v>
       </c>
       <c r="D35" t="n">
-        <v>3005</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>2490</v>
+        <v>2675</v>
       </c>
       <c r="D36" t="n">
-        <v>3081</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>2543</v>
+        <v>2728</v>
       </c>
       <c r="D37" t="n">
-        <v>3134</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>2619</v>
+        <v>2804</v>
       </c>
       <c r="D38" t="n">
-        <v>3210</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2672</v>
+        <v>2906</v>
       </c>
       <c r="D39" t="n">
-        <v>3263</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2748</v>
+        <v>2962</v>
       </c>
       <c r="D40" t="n">
-        <v>3339</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>2801</v>
+        <v>3061</v>
       </c>
       <c r="D41" t="n">
-        <v>3392</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>2940</v>
+        <v>3144</v>
       </c>
       <c r="D42" t="n">
-        <v>3528</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>3005</v>
+        <v>3197</v>
       </c>
       <c r="D43" t="n">
-        <v>3596</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>3081</v>
+        <v>3273</v>
       </c>
       <c r="D44" t="n">
-        <v>3672</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>3134</v>
+        <v>3326</v>
       </c>
       <c r="D45" t="n">
-        <v>3725</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>3210</v>
+        <v>3402</v>
       </c>
       <c r="D46" t="n">
-        <v>3801</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>3263</v>
+        <v>3504</v>
       </c>
       <c r="D47" t="n">
-        <v>3854</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>3339</v>
+        <v>3560</v>
       </c>
       <c r="D48" t="n">
-        <v>3930</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>3392</v>
+        <v>3659</v>
       </c>
       <c r="D49" t="n">
-        <v>3983</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>3528</v>
+        <v>3742</v>
       </c>
       <c r="D50" t="n">
-        <v>4116</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>3596</v>
+        <v>3795</v>
       </c>
       <c r="D51" t="n">
-        <v>4187</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>3672</v>
+        <v>3871</v>
       </c>
       <c r="D52" t="n">
-        <v>4263</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>3725</v>
+        <v>3924</v>
       </c>
       <c r="D53" t="n">
-        <v>4316</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>3801</v>
+        <v>4000</v>
       </c>
       <c r="D54" t="n">
-        <v>4392</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>3854</v>
+        <v>4102</v>
       </c>
       <c r="D55" t="n">
-        <v>4445</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>3930</v>
+        <v>4158</v>
       </c>
       <c r="D56" t="n">
-        <v>4521</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>3983</v>
+        <v>4257</v>
       </c>
       <c r="D57" t="n">
-        <v>4574</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>4116</v>
+        <v>4340</v>
       </c>
       <c r="D58" t="n">
-        <v>4704</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>4187</v>
+        <v>4393</v>
       </c>
       <c r="D59" t="n">
-        <v>4778</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>4263</v>
+        <v>4469</v>
       </c>
       <c r="D60" t="n">
-        <v>4854</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>4316</v>
+        <v>4522</v>
       </c>
       <c r="D61" t="n">
-        <v>4907</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>4392</v>
+        <v>4598</v>
       </c>
       <c r="D62" t="n">
-        <v>4983</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>4445</v>
+        <v>4700</v>
       </c>
       <c r="D63" t="n">
-        <v>5036</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>4521</v>
+        <v>4756</v>
       </c>
       <c r="D64" t="n">
-        <v>5112</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>4574</v>
+        <v>4855</v>
       </c>
       <c r="D65" t="n">
-        <v>5165</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>4704</v>
+        <v>4938</v>
       </c>
       <c r="D66" t="n">
-        <v>5292</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>4778</v>
+        <v>4991</v>
       </c>
       <c r="D67" t="n">
-        <v>5369</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>4854</v>
+        <v>5067</v>
       </c>
       <c r="D68" t="n">
-        <v>5445</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>4907</v>
+        <v>5120</v>
       </c>
       <c r="D69" t="n">
-        <v>5498</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>4983</v>
+        <v>5196</v>
       </c>
       <c r="D70" t="n">
-        <v>5574</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>5036</v>
+        <v>5298</v>
       </c>
       <c r="D71" t="n">
-        <v>5627</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>5112</v>
+        <v>5354</v>
       </c>
       <c r="D72" t="n">
-        <v>5703</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>5165</v>
+        <v>5453</v>
       </c>
       <c r="D73" t="n">
-        <v>5756</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>5292</v>
+        <v>5536</v>
       </c>
       <c r="D74" t="n">
-        <v>5880</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>5369</v>
+        <v>5589</v>
       </c>
       <c r="D75" t="n">
-        <v>5960</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>5445</v>
+        <v>5665</v>
       </c>
       <c r="D76" t="n">
-        <v>6036</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>5498</v>
+        <v>5718</v>
       </c>
       <c r="D77" t="n">
-        <v>6089</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>5574</v>
+        <v>5794</v>
       </c>
       <c r="D78" t="n">
-        <v>6165</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>5627</v>
+        <v>5896</v>
       </c>
       <c r="D79" t="n">
-        <v>6218</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>5703</v>
+        <v>5952</v>
       </c>
       <c r="D80" t="n">
-        <v>6294</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>5756</v>
+        <v>6051</v>
       </c>
       <c r="D81" t="n">
-        <v>6347</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>5880</v>
+        <v>6134</v>
       </c>
       <c r="D82" t="n">
-        <v>6468</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>5960</v>
+        <v>6187</v>
       </c>
       <c r="D83" t="n">
-        <v>6551</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>6036</v>
+        <v>6263</v>
       </c>
       <c r="D84" t="n">
-        <v>6627</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>6089</v>
+        <v>6316</v>
       </c>
       <c r="D85" t="n">
-        <v>6680</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>6165</v>
+        <v>6392</v>
       </c>
       <c r="D86" t="n">
-        <v>6756</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>6218</v>
+        <v>6494</v>
       </c>
       <c r="D87" t="n">
-        <v>6809</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>6294</v>
+        <v>6550</v>
       </c>
       <c r="D88" t="n">
-        <v>6885</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>6347</v>
+        <v>6649</v>
       </c>
       <c r="D89" t="n">
-        <v>6938</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>6468</v>
+        <v>6732</v>
       </c>
       <c r="D90" t="n">
-        <v>7056</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>6551</v>
+        <v>6785</v>
       </c>
       <c r="D91" t="n">
-        <v>7142</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>6627</v>
+        <v>6861</v>
       </c>
       <c r="D92" t="n">
-        <v>7218</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
-        <v>6680</v>
+        <v>6914</v>
       </c>
       <c r="D93" t="n">
-        <v>7271</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>6756</v>
+        <v>6990</v>
       </c>
       <c r="D94" t="n">
-        <v>7347</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>6809</v>
+        <v>7092</v>
       </c>
       <c r="D95" t="n">
-        <v>7400</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6885</v>
+        <v>7148</v>
       </c>
       <c r="D96" t="n">
-        <v>7476</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>6938</v>
+        <v>7247</v>
       </c>
       <c r="D97" t="n">
-        <v>7529</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>7056</v>
+        <v>7330</v>
       </c>
       <c r="D98" t="n">
-        <v>7644</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>7142</v>
+        <v>7383</v>
       </c>
       <c r="D99" t="n">
-        <v>7733</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>7218</v>
+        <v>7459</v>
       </c>
       <c r="D100" t="n">
-        <v>7809</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>7271</v>
+        <v>7512</v>
       </c>
       <c r="D101" t="n">
-        <v>7862</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>7347</v>
+        <v>7588</v>
       </c>
       <c r="D102" t="n">
-        <v>7938</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>7400</v>
+        <v>7690</v>
       </c>
       <c r="D103" t="n">
-        <v>7991</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>7476</v>
+        <v>7746</v>
       </c>
       <c r="D104" t="n">
-        <v>8067</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>7529</v>
+        <v>7845</v>
       </c>
       <c r="D105" t="n">
-        <v>8120</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>7644</v>
+        <v>7928</v>
       </c>
       <c r="D106" t="n">
-        <v>8232</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>7733</v>
+        <v>7981</v>
       </c>
       <c r="D107" t="n">
-        <v>8324</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>7809</v>
+        <v>8057</v>
       </c>
       <c r="D108" t="n">
-        <v>8400</v>
+        <v>8655</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>7862</v>
+        <v>8110</v>
       </c>
       <c r="D109" t="n">
-        <v>8453</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>7938</v>
+        <v>8186</v>
       </c>
       <c r="D110" t="n">
-        <v>8529</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>7991</v>
+        <v>8288</v>
       </c>
       <c r="D111" t="n">
-        <v>8582</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>8067</v>
+        <v>8344</v>
       </c>
       <c r="D112" t="n">
-        <v>8658</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>8120</v>
+        <v>8443</v>
       </c>
       <c r="D113" t="n">
-        <v>8711</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>8232</v>
+        <v>8526</v>
       </c>
       <c r="D114" t="n">
-        <v>8820</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>8324</v>
+        <v>8579</v>
       </c>
       <c r="D115" t="n">
-        <v>8915</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>8400</v>
+        <v>8655</v>
       </c>
       <c r="D116" t="n">
-        <v>8991</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117" t="n">
-        <v>8453</v>
+        <v>8708</v>
       </c>
       <c r="D117" t="n">
-        <v>9044</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>8529</v>
+        <v>8784</v>
       </c>
       <c r="D118" t="n">
-        <v>9120</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>8582</v>
+        <v>8886</v>
       </c>
       <c r="D119" t="n">
-        <v>9173</v>
+        <v>9484</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>8658</v>
+        <v>8942</v>
       </c>
       <c r="D120" t="n">
-        <v>9249</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>8711</v>
+        <v>9041</v>
       </c>
       <c r="D121" t="n">
-        <v>9302</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>8820</v>
+        <v>9124</v>
       </c>
       <c r="D122" t="n">
-        <v>9408</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>8915</v>
+        <v>9177</v>
       </c>
       <c r="D123" t="n">
-        <v>9506</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>8991</v>
+        <v>9253</v>
       </c>
       <c r="D124" t="n">
-        <v>9582</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>9044</v>
+        <v>9306</v>
       </c>
       <c r="D125" t="n">
-        <v>9635</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>9120</v>
+        <v>9382</v>
       </c>
       <c r="D126" t="n">
-        <v>9711</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>9173</v>
+        <v>9484</v>
       </c>
       <c r="D127" t="n">
-        <v>9764</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>9249</v>
+        <v>9540</v>
       </c>
       <c r="D128" t="n">
-        <v>9840</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="n">
-        <v>9302</v>
+        <v>9639</v>
       </c>
       <c r="D129" t="n">
-        <v>9893</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>9408</v>
+        <v>9722</v>
       </c>
       <c r="D130" t="n">
-        <v>9996</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
-        <v>9506</v>
+        <v>9775</v>
       </c>
       <c r="D131" t="n">
-        <v>10097</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>9582</v>
+        <v>9851</v>
       </c>
       <c r="D132" t="n">
-        <v>10173</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>9635</v>
+        <v>9904</v>
       </c>
       <c r="D133" t="n">
-        <v>10226</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>9711</v>
+        <v>9980</v>
       </c>
       <c r="D134" t="n">
-        <v>10302</v>
+        <v>10578</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>9764</v>
+        <v>10082</v>
       </c>
       <c r="D135" t="n">
-        <v>10355</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>9840</v>
+        <v>10138</v>
       </c>
       <c r="D136" t="n">
-        <v>10431</v>
+        <v>10736</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>9893</v>
+        <v>10237</v>
       </c>
       <c r="D137" t="n">
-        <v>10484</v>
+        <v>10835</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>9996</v>
+        <v>10320</v>
       </c>
       <c r="D138" t="n">
-        <v>10586</v>
+        <v>10918</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" t="n">
-        <v>10097</v>
+        <v>10373</v>
       </c>
       <c r="D139" t="n">
-        <v>10688</v>
+        <v>10971</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>10173</v>
+        <v>10449</v>
       </c>
       <c r="D140" t="n">
-        <v>10764</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C141" t="n">
-        <v>10226</v>
+        <v>10578</v>
       </c>
       <c r="D141" t="n">
-        <v>10817</v>
+        <v>11169</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>10302</v>
+        <v>10680</v>
       </c>
       <c r="D142" t="n">
-        <v>10893</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>10355</v>
+        <v>10736</v>
       </c>
       <c r="D143" t="n">
-        <v>10946</v>
+        <v>11327</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" t="n">
         <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>10431</v>
+        <v>10835</v>
       </c>
       <c r="D144" t="n">
-        <v>11022</v>
+        <v>11426</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>10484</v>
+        <v>10918</v>
       </c>
       <c r="D145" t="n">
-        <v>11075</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>10586</v>
+        <v>10971</v>
       </c>
       <c r="D146" t="n">
-        <v>11177</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>10688</v>
+        <v>11047</v>
       </c>
       <c r="D147" t="n">
-        <v>11279</v>
+        <v>11638</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>10764</v>
+        <v>11169</v>
       </c>
       <c r="D148" t="n">
-        <v>11355</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>10817</v>
+        <v>11271</v>
       </c>
       <c r="D149" t="n">
-        <v>11408</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>10893</v>
+        <v>11327</v>
       </c>
       <c r="D150" t="n">
-        <v>11484</v>
+        <v>11953</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="n">
-        <v>10946</v>
+        <v>11426</v>
       </c>
       <c r="D151" t="n">
-        <v>11537</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>11022</v>
+        <v>11509</v>
       </c>
       <c r="D152" t="n">
-        <v>11613</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C153" t="n">
-        <v>11075</v>
+        <v>11562</v>
       </c>
       <c r="D153" t="n">
-        <v>11666</v>
+        <v>12188</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>11177</v>
+        <v>11638</v>
       </c>
       <c r="D154" t="n">
-        <v>11768</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>11279</v>
+        <v>11760</v>
       </c>
       <c r="D155" t="n">
-        <v>11870</v>
+        <v>12351</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C156" t="n">
-        <v>11355</v>
+        <v>11836</v>
       </c>
       <c r="D156" t="n">
-        <v>11946</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>11408</v>
+        <v>11897</v>
       </c>
       <c r="D157" t="n">
-        <v>11999</v>
+        <v>12513</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>11484</v>
+        <v>11953</v>
       </c>
       <c r="D158" t="n">
-        <v>12075</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
-        <v>11537</v>
+        <v>12052</v>
       </c>
       <c r="D159" t="n">
-        <v>12128</v>
+        <v>12668</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>11613</v>
+        <v>12135</v>
       </c>
       <c r="D160" t="n">
-        <v>12204</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C161" t="n">
-        <v>11666</v>
+        <v>12188</v>
       </c>
       <c r="D161" t="n">
-        <v>12257</v>
+        <v>12804</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>11768</v>
+        <v>12264</v>
       </c>
       <c r="D162" t="n">
-        <v>12359</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>11870</v>
+        <v>12351</v>
       </c>
       <c r="D163" t="n">
-        <v>12461</v>
+        <v>12953</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>11946</v>
+        <v>12427</v>
       </c>
       <c r="D164" t="n">
-        <v>12537</v>
+        <v>13029</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>11999</v>
+        <v>12513</v>
       </c>
       <c r="D165" t="n">
-        <v>12590</v>
+        <v>13115</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>12075</v>
+        <v>12569</v>
       </c>
       <c r="D166" t="n">
-        <v>12666</v>
+        <v>13171</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
-        <v>12128</v>
+        <v>12668</v>
       </c>
       <c r="D167" t="n">
-        <v>12719</v>
+        <v>13270</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>12204</v>
+        <v>12751</v>
       </c>
       <c r="D168" t="n">
-        <v>12795</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>12257</v>
+        <v>12804</v>
       </c>
       <c r="D169" t="n">
-        <v>12848</v>
+        <v>13406</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>12359</v>
+        <v>12880</v>
       </c>
       <c r="D170" t="n">
-        <v>12950</v>
+        <v>13482</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C171" t="n">
-        <v>12461</v>
+        <v>12953</v>
       </c>
       <c r="D171" t="n">
-        <v>13052</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>12537</v>
+        <v>13029</v>
       </c>
       <c r="D172" t="n">
-        <v>13128</v>
+        <v>13631</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>12590</v>
+        <v>13115</v>
       </c>
       <c r="D173" t="n">
-        <v>13181</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>12666</v>
+        <v>13171</v>
       </c>
       <c r="D174" t="n">
-        <v>13257</v>
+        <v>13773</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>12719</v>
+        <v>13270</v>
       </c>
       <c r="D175" t="n">
-        <v>13310</v>
+        <v>13872</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>12795</v>
+        <v>13353</v>
       </c>
       <c r="D176" t="n">
-        <v>13386</v>
+        <v>13955</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>12848</v>
+        <v>13406</v>
       </c>
       <c r="D177" t="n">
-        <v>13439</v>
+        <v>14008</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>12950</v>
+        <v>13482</v>
       </c>
       <c r="D178" t="n">
-        <v>13541</v>
+        <v>14084</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C179" t="n">
-        <v>13052</v>
+        <v>13555</v>
       </c>
       <c r="D179" t="n">
-        <v>13643</v>
+        <v>14157</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>13128</v>
+        <v>13631</v>
       </c>
       <c r="D180" t="n">
-        <v>13719</v>
+        <v>14233</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
-        <v>13181</v>
+        <v>13717</v>
       </c>
       <c r="D181" t="n">
-        <v>13772</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>13257</v>
+        <v>13773</v>
       </c>
       <c r="D182" t="n">
-        <v>13848</v>
+        <v>14375</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>13310</v>
+        <v>13872</v>
       </c>
       <c r="D183" t="n">
-        <v>13901</v>
+        <v>14474</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>13386</v>
+        <v>13955</v>
       </c>
       <c r="D184" t="n">
-        <v>13977</v>
+        <v>14557</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>13439</v>
+        <v>14008</v>
       </c>
       <c r="D185" t="n">
-        <v>14030</v>
+        <v>14610</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>13541</v>
+        <v>14084</v>
       </c>
       <c r="D186" t="n">
-        <v>14132</v>
+        <v>14686</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C187" t="n">
-        <v>13643</v>
+        <v>14157</v>
       </c>
       <c r="D187" t="n">
-        <v>14234</v>
+        <v>14759</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v>13719</v>
+        <v>14233</v>
       </c>
       <c r="D188" t="n">
-        <v>14310</v>
+        <v>14835</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>13772</v>
+        <v>14319</v>
       </c>
       <c r="D189" t="n">
-        <v>14363</v>
+        <v>14921</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>13848</v>
+        <v>14375</v>
       </c>
       <c r="D190" t="n">
-        <v>14439</v>
+        <v>14977</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="n">
-        <v>13901</v>
+        <v>14474</v>
       </c>
       <c r="D191" t="n">
-        <v>14492</v>
+        <v>15076</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>13977</v>
+        <v>14557</v>
       </c>
       <c r="D192" t="n">
-        <v>14568</v>
+        <v>15159</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>14030</v>
+        <v>14610</v>
       </c>
       <c r="D193" t="n">
-        <v>14621</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C194" t="n">
-        <v>14132</v>
+        <v>14686</v>
       </c>
       <c r="D194" t="n">
-        <v>14723</v>
+        <v>15288</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C195" t="n">
-        <v>14234</v>
+        <v>14759</v>
       </c>
       <c r="D195" t="n">
-        <v>14825</v>
+        <v>15361</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>14310</v>
+        <v>14835</v>
       </c>
       <c r="D196" t="n">
-        <v>14901</v>
+        <v>15437</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C197" t="n">
-        <v>14363</v>
+        <v>14921</v>
       </c>
       <c r="D197" t="n">
-        <v>14954</v>
+        <v>15523</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>14439</v>
+        <v>14977</v>
       </c>
       <c r="D198" t="n">
-        <v>15030</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="n">
-        <v>14492</v>
+        <v>15076</v>
       </c>
       <c r="D199" t="n">
-        <v>15083</v>
+        <v>15678</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>14568</v>
+        <v>15159</v>
       </c>
       <c r="D200" t="n">
-        <v>15159</v>
+        <v>15761</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>14621</v>
+        <v>15212</v>
       </c>
       <c r="D201" t="n">
-        <v>15212</v>
+        <v>15814</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>14723</v>
+        <v>15288</v>
       </c>
       <c r="D202" t="n">
-        <v>15314</v>
+        <v>15890</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C203" t="n">
-        <v>14825</v>
+        <v>15361</v>
       </c>
       <c r="D203" t="n">
-        <v>15416</v>
+        <v>15963</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>14901</v>
+        <v>15437</v>
       </c>
       <c r="D204" t="n">
-        <v>15492</v>
+        <v>16039</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C205" t="n">
-        <v>14954</v>
+        <v>15523</v>
       </c>
       <c r="D205" t="n">
-        <v>15545</v>
+        <v>16125</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>15030</v>
+        <v>15579</v>
       </c>
       <c r="D206" t="n">
-        <v>15621</v>
+        <v>16181</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>15083</v>
+        <v>15678</v>
       </c>
       <c r="D207" t="n">
-        <v>15674</v>
+        <v>16280</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>15159</v>
+        <v>15761</v>
       </c>
       <c r="D208" t="n">
-        <v>15750</v>
+        <v>16363</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>15212</v>
+        <v>15814</v>
       </c>
       <c r="D209" t="n">
-        <v>15803</v>
+        <v>16416</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>15314</v>
+        <v>15890</v>
       </c>
       <c r="D210" t="n">
-        <v>15905</v>
+        <v>16492</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>15416</v>
+        <v>15963</v>
       </c>
       <c r="D211" t="n">
-        <v>16007</v>
+        <v>16565</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C212" t="n">
-        <v>15492</v>
+        <v>16039</v>
       </c>
       <c r="D212" t="n">
-        <v>16083</v>
+        <v>16641</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C213" t="n">
-        <v>15545</v>
+        <v>16125</v>
       </c>
       <c r="D213" t="n">
-        <v>16136</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>15621</v>
+        <v>16181</v>
       </c>
       <c r="D214" t="n">
-        <v>16212</v>
+        <v>16783</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>15674</v>
+        <v>16280</v>
       </c>
       <c r="D215" t="n">
-        <v>16265</v>
+        <v>16882</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C216" t="n">
-        <v>15750</v>
+        <v>16363</v>
       </c>
       <c r="D216" t="n">
-        <v>16341</v>
+        <v>16965</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C217" t="n">
-        <v>15803</v>
+        <v>16416</v>
       </c>
       <c r="D217" t="n">
-        <v>16394</v>
+        <v>17018</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>15905</v>
+        <v>16492</v>
       </c>
       <c r="D218" t="n">
-        <v>16496</v>
+        <v>17094</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C219" t="n">
-        <v>16007</v>
+        <v>16565</v>
       </c>
       <c r="D219" t="n">
-        <v>16598</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C220" t="n">
-        <v>16083</v>
+        <v>16641</v>
       </c>
       <c r="D220" t="n">
-        <v>16674</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>16136</v>
+        <v>16727</v>
       </c>
       <c r="D221" t="n">
-        <v>16727</v>
+        <v>17329</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>16212</v>
+        <v>16783</v>
       </c>
       <c r="D222" t="n">
-        <v>16803</v>
+        <v>17385</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="n">
-        <v>16265</v>
+        <v>16882</v>
       </c>
       <c r="D223" t="n">
-        <v>16856</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" t="n">
-        <v>16341</v>
+        <v>16965</v>
       </c>
       <c r="D224" t="n">
-        <v>16932</v>
+        <v>17567</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C225" t="n">
-        <v>16394</v>
+        <v>17018</v>
       </c>
       <c r="D225" t="n">
-        <v>16985</v>
+        <v>17620</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>16496</v>
+        <v>17094</v>
       </c>
       <c r="D226" t="n">
-        <v>17087</v>
+        <v>17696</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>16598</v>
+        <v>17167</v>
       </c>
       <c r="D227" t="n">
-        <v>17189</v>
+        <v>17769</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C228" t="n">
-        <v>16674</v>
+        <v>17243</v>
       </c>
       <c r="D228" t="n">
-        <v>17265</v>
+        <v>17845</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
-        <v>16727</v>
+        <v>17329</v>
       </c>
       <c r="D229" t="n">
-        <v>17318</v>
+        <v>17931</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B230" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>16803</v>
+        <v>17385</v>
       </c>
       <c r="D230" t="n">
-        <v>17394</v>
+        <v>17987</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
-        <v>16856</v>
+        <v>17484</v>
       </c>
       <c r="D231" t="n">
-        <v>17447</v>
+        <v>18086</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>16932</v>
+        <v>17567</v>
       </c>
       <c r="D232" t="n">
-        <v>17523</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C233" t="n">
-        <v>16985</v>
+        <v>17620</v>
       </c>
       <c r="D233" t="n">
-        <v>17576</v>
+        <v>18222</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>17087</v>
+        <v>17696</v>
       </c>
       <c r="D234" t="n">
-        <v>17678</v>
+        <v>18298</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C235" t="n">
-        <v>17189</v>
+        <v>17769</v>
       </c>
       <c r="D235" t="n">
-        <v>17780</v>
+        <v>18371</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C236" t="n">
-        <v>17265</v>
+        <v>17845</v>
       </c>
       <c r="D236" t="n">
-        <v>17856</v>
+        <v>18447</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>17318</v>
+        <v>17931</v>
       </c>
       <c r="D237" t="n">
-        <v>17909</v>
+        <v>18533</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>17394</v>
+        <v>17987</v>
       </c>
       <c r="D238" t="n">
-        <v>17985</v>
+        <v>18589</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="n">
-        <v>17447</v>
+        <v>18086</v>
       </c>
       <c r="D239" t="n">
-        <v>18038</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B240" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C240" t="n">
-        <v>17523</v>
+        <v>18169</v>
       </c>
       <c r="D240" t="n">
-        <v>18114</v>
+        <v>18771</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C241" t="n">
-        <v>17576</v>
+        <v>18222</v>
       </c>
       <c r="D241" t="n">
-        <v>18167</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C242" t="n">
-        <v>17678</v>
+        <v>18298</v>
       </c>
       <c r="D242" t="n">
-        <v>18269</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C243" t="n">
-        <v>17780</v>
+        <v>18371</v>
       </c>
       <c r="D243" t="n">
-        <v>18371</v>
+        <v>18973</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C244" t="n">
-        <v>17856</v>
+        <v>18447</v>
       </c>
       <c r="D244" t="n">
-        <v>18447</v>
+        <v>19049</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C245" t="n">
-        <v>17909</v>
+        <v>18533</v>
       </c>
       <c r="D245" t="n">
-        <v>18500</v>
+        <v>19135</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>17985</v>
+        <v>18589</v>
       </c>
       <c r="D246" t="n">
-        <v>18576</v>
+        <v>19191</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="n">
-        <v>18038</v>
+        <v>18688</v>
       </c>
       <c r="D247" t="n">
-        <v>18629</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C248" t="n">
-        <v>18114</v>
+        <v>18771</v>
       </c>
       <c r="D248" t="n">
-        <v>18705</v>
+        <v>19373</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C249" t="n">
-        <v>18167</v>
+        <v>18824</v>
       </c>
       <c r="D249" t="n">
-        <v>18758</v>
+        <v>19426</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C250" t="n">
-        <v>18269</v>
+        <v>18900</v>
       </c>
       <c r="D250" t="n">
-        <v>18860</v>
+        <v>19502</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C251" t="n">
-        <v>18371</v>
+        <v>18973</v>
       </c>
       <c r="D251" t="n">
-        <v>18962</v>
+        <v>19575</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C252" t="n">
-        <v>18447</v>
+        <v>19049</v>
       </c>
       <c r="D252" t="n">
-        <v>19038</v>
+        <v>19651</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>18500</v>
+        <v>19135</v>
       </c>
       <c r="D253" t="n">
-        <v>19091</v>
+        <v>19737</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>18576</v>
+        <v>19191</v>
       </c>
       <c r="D254" t="n">
-        <v>19167</v>
+        <v>19793</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="n">
-        <v>18629</v>
+        <v>19290</v>
       </c>
       <c r="D255" t="n">
-        <v>19220</v>
+        <v>19892</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>18705</v>
+        <v>19373</v>
       </c>
       <c r="D256" t="n">
-        <v>19296</v>
+        <v>19975</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B257" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C257" t="n">
-        <v>18758</v>
+        <v>19426</v>
       </c>
       <c r="D257" t="n">
-        <v>19349</v>
+        <v>20028</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C258" t="n">
-        <v>18860</v>
+        <v>19502</v>
       </c>
       <c r="D258" t="n">
-        <v>19451</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C259" t="n">
-        <v>18962</v>
+        <v>19575</v>
       </c>
       <c r="D259" t="n">
-        <v>19553</v>
+        <v>20177</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C260" t="n">
-        <v>19038</v>
+        <v>19651</v>
       </c>
       <c r="D260" t="n">
-        <v>19629</v>
+        <v>20253</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C261" t="n">
-        <v>19091</v>
+        <v>19737</v>
       </c>
       <c r="D261" t="n">
-        <v>19682</v>
+        <v>20339</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>19167</v>
+        <v>19793</v>
       </c>
       <c r="D262" t="n">
-        <v>19758</v>
+        <v>20395</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C263" t="n">
-        <v>19220</v>
+        <v>19892</v>
       </c>
       <c r="D263" t="n">
-        <v>19811</v>
+        <v>20494</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B264" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C264" t="n">
-        <v>19349</v>
+        <v>19975</v>
       </c>
       <c r="D264" t="n">
-        <v>19940</v>
+        <v>20577</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C265" t="n">
-        <v>19451</v>
+        <v>20028</v>
       </c>
       <c r="D265" t="n">
-        <v>20042</v>
+        <v>20630</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>19553</v>
+        <v>20104</v>
       </c>
       <c r="D266" t="n">
-        <v>20144</v>
+        <v>20706</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C267" t="n">
-        <v>19629</v>
+        <v>20177</v>
       </c>
       <c r="D267" t="n">
-        <v>20220</v>
+        <v>20779</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C268" t="n">
-        <v>19682</v>
+        <v>20253</v>
       </c>
       <c r="D268" t="n">
-        <v>20273</v>
+        <v>20855</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C269" t="n">
-        <v>19758</v>
+        <v>20339</v>
       </c>
       <c r="D269" t="n">
-        <v>20349</v>
+        <v>20941</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B270" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>19811</v>
+        <v>20395</v>
       </c>
       <c r="D270" t="n">
-        <v>20402</v>
+        <v>20997</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271" t="n">
-        <v>19940</v>
+        <v>20494</v>
       </c>
       <c r="D271" t="n">
-        <v>20531</v>
+        <v>21096</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C272" t="n">
-        <v>20042</v>
+        <v>20577</v>
       </c>
       <c r="D272" t="n">
-        <v>20633</v>
+        <v>21179</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C273" t="n">
-        <v>20144</v>
+        <v>20630</v>
       </c>
       <c r="D273" t="n">
-        <v>20735</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>20220</v>
+        <v>20706</v>
       </c>
       <c r="D274" t="n">
-        <v>20811</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C275" t="n">
-        <v>20273</v>
+        <v>20779</v>
       </c>
       <c r="D275" t="n">
-        <v>20864</v>
+        <v>21381</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B276" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C276" t="n">
-        <v>20349</v>
+        <v>20855</v>
       </c>
       <c r="D276" t="n">
-        <v>20940</v>
+        <v>21457</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B277" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C277" t="n">
-        <v>20402</v>
+        <v>20941</v>
       </c>
       <c r="D277" t="n">
-        <v>20993</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B278" t="n">
         <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>20478</v>
+        <v>21096</v>
       </c>
       <c r="D278" t="n">
-        <v>21069</v>
+        <v>21684</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B279" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C279" t="n">
-        <v>20531</v>
+        <v>21179</v>
       </c>
       <c r="D279" t="n">
-        <v>21122</v>
+        <v>21767</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C280" t="n">
-        <v>20633</v>
+        <v>21232</v>
       </c>
       <c r="D280" t="n">
-        <v>21224</v>
+        <v>21823</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C281" t="n">
-        <v>20735</v>
+        <v>21308</v>
       </c>
       <c r="D281" t="n">
-        <v>21326</v>
+        <v>21899</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B282" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C282" t="n">
-        <v>20811</v>
+        <v>21381</v>
       </c>
       <c r="D282" t="n">
-        <v>21402</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C283" t="n">
-        <v>20864</v>
+        <v>21457</v>
       </c>
       <c r="D283" t="n">
-        <v>21455</v>
+        <v>22048</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B284" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C284" t="n">
-        <v>20940</v>
+        <v>21543</v>
       </c>
       <c r="D284" t="n">
-        <v>21531</v>
+        <v>22162</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B285" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>20993</v>
+        <v>21684</v>
       </c>
       <c r="D285" t="n">
-        <v>21584</v>
+        <v>22272</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B286" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C286" t="n">
-        <v>21069</v>
+        <v>21767</v>
       </c>
       <c r="D286" t="n">
-        <v>21660</v>
+        <v>22355</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B287" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C287" t="n">
-        <v>21122</v>
+        <v>21823</v>
       </c>
       <c r="D287" t="n">
-        <v>21713</v>
+        <v>22414</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C288" t="n">
-        <v>21224</v>
+        <v>21899</v>
       </c>
       <c r="D288" t="n">
-        <v>21815</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C289" t="n">
-        <v>21326</v>
+        <v>21972</v>
       </c>
       <c r="D289" t="n">
-        <v>21917</v>
+        <v>22563</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C290" t="n">
-        <v>21402</v>
+        <v>22048</v>
       </c>
       <c r="D290" t="n">
-        <v>21993</v>
+        <v>22639</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>21455</v>
+        <v>22134</v>
       </c>
       <c r="D291" t="n">
-        <v>22046</v>
+        <v>22725</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B292" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C292" t="n">
-        <v>21584</v>
+        <v>22162</v>
       </c>
       <c r="D292" t="n">
-        <v>22175</v>
+        <v>22778</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B293" t="n">
         <v>7</v>
       </c>
       <c r="C293" t="n">
-        <v>21660</v>
+        <v>22272</v>
       </c>
       <c r="D293" t="n">
-        <v>22251</v>
+        <v>22880</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B294" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C294" t="n">
-        <v>21713</v>
+        <v>22355</v>
       </c>
       <c r="D294" t="n">
-        <v>22304</v>
+        <v>22963</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C295" t="n">
-        <v>21815</v>
+        <v>22414</v>
       </c>
       <c r="D295" t="n">
-        <v>22406</v>
+        <v>23016</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>21917</v>
+        <v>22490</v>
       </c>
       <c r="D296" t="n">
-        <v>22508</v>
+        <v>23092</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B297" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C297" t="n">
-        <v>21993</v>
+        <v>22563</v>
       </c>
       <c r="D297" t="n">
-        <v>22584</v>
+        <v>23165</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B298" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C298" t="n">
-        <v>22046</v>
+        <v>22639</v>
       </c>
       <c r="D298" t="n">
-        <v>22637</v>
+        <v>23241</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>22175</v>
+        <v>22725</v>
       </c>
       <c r="D299" t="n">
-        <v>22766</v>
+        <v>23327</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C300" t="n">
-        <v>22251</v>
+        <v>22778</v>
       </c>
       <c r="D300" t="n">
-        <v>22870</v>
+        <v>23380</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B301" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301" t="n">
-        <v>22304</v>
+        <v>22880</v>
       </c>
       <c r="D301" t="n">
-        <v>22923</v>
+        <v>23482</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C302" t="n">
-        <v>22406</v>
+        <v>22963</v>
       </c>
       <c r="D302" t="n">
-        <v>23025</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C303" t="n">
-        <v>22508</v>
+        <v>23016</v>
       </c>
       <c r="D303" t="n">
-        <v>23099</v>
+        <v>23618</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B304" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C304" t="n">
-        <v>22584</v>
+        <v>23092</v>
       </c>
       <c r="D304" t="n">
-        <v>23175</v>
+        <v>23694</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B305" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C305" t="n">
-        <v>22637</v>
+        <v>23165</v>
       </c>
       <c r="D305" t="n">
-        <v>23228</v>
+        <v>23767</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B306" t="n">
         <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>22766</v>
+        <v>23241</v>
       </c>
       <c r="D306" t="n">
-        <v>23357</v>
+        <v>23843</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>22822</v>
+        <v>23327</v>
       </c>
       <c r="D307" t="n">
-        <v>23413</v>
+        <v>23929</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B308" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C308" t="n">
-        <v>22870</v>
+        <v>23380</v>
       </c>
       <c r="D308" t="n">
-        <v>23486</v>
+        <v>23982</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B309" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C309" t="n">
-        <v>22923</v>
+        <v>23482</v>
       </c>
       <c r="D309" t="n">
-        <v>23539</v>
+        <v>24084</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C310" t="n">
-        <v>23025</v>
+        <v>23565</v>
       </c>
       <c r="D310" t="n">
-        <v>23641</v>
+        <v>24167</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C311" t="n">
-        <v>23099</v>
+        <v>23618</v>
       </c>
       <c r="D311" t="n">
-        <v>23694</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B312" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
-        <v>23175</v>
+        <v>23694</v>
       </c>
       <c r="D312" t="n">
-        <v>23770</v>
+        <v>24296</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B313" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C313" t="n">
-        <v>23228</v>
+        <v>23767</v>
       </c>
       <c r="D313" t="n">
-        <v>23823</v>
+        <v>24369</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B314" t="n">
         <v>6</v>
       </c>
       <c r="C314" t="n">
-        <v>23357</v>
+        <v>23843</v>
       </c>
       <c r="D314" t="n">
-        <v>23948</v>
+        <v>24445</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B315" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>23413</v>
+        <v>23929</v>
       </c>
       <c r="D315" t="n">
-        <v>24004</v>
+        <v>24531</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B316" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C316" t="n">
-        <v>23486</v>
+        <v>23982</v>
       </c>
       <c r="D316" t="n">
-        <v>24077</v>
+        <v>24584</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B317" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C317" t="n">
-        <v>23539</v>
+        <v>24084</v>
       </c>
       <c r="D317" t="n">
-        <v>24130</v>
+        <v>24686</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C318" t="n">
-        <v>23641</v>
+        <v>24167</v>
       </c>
       <c r="D318" t="n">
-        <v>24232</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C319" t="n">
-        <v>23694</v>
+        <v>24220</v>
       </c>
       <c r="D319" t="n">
-        <v>24285</v>
+        <v>24822</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B320" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
-        <v>23770</v>
+        <v>24296</v>
       </c>
       <c r="D320" t="n">
-        <v>24361</v>
+        <v>24898</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B321" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C321" t="n">
-        <v>23823</v>
+        <v>24369</v>
       </c>
       <c r="D321" t="n">
-        <v>24414</v>
+        <v>24971</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B322" t="n">
         <v>6</v>
       </c>
       <c r="C322" t="n">
-        <v>23948</v>
+        <v>24445</v>
       </c>
       <c r="D322" t="n">
-        <v>24539</v>
+        <v>25047</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B323" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>24004</v>
+        <v>24531</v>
       </c>
       <c r="D323" t="n">
-        <v>24595</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B324" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C324" t="n">
-        <v>24077</v>
+        <v>24584</v>
       </c>
       <c r="D324" t="n">
-        <v>24668</v>
+        <v>25186</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B325" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C325" t="n">
-        <v>24130</v>
+        <v>24686</v>
       </c>
       <c r="D325" t="n">
-        <v>24721</v>
+        <v>25288</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C326" t="n">
-        <v>24232</v>
+        <v>24769</v>
       </c>
       <c r="D326" t="n">
-        <v>24823</v>
+        <v>25371</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C327" t="n">
-        <v>24285</v>
+        <v>24822</v>
       </c>
       <c r="D327" t="n">
-        <v>24876</v>
+        <v>25424</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B328" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>24361</v>
+        <v>24898</v>
       </c>
       <c r="D328" t="n">
-        <v>24952</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B329" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C329" t="n">
-        <v>24414</v>
+        <v>24971</v>
       </c>
       <c r="D329" t="n">
-        <v>25005</v>
+        <v>25573</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B330" t="n">
         <v>6</v>
       </c>
       <c r="C330" t="n">
-        <v>24539</v>
+        <v>25047</v>
       </c>
       <c r="D330" t="n">
-        <v>25130</v>
+        <v>25649</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B331" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>24595</v>
+        <v>25133</v>
       </c>
       <c r="D331" t="n">
-        <v>25186</v>
+        <v>25735</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B332" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C332" t="n">
-        <v>24668</v>
+        <v>25186</v>
       </c>
       <c r="D332" t="n">
-        <v>25259</v>
+        <v>25788</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B333" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
-        <v>24721</v>
+        <v>25288</v>
       </c>
       <c r="D333" t="n">
-        <v>25312</v>
+        <v>25890</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C334" t="n">
-        <v>24823</v>
+        <v>25371</v>
       </c>
       <c r="D334" t="n">
-        <v>25414</v>
+        <v>25973</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C335" t="n">
-        <v>24876</v>
+        <v>25424</v>
       </c>
       <c r="D335" t="n">
-        <v>25467</v>
+        <v>26026</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B336" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>24952</v>
+        <v>25500</v>
       </c>
       <c r="D336" t="n">
-        <v>25543</v>
+        <v>26102</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B337" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C337" t="n">
-        <v>25005</v>
+        <v>25573</v>
       </c>
       <c r="D337" t="n">
-        <v>25596</v>
+        <v>26175</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B338" t="n">
         <v>6</v>
       </c>
       <c r="C338" t="n">
-        <v>25130</v>
+        <v>25649</v>
       </c>
       <c r="D338" t="n">
-        <v>25721</v>
+        <v>26251</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B339" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>25186</v>
+        <v>25735</v>
       </c>
       <c r="D339" t="n">
-        <v>25777</v>
+        <v>26337</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B340" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C340" t="n">
-        <v>25259</v>
+        <v>25788</v>
       </c>
       <c r="D340" t="n">
-        <v>25850</v>
+        <v>26390</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B341" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C341" t="n">
-        <v>25312</v>
+        <v>25890</v>
       </c>
       <c r="D341" t="n">
-        <v>25903</v>
+        <v>26492</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342" t="n">
-        <v>25414</v>
+        <v>25973</v>
       </c>
       <c r="D342" t="n">
-        <v>26005</v>
+        <v>26575</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C343" t="n">
-        <v>25467</v>
+        <v>26026</v>
       </c>
       <c r="D343" t="n">
-        <v>26058</v>
+        <v>26628</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B344" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>25543</v>
+        <v>26102</v>
       </c>
       <c r="D344" t="n">
-        <v>26134</v>
+        <v>26704</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B345" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C345" t="n">
-        <v>25596</v>
+        <v>26175</v>
       </c>
       <c r="D345" t="n">
-        <v>26187</v>
+        <v>26777</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B346" t="n">
         <v>6</v>
       </c>
       <c r="C346" t="n">
-        <v>25721</v>
+        <v>26251</v>
       </c>
       <c r="D346" t="n">
-        <v>26312</v>
+        <v>26853</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B347" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>25777</v>
+        <v>26337</v>
       </c>
       <c r="D347" t="n">
-        <v>26368</v>
+        <v>26939</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B348" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C348" t="n">
-        <v>25850</v>
+        <v>26390</v>
       </c>
       <c r="D348" t="n">
-        <v>26441</v>
+        <v>26992</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B349" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C349" t="n">
-        <v>25903</v>
+        <v>26492</v>
       </c>
       <c r="D349" t="n">
-        <v>26494</v>
+        <v>27094</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C350" t="n">
-        <v>26005</v>
+        <v>26575</v>
       </c>
       <c r="D350" t="n">
-        <v>26596</v>
+        <v>27177</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C351" t="n">
-        <v>26058</v>
+        <v>26628</v>
       </c>
       <c r="D351" t="n">
-        <v>26649</v>
+        <v>27230</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B352" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>26134</v>
+        <v>26704</v>
       </c>
       <c r="D352" t="n">
-        <v>26725</v>
+        <v>27306</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C353" t="n">
-        <v>26187</v>
+        <v>26777</v>
       </c>
       <c r="D353" t="n">
-        <v>26778</v>
+        <v>27379</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B354" t="n">
         <v>6</v>
       </c>
       <c r="C354" t="n">
-        <v>26312</v>
+        <v>26853</v>
       </c>
       <c r="D354" t="n">
-        <v>26903</v>
+        <v>27455</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B355" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>26368</v>
+        <v>26939</v>
       </c>
       <c r="D355" t="n">
-        <v>26959</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C356" t="n">
-        <v>26441</v>
+        <v>26992</v>
       </c>
       <c r="D356" t="n">
-        <v>27032</v>
+        <v>27594</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B357" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C357" t="n">
-        <v>26494</v>
+        <v>27094</v>
       </c>
       <c r="D357" t="n">
-        <v>27085</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C358" t="n">
-        <v>26596</v>
+        <v>27177</v>
       </c>
       <c r="D358" t="n">
-        <v>27187</v>
+        <v>27779</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C359" t="n">
-        <v>26649</v>
+        <v>27230</v>
       </c>
       <c r="D359" t="n">
-        <v>27240</v>
+        <v>27832</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B360" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C360" t="n">
-        <v>26725</v>
+        <v>27306</v>
       </c>
       <c r="D360" t="n">
-        <v>27316</v>
+        <v>27908</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B361" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C361" t="n">
-        <v>26778</v>
+        <v>27379</v>
       </c>
       <c r="D361" t="n">
-        <v>27369</v>
+        <v>27981</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B362" t="n">
         <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>26903</v>
+        <v>27455</v>
       </c>
       <c r="D362" t="n">
-        <v>27494</v>
+        <v>28057</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B363" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>26959</v>
+        <v>27541</v>
       </c>
       <c r="D363" t="n">
-        <v>27550</v>
+        <v>28143</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B364" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C364" t="n">
-        <v>27032</v>
+        <v>27594</v>
       </c>
       <c r="D364" t="n">
-        <v>27623</v>
+        <v>28196</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B365" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C365" t="n">
-        <v>27085</v>
+        <v>27696</v>
       </c>
       <c r="D365" t="n">
-        <v>27676</v>
+        <v>28298</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C366" t="n">
-        <v>27187</v>
+        <v>27779</v>
       </c>
       <c r="D366" t="n">
-        <v>27778</v>
+        <v>28381</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C367" t="n">
-        <v>27240</v>
+        <v>27832</v>
       </c>
       <c r="D367" t="n">
-        <v>27831</v>
+        <v>28434</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>27316</v>
+        <v>27908</v>
       </c>
       <c r="D368" t="n">
-        <v>27907</v>
+        <v>28510</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B369" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C369" t="n">
-        <v>27369</v>
+        <v>27981</v>
       </c>
       <c r="D369" t="n">
-        <v>27960</v>
+        <v>28583</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B370" t="n">
         <v>6</v>
       </c>
       <c r="C370" t="n">
-        <v>27494</v>
+        <v>28057</v>
       </c>
       <c r="D370" t="n">
-        <v>28085</v>
+        <v>28659</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B371" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>27550</v>
+        <v>28143</v>
       </c>
       <c r="D371" t="n">
-        <v>28141</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" t="n">
-        <v>373</v>
-      </c>
-      <c r="B372" t="n">
-        <v>7</v>
-      </c>
-      <c r="C372" t="n">
-        <v>27623</v>
-      </c>
-      <c r="D372" t="n">
-        <v>28214</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" t="n">
-        <v>374</v>
-      </c>
-      <c r="B373" t="n">
-        <v>8</v>
-      </c>
-      <c r="C373" t="n">
-        <v>27676</v>
-      </c>
-      <c r="D373" t="n">
-        <v>28267</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" t="n">
-        <v>375</v>
-      </c>
-      <c r="B374" t="n">
-        <v>1</v>
-      </c>
-      <c r="C374" t="n">
-        <v>27778</v>
-      </c>
-      <c r="D374" t="n">
-        <v>28369</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" t="n">
-        <v>376</v>
-      </c>
-      <c r="B375" t="n">
-        <v>2</v>
-      </c>
-      <c r="C375" t="n">
-        <v>27831</v>
-      </c>
-      <c r="D375" t="n">
-        <v>28422</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" t="n">
-        <v>377</v>
-      </c>
-      <c r="B376" t="n">
-        <v>3</v>
-      </c>
-      <c r="C376" t="n">
-        <v>27907</v>
-      </c>
-      <c r="D376" t="n">
-        <v>28498</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" t="n">
-        <v>378</v>
-      </c>
-      <c r="B377" t="n">
-        <v>4</v>
-      </c>
-      <c r="C377" t="n">
-        <v>27960</v>
-      </c>
-      <c r="D377" t="n">
-        <v>28551</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" t="n">
-        <v>379</v>
-      </c>
-      <c r="B378" t="n">
-        <v>6</v>
-      </c>
-      <c r="C378" t="n">
-        <v>28085</v>
-      </c>
-      <c r="D378" t="n">
-        <v>28676</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" t="n">
-        <v>380</v>
-      </c>
-      <c r="B379" t="n">
-        <v>5</v>
-      </c>
-      <c r="C379" t="n">
-        <v>28141</v>
-      </c>
-      <c r="D379" t="n">
-        <v>28732</v>
+        <v>28745</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D8" t="n">
         <v>975</v>
@@ -497,5084 +497,4930 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>588</v>
+        <v>265</v>
       </c>
       <c r="D9" t="n">
-        <v>1176</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>717</v>
+        <v>588</v>
       </c>
       <c r="D10" t="n">
-        <v>1335</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>770</v>
+        <v>641</v>
       </c>
       <c r="D11" t="n">
-        <v>1388</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>846</v>
+        <v>717</v>
       </c>
       <c r="D12" t="n">
-        <v>1464</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>899</v>
+        <v>770</v>
       </c>
       <c r="D13" t="n">
-        <v>1517</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>975</v>
+        <v>846</v>
       </c>
       <c r="D14" t="n">
-        <v>1593</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>641</v>
+        <v>899</v>
       </c>
       <c r="D15" t="n">
-        <v>1695</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1176</v>
+        <v>975</v>
       </c>
       <c r="D16" t="n">
-        <v>1764</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1277</v>
+        <v>1028</v>
       </c>
       <c r="D17" t="n">
-        <v>1865</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1335</v>
+        <v>1176</v>
       </c>
       <c r="D18" t="n">
-        <v>1948</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1388</v>
+        <v>1232</v>
       </c>
       <c r="D19" t="n">
-        <v>2001</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="D20" t="n">
-        <v>2077</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1517</v>
+        <v>1361</v>
       </c>
       <c r="D21" t="n">
-        <v>2130</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="D22" t="n">
-        <v>2206</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1695</v>
+        <v>1490</v>
       </c>
       <c r="D23" t="n">
-        <v>2308</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1764</v>
+        <v>1566</v>
       </c>
       <c r="D24" t="n">
-        <v>2364</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>1865</v>
+        <v>1619</v>
       </c>
       <c r="D25" t="n">
-        <v>2463</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1948</v>
+        <v>1764</v>
       </c>
       <c r="D26" t="n">
-        <v>2546</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2001</v>
+        <v>1823</v>
       </c>
       <c r="D27" t="n">
-        <v>2599</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>2077</v>
+        <v>1899</v>
       </c>
       <c r="D28" t="n">
-        <v>2675</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>2130</v>
+        <v>1952</v>
       </c>
       <c r="D29" t="n">
-        <v>2728</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2206</v>
+        <v>2028</v>
       </c>
       <c r="D30" t="n">
-        <v>2804</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>2308</v>
+        <v>2081</v>
       </c>
       <c r="D31" t="n">
-        <v>2906</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>2364</v>
+        <v>2157</v>
       </c>
       <c r="D32" t="n">
-        <v>2962</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>2463</v>
+        <v>2210</v>
       </c>
       <c r="D33" t="n">
-        <v>3061</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2546</v>
+        <v>2352</v>
       </c>
       <c r="D34" t="n">
-        <v>3144</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2599</v>
+        <v>2414</v>
       </c>
       <c r="D35" t="n">
-        <v>3197</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2675</v>
+        <v>2490</v>
       </c>
       <c r="D36" t="n">
-        <v>3273</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>2728</v>
+        <v>2543</v>
       </c>
       <c r="D37" t="n">
-        <v>3326</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>2804</v>
+        <v>2619</v>
       </c>
       <c r="D38" t="n">
-        <v>3402</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>2906</v>
+        <v>2672</v>
       </c>
       <c r="D39" t="n">
-        <v>3504</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2962</v>
+        <v>2748</v>
       </c>
       <c r="D40" t="n">
-        <v>3560</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>3061</v>
+        <v>2801</v>
       </c>
       <c r="D41" t="n">
-        <v>3659</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>3144</v>
+        <v>2940</v>
       </c>
       <c r="D42" t="n">
-        <v>3742</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3197</v>
+        <v>3005</v>
       </c>
       <c r="D43" t="n">
-        <v>3795</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>3273</v>
+        <v>3081</v>
       </c>
       <c r="D44" t="n">
-        <v>3871</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>3326</v>
+        <v>3134</v>
       </c>
       <c r="D45" t="n">
-        <v>3924</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>3402</v>
+        <v>3210</v>
       </c>
       <c r="D46" t="n">
-        <v>4000</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>3504</v>
+        <v>3263</v>
       </c>
       <c r="D47" t="n">
-        <v>4102</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>3560</v>
+        <v>3339</v>
       </c>
       <c r="D48" t="n">
-        <v>4158</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>3659</v>
+        <v>3392</v>
       </c>
       <c r="D49" t="n">
-        <v>4257</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>3742</v>
+        <v>3528</v>
       </c>
       <c r="D50" t="n">
-        <v>4340</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>3795</v>
+        <v>3596</v>
       </c>
       <c r="D51" t="n">
-        <v>4393</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>3871</v>
+        <v>3672</v>
       </c>
       <c r="D52" t="n">
-        <v>4469</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>3924</v>
+        <v>3725</v>
       </c>
       <c r="D53" t="n">
-        <v>4522</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>4000</v>
+        <v>3801</v>
       </c>
       <c r="D54" t="n">
-        <v>4598</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>4102</v>
+        <v>3854</v>
       </c>
       <c r="D55" t="n">
-        <v>4700</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>4158</v>
+        <v>3930</v>
       </c>
       <c r="D56" t="n">
-        <v>4756</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>4257</v>
+        <v>3983</v>
       </c>
       <c r="D57" t="n">
-        <v>4855</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4340</v>
+        <v>4116</v>
       </c>
       <c r="D58" t="n">
-        <v>4938</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4393</v>
+        <v>4187</v>
       </c>
       <c r="D59" t="n">
-        <v>4991</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>4469</v>
+        <v>4263</v>
       </c>
       <c r="D60" t="n">
-        <v>5067</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>4522</v>
+        <v>4316</v>
       </c>
       <c r="D61" t="n">
-        <v>5120</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>4598</v>
+        <v>4392</v>
       </c>
       <c r="D62" t="n">
-        <v>5196</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>4700</v>
+        <v>4445</v>
       </c>
       <c r="D63" t="n">
-        <v>5298</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>4756</v>
+        <v>4521</v>
       </c>
       <c r="D64" t="n">
-        <v>5354</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>4855</v>
+        <v>4574</v>
       </c>
       <c r="D65" t="n">
-        <v>5453</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>4938</v>
+        <v>4704</v>
       </c>
       <c r="D66" t="n">
-        <v>5536</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>4991</v>
+        <v>4778</v>
       </c>
       <c r="D67" t="n">
-        <v>5589</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>5067</v>
+        <v>4854</v>
       </c>
       <c r="D68" t="n">
-        <v>5665</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>5120</v>
+        <v>4907</v>
       </c>
       <c r="D69" t="n">
-        <v>5718</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>5196</v>
+        <v>4983</v>
       </c>
       <c r="D70" t="n">
-        <v>5794</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>5298</v>
+        <v>5036</v>
       </c>
       <c r="D71" t="n">
-        <v>5896</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>5354</v>
+        <v>5112</v>
       </c>
       <c r="D72" t="n">
-        <v>5952</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>5453</v>
+        <v>5165</v>
       </c>
       <c r="D73" t="n">
-        <v>6051</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>5536</v>
+        <v>5292</v>
       </c>
       <c r="D74" t="n">
-        <v>6134</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5589</v>
+        <v>5369</v>
       </c>
       <c r="D75" t="n">
-        <v>6187</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>5665</v>
+        <v>5445</v>
       </c>
       <c r="D76" t="n">
-        <v>6263</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>5718</v>
+        <v>5498</v>
       </c>
       <c r="D77" t="n">
-        <v>6316</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>5794</v>
+        <v>5574</v>
       </c>
       <c r="D78" t="n">
-        <v>6392</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>5896</v>
+        <v>5627</v>
       </c>
       <c r="D79" t="n">
-        <v>6494</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>5952</v>
+        <v>5703</v>
       </c>
       <c r="D80" t="n">
-        <v>6550</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>6051</v>
+        <v>5756</v>
       </c>
       <c r="D81" t="n">
-        <v>6649</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>6134</v>
+        <v>5880</v>
       </c>
       <c r="D82" t="n">
-        <v>6732</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>6187</v>
+        <v>5960</v>
       </c>
       <c r="D83" t="n">
-        <v>6785</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>6263</v>
+        <v>6036</v>
       </c>
       <c r="D84" t="n">
-        <v>6861</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6316</v>
+        <v>6089</v>
       </c>
       <c r="D85" t="n">
-        <v>6914</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>6392</v>
+        <v>6165</v>
       </c>
       <c r="D86" t="n">
-        <v>6990</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>6494</v>
+        <v>6218</v>
       </c>
       <c r="D87" t="n">
-        <v>7092</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>6550</v>
+        <v>6294</v>
       </c>
       <c r="D88" t="n">
-        <v>7148</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6649</v>
+        <v>6347</v>
       </c>
       <c r="D89" t="n">
-        <v>7247</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>6732</v>
+        <v>6468</v>
       </c>
       <c r="D90" t="n">
-        <v>7330</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>6785</v>
+        <v>6551</v>
       </c>
       <c r="D91" t="n">
-        <v>7383</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>6861</v>
+        <v>6627</v>
       </c>
       <c r="D92" t="n">
-        <v>7459</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>6914</v>
+        <v>6680</v>
       </c>
       <c r="D93" t="n">
-        <v>7512</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>6990</v>
+        <v>6756</v>
       </c>
       <c r="D94" t="n">
-        <v>7588</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>7092</v>
+        <v>6809</v>
       </c>
       <c r="D95" t="n">
-        <v>7690</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>7148</v>
+        <v>6885</v>
       </c>
       <c r="D96" t="n">
-        <v>7746</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>7247</v>
+        <v>6938</v>
       </c>
       <c r="D97" t="n">
-        <v>7845</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>7330</v>
+        <v>7056</v>
       </c>
       <c r="D98" t="n">
-        <v>7928</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>7383</v>
+        <v>7142</v>
       </c>
       <c r="D99" t="n">
-        <v>7981</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7459</v>
+        <v>7218</v>
       </c>
       <c r="D100" t="n">
-        <v>8057</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>7512</v>
+        <v>7271</v>
       </c>
       <c r="D101" t="n">
-        <v>8110</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>7588</v>
+        <v>7347</v>
       </c>
       <c r="D102" t="n">
-        <v>8186</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>7690</v>
+        <v>7400</v>
       </c>
       <c r="D103" t="n">
-        <v>8288</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>7746</v>
+        <v>7644</v>
       </c>
       <c r="D104" t="n">
-        <v>8344</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>7845</v>
+        <v>7733</v>
       </c>
       <c r="D105" t="n">
-        <v>8443</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>7928</v>
+        <v>7809</v>
       </c>
       <c r="D106" t="n">
-        <v>8526</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>7981</v>
+        <v>7862</v>
       </c>
       <c r="D107" t="n">
-        <v>8579</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>8057</v>
+        <v>7938</v>
       </c>
       <c r="D108" t="n">
-        <v>8655</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" t="n">
         <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>8110</v>
+        <v>7991</v>
       </c>
       <c r="D109" t="n">
-        <v>8708</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>8186</v>
+        <v>8232</v>
       </c>
       <c r="D110" t="n">
-        <v>8784</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>8288</v>
+        <v>8324</v>
       </c>
       <c r="D111" t="n">
-        <v>8886</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>8344</v>
+        <v>8400</v>
       </c>
       <c r="D112" t="n">
-        <v>8942</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
-        <v>8443</v>
+        <v>8453</v>
       </c>
       <c r="D113" t="n">
-        <v>9041</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>8526</v>
+        <v>8529</v>
       </c>
       <c r="D114" t="n">
-        <v>9124</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>8579</v>
+        <v>8582</v>
       </c>
       <c r="D115" t="n">
-        <v>9177</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>8655</v>
+        <v>8658</v>
       </c>
       <c r="D116" t="n">
-        <v>9253</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>8708</v>
+        <v>8820</v>
       </c>
       <c r="D117" t="n">
-        <v>9306</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>8784</v>
+        <v>8915</v>
       </c>
       <c r="D118" t="n">
-        <v>9382</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>8886</v>
+        <v>8991</v>
       </c>
       <c r="D119" t="n">
-        <v>9484</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>8942</v>
+        <v>9044</v>
       </c>
       <c r="D120" t="n">
-        <v>9540</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>9041</v>
+        <v>9120</v>
       </c>
       <c r="D121" t="n">
-        <v>9639</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>9124</v>
+        <v>9173</v>
       </c>
       <c r="D122" t="n">
-        <v>9722</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C123" t="n">
-        <v>9177</v>
+        <v>9249</v>
       </c>
       <c r="D123" t="n">
-        <v>9775</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>9253</v>
+        <v>9302</v>
       </c>
       <c r="D124" t="n">
-        <v>9851</v>
+        <v>9893</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>9306</v>
+        <v>9408</v>
       </c>
       <c r="D125" t="n">
-        <v>9904</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>9382</v>
+        <v>9506</v>
       </c>
       <c r="D126" t="n">
-        <v>9980</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>9484</v>
+        <v>9582</v>
       </c>
       <c r="D127" t="n">
-        <v>10082</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
-        <v>9540</v>
+        <v>9635</v>
       </c>
       <c r="D128" t="n">
-        <v>10138</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>9639</v>
+        <v>9711</v>
       </c>
       <c r="D129" t="n">
-        <v>10237</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C130" t="n">
-        <v>9722</v>
+        <v>9764</v>
       </c>
       <c r="D130" t="n">
-        <v>10320</v>
+        <v>10355</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>9775</v>
+        <v>9840</v>
       </c>
       <c r="D131" t="n">
-        <v>10373</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
-        <v>9851</v>
+        <v>9893</v>
       </c>
       <c r="D132" t="n">
-        <v>10449</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>9904</v>
+        <v>9996</v>
       </c>
       <c r="D133" t="n">
-        <v>10502</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>9980</v>
+        <v>10097</v>
       </c>
       <c r="D134" t="n">
-        <v>10578</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>10082</v>
+        <v>10173</v>
       </c>
       <c r="D135" t="n">
-        <v>10680</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>10138</v>
+        <v>10226</v>
       </c>
       <c r="D136" t="n">
-        <v>10736</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>10237</v>
+        <v>10302</v>
       </c>
       <c r="D137" t="n">
-        <v>10835</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C138" t="n">
-        <v>10320</v>
+        <v>10355</v>
       </c>
       <c r="D138" t="n">
-        <v>10918</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>10373</v>
+        <v>10431</v>
       </c>
       <c r="D139" t="n">
-        <v>10971</v>
+        <v>11022</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>10449</v>
+        <v>10484</v>
       </c>
       <c r="D140" t="n">
-        <v>11047</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>10578</v>
+        <v>10688</v>
       </c>
       <c r="D141" t="n">
-        <v>11169</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>10680</v>
+        <v>10764</v>
       </c>
       <c r="D142" t="n">
-        <v>11271</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>10736</v>
+        <v>10817</v>
       </c>
       <c r="D143" t="n">
-        <v>11327</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>10835</v>
+        <v>10893</v>
       </c>
       <c r="D144" t="n">
-        <v>11426</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C145" t="n">
-        <v>10918</v>
+        <v>10946</v>
       </c>
       <c r="D145" t="n">
-        <v>11509</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>10971</v>
+        <v>11022</v>
       </c>
       <c r="D146" t="n">
-        <v>11562</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>11047</v>
+        <v>11075</v>
       </c>
       <c r="D147" t="n">
-        <v>11638</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>11169</v>
+        <v>11279</v>
       </c>
       <c r="D148" t="n">
-        <v>11760</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>11271</v>
+        <v>11355</v>
       </c>
       <c r="D149" t="n">
-        <v>11897</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>11327</v>
+        <v>11484</v>
       </c>
       <c r="D150" t="n">
-        <v>11953</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>11426</v>
+        <v>11537</v>
       </c>
       <c r="D151" t="n">
-        <v>12052</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>11509</v>
+        <v>11613</v>
       </c>
       <c r="D152" t="n">
-        <v>12135</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>11562</v>
+        <v>11666</v>
       </c>
       <c r="D153" t="n">
-        <v>12188</v>
+        <v>12259</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>11638</v>
+        <v>11870</v>
       </c>
       <c r="D154" t="n">
-        <v>12264</v>
+        <v>12461</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>11760</v>
+        <v>11946</v>
       </c>
       <c r="D155" t="n">
-        <v>12351</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>11836</v>
+        <v>12019</v>
       </c>
       <c r="D156" t="n">
-        <v>12427</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>11897</v>
+        <v>12077</v>
       </c>
       <c r="D157" t="n">
-        <v>12513</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>11953</v>
+        <v>12130</v>
       </c>
       <c r="D158" t="n">
-        <v>12569</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159" t="n">
         <v>7</v>
       </c>
       <c r="C159" t="n">
-        <v>12052</v>
+        <v>12206</v>
       </c>
       <c r="D159" t="n">
-        <v>12668</v>
+        <v>12863</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>12135</v>
+        <v>12259</v>
       </c>
       <c r="D160" t="n">
-        <v>12751</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>12188</v>
+        <v>12461</v>
       </c>
       <c r="D161" t="n">
-        <v>12804</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>12264</v>
+        <v>12537</v>
       </c>
       <c r="D162" t="n">
-        <v>12880</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>12351</v>
+        <v>12610</v>
       </c>
       <c r="D163" t="n">
-        <v>12953</v>
+        <v>13201</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
-        <v>12427</v>
+        <v>12683</v>
       </c>
       <c r="D164" t="n">
-        <v>13029</v>
+        <v>13274</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>12513</v>
+        <v>12734</v>
       </c>
       <c r="D165" t="n">
-        <v>13115</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>12569</v>
+        <v>12787</v>
       </c>
       <c r="D166" t="n">
-        <v>13171</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B167" t="n">
         <v>7</v>
       </c>
       <c r="C167" t="n">
-        <v>12668</v>
+        <v>12863</v>
       </c>
       <c r="D167" t="n">
-        <v>13270</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
-        <v>12751</v>
+        <v>12916</v>
       </c>
       <c r="D168" t="n">
-        <v>13353</v>
+        <v>13532</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>12804</v>
+        <v>13052</v>
       </c>
       <c r="D169" t="n">
-        <v>13406</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>12880</v>
+        <v>13128</v>
       </c>
       <c r="D170" t="n">
-        <v>13482</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B171" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>12953</v>
+        <v>13201</v>
       </c>
       <c r="D171" t="n">
-        <v>13555</v>
+        <v>13792</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>13029</v>
+        <v>13274</v>
       </c>
       <c r="D172" t="n">
-        <v>13631</v>
+        <v>13865</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>13115</v>
+        <v>13350</v>
       </c>
       <c r="D173" t="n">
-        <v>13717</v>
+        <v>13941</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>13171</v>
+        <v>13403</v>
       </c>
       <c r="D174" t="n">
-        <v>13773</v>
+        <v>13994</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B175" t="n">
         <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>13270</v>
+        <v>13479</v>
       </c>
       <c r="D175" t="n">
-        <v>13872</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C176" t="n">
-        <v>13353</v>
+        <v>13532</v>
       </c>
       <c r="D176" t="n">
-        <v>13955</v>
+        <v>14123</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>13406</v>
+        <v>13643</v>
       </c>
       <c r="D177" t="n">
-        <v>14008</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>13482</v>
+        <v>13719</v>
       </c>
       <c r="D178" t="n">
-        <v>14084</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B179" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>13555</v>
+        <v>13792</v>
       </c>
       <c r="D179" t="n">
-        <v>14157</v>
+        <v>14383</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>13631</v>
+        <v>13865</v>
       </c>
       <c r="D180" t="n">
-        <v>14233</v>
+        <v>14456</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>13717</v>
+        <v>13941</v>
       </c>
       <c r="D181" t="n">
-        <v>14319</v>
+        <v>14532</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C182" t="n">
-        <v>13773</v>
+        <v>13994</v>
       </c>
       <c r="D182" t="n">
-        <v>14375</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B183" t="n">
         <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>13872</v>
+        <v>14070</v>
       </c>
       <c r="D183" t="n">
-        <v>14474</v>
+        <v>14661</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C184" t="n">
-        <v>13955</v>
+        <v>14123</v>
       </c>
       <c r="D184" t="n">
-        <v>14557</v>
+        <v>14714</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>14008</v>
+        <v>14234</v>
       </c>
       <c r="D185" t="n">
-        <v>14610</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>14084</v>
+        <v>14310</v>
       </c>
       <c r="D186" t="n">
-        <v>14686</v>
+        <v>14901</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B187" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>14157</v>
+        <v>14532</v>
       </c>
       <c r="D187" t="n">
-        <v>14759</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B188" t="n">
         <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v>14233</v>
+        <v>14585</v>
       </c>
       <c r="D188" t="n">
-        <v>14835</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C189" t="n">
-        <v>14319</v>
+        <v>14661</v>
       </c>
       <c r="D189" t="n">
-        <v>14921</v>
+        <v>15252</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C190" t="n">
-        <v>14375</v>
+        <v>14714</v>
       </c>
       <c r="D190" t="n">
-        <v>14977</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>14474</v>
+        <v>14825</v>
       </c>
       <c r="D191" t="n">
-        <v>15076</v>
+        <v>15416</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B192" t="n">
         <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>14557</v>
+        <v>14901</v>
       </c>
       <c r="D192" t="n">
-        <v>15159</v>
+        <v>15492</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>14610</v>
+        <v>15120</v>
       </c>
       <c r="D193" t="n">
-        <v>15212</v>
+        <v>15708</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>14686</v>
+        <v>15176</v>
       </c>
       <c r="D194" t="n">
-        <v>15288</v>
+        <v>15767</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="n">
-        <v>14759</v>
+        <v>15252</v>
       </c>
       <c r="D195" t="n">
-        <v>15361</v>
+        <v>15843</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B196" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="n">
-        <v>14835</v>
+        <v>15305</v>
       </c>
       <c r="D196" t="n">
-        <v>15437</v>
+        <v>15896</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
       </c>
       <c r="C197" t="n">
-        <v>14921</v>
+        <v>15416</v>
       </c>
       <c r="D197" t="n">
-        <v>15523</v>
+        <v>16061</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" t="n">
-        <v>14977</v>
+        <v>15492</v>
       </c>
       <c r="D198" t="n">
-        <v>15579</v>
+        <v>16137</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="n">
-        <v>15076</v>
+        <v>15708</v>
       </c>
       <c r="D199" t="n">
-        <v>15678</v>
+        <v>16296</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>15159</v>
+        <v>15767</v>
       </c>
       <c r="D200" t="n">
-        <v>15761</v>
+        <v>16358</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B201" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C201" t="n">
-        <v>15212</v>
+        <v>15843</v>
       </c>
       <c r="D201" t="n">
-        <v>15814</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B202" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>15288</v>
+        <v>15896</v>
       </c>
       <c r="D202" t="n">
-        <v>15890</v>
+        <v>16487</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B203" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>15361</v>
+        <v>15982</v>
       </c>
       <c r="D203" t="n">
-        <v>15963</v>
+        <v>16573</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B204" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>15437</v>
+        <v>16033</v>
       </c>
       <c r="D204" t="n">
-        <v>16039</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
       </c>
       <c r="C205" t="n">
-        <v>15523</v>
+        <v>16061</v>
       </c>
       <c r="D205" t="n">
-        <v>16125</v>
+        <v>16702</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>15579</v>
+        <v>16137</v>
       </c>
       <c r="D206" t="n">
-        <v>16181</v>
+        <v>16778</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>15678</v>
+        <v>16296</v>
       </c>
       <c r="D207" t="n">
-        <v>16280</v>
+        <v>16884</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B208" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C208" t="n">
-        <v>15761</v>
+        <v>16358</v>
       </c>
       <c r="D208" t="n">
-        <v>16363</v>
+        <v>16949</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C209" t="n">
-        <v>15814</v>
+        <v>16434</v>
       </c>
       <c r="D209" t="n">
-        <v>16416</v>
+        <v>17025</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="n">
-        <v>15890</v>
+        <v>16487</v>
       </c>
       <c r="D210" t="n">
-        <v>16492</v>
+        <v>17078</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B211" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C211" t="n">
-        <v>15963</v>
+        <v>16573</v>
       </c>
       <c r="D211" t="n">
-        <v>16565</v>
+        <v>17164</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B212" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>16039</v>
+        <v>16649</v>
       </c>
       <c r="D212" t="n">
-        <v>16641</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
       </c>
       <c r="C213" t="n">
-        <v>16125</v>
+        <v>16702</v>
       </c>
       <c r="D213" t="n">
-        <v>16727</v>
+        <v>17293</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>16181</v>
+        <v>16778</v>
       </c>
       <c r="D214" t="n">
-        <v>16783</v>
+        <v>17369</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>16280</v>
+        <v>16884</v>
       </c>
       <c r="D215" t="n">
-        <v>16882</v>
+        <v>17472</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>16363</v>
+        <v>16949</v>
       </c>
       <c r="D216" t="n">
-        <v>16965</v>
+        <v>17540</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C217" t="n">
-        <v>16416</v>
+        <v>17025</v>
       </c>
       <c r="D217" t="n">
-        <v>17018</v>
+        <v>17616</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="n">
-        <v>16492</v>
+        <v>17078</v>
       </c>
       <c r="D218" t="n">
-        <v>17094</v>
+        <v>17669</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B219" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C219" t="n">
-        <v>16565</v>
+        <v>17164</v>
       </c>
       <c r="D219" t="n">
-        <v>17167</v>
+        <v>17755</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B220" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>16641</v>
+        <v>17240</v>
       </c>
       <c r="D220" t="n">
-        <v>17243</v>
+        <v>17831</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>16727</v>
+        <v>17293</v>
       </c>
       <c r="D221" t="n">
-        <v>17329</v>
+        <v>17884</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" t="n">
-        <v>16783</v>
+        <v>17369</v>
       </c>
       <c r="D222" t="n">
-        <v>17385</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="n">
-        <v>16882</v>
+        <v>17472</v>
       </c>
       <c r="D223" t="n">
-        <v>17484</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C224" t="n">
-        <v>16965</v>
+        <v>17540</v>
       </c>
       <c r="D224" t="n">
-        <v>17567</v>
+        <v>18131</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C225" t="n">
-        <v>17018</v>
+        <v>17616</v>
       </c>
       <c r="D225" t="n">
-        <v>17620</v>
+        <v>18207</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B226" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>17094</v>
+        <v>17669</v>
       </c>
       <c r="D226" t="n">
-        <v>17696</v>
+        <v>18260</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B227" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C227" t="n">
-        <v>17167</v>
+        <v>17755</v>
       </c>
       <c r="D227" t="n">
-        <v>17769</v>
+        <v>18346</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B228" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>17243</v>
+        <v>17831</v>
       </c>
       <c r="D228" t="n">
-        <v>17845</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
       </c>
       <c r="C229" t="n">
-        <v>17329</v>
+        <v>17884</v>
       </c>
       <c r="D229" t="n">
-        <v>17931</v>
+        <v>18475</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" t="n">
-        <v>17385</v>
+        <v>17960</v>
       </c>
       <c r="D230" t="n">
-        <v>17987</v>
+        <v>18551</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
-        <v>17484</v>
+        <v>18060</v>
       </c>
       <c r="D231" t="n">
-        <v>18086</v>
+        <v>18648</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C232" t="n">
-        <v>17567</v>
+        <v>18131</v>
       </c>
       <c r="D232" t="n">
-        <v>18169</v>
+        <v>18722</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
-        <v>17620</v>
+        <v>18207</v>
       </c>
       <c r="D233" t="n">
-        <v>18222</v>
+        <v>18798</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B234" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="n">
-        <v>17696</v>
+        <v>18260</v>
       </c>
       <c r="D234" t="n">
-        <v>18298</v>
+        <v>18851</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B235" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>17769</v>
+        <v>18346</v>
       </c>
       <c r="D235" t="n">
-        <v>18371</v>
+        <v>18937</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B236" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>17845</v>
+        <v>18422</v>
       </c>
       <c r="D236" t="n">
-        <v>18447</v>
+        <v>19013</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>17931</v>
+        <v>18475</v>
       </c>
       <c r="D237" t="n">
-        <v>18533</v>
+        <v>19066</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C238" t="n">
-        <v>17987</v>
+        <v>18551</v>
       </c>
       <c r="D238" t="n">
-        <v>18589</v>
+        <v>19142</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="n">
-        <v>18086</v>
+        <v>18648</v>
       </c>
       <c r="D239" t="n">
-        <v>18688</v>
+        <v>19236</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C240" t="n">
-        <v>18169</v>
+        <v>18722</v>
       </c>
       <c r="D240" t="n">
-        <v>18771</v>
+        <v>19313</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C241" t="n">
-        <v>18222</v>
+        <v>18798</v>
       </c>
       <c r="D241" t="n">
-        <v>18824</v>
+        <v>19389</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="n">
-        <v>18298</v>
+        <v>18851</v>
       </c>
       <c r="D242" t="n">
-        <v>18900</v>
+        <v>19442</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B243" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C243" t="n">
-        <v>18371</v>
+        <v>18937</v>
       </c>
       <c r="D243" t="n">
-        <v>18973</v>
+        <v>19528</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>18447</v>
+        <v>19013</v>
       </c>
       <c r="D244" t="n">
-        <v>19049</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
       </c>
       <c r="C245" t="n">
-        <v>18533</v>
+        <v>19066</v>
       </c>
       <c r="D245" t="n">
-        <v>19135</v>
+        <v>19657</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C246" t="n">
-        <v>18589</v>
+        <v>19142</v>
       </c>
       <c r="D246" t="n">
-        <v>19191</v>
+        <v>19733</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B247" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>18688</v>
+        <v>19236</v>
       </c>
       <c r="D247" t="n">
-        <v>19290</v>
+        <v>19824</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C248" t="n">
-        <v>18771</v>
+        <v>19313</v>
       </c>
       <c r="D248" t="n">
-        <v>19373</v>
+        <v>19904</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C249" t="n">
-        <v>18824</v>
+        <v>19389</v>
       </c>
       <c r="D249" t="n">
-        <v>19426</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B250" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="n">
-        <v>18900</v>
+        <v>19442</v>
       </c>
       <c r="D250" t="n">
-        <v>19502</v>
+        <v>20033</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v>18973</v>
+        <v>19528</v>
       </c>
       <c r="D251" t="n">
-        <v>19575</v>
+        <v>20119</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B252" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>19049</v>
+        <v>19604</v>
       </c>
       <c r="D252" t="n">
-        <v>19651</v>
+        <v>20195</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>19135</v>
+        <v>19657</v>
       </c>
       <c r="D253" t="n">
-        <v>19737</v>
+        <v>20248</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C254" t="n">
-        <v>19191</v>
+        <v>19733</v>
       </c>
       <c r="D254" t="n">
-        <v>19793</v>
+        <v>20324</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="n">
-        <v>19290</v>
+        <v>19824</v>
       </c>
       <c r="D255" t="n">
-        <v>19892</v>
+        <v>20412</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
-        <v>19373</v>
+        <v>19904</v>
       </c>
       <c r="D256" t="n">
-        <v>19975</v>
+        <v>20495</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C257" t="n">
-        <v>19426</v>
+        <v>19980</v>
       </c>
       <c r="D257" t="n">
-        <v>20028</v>
+        <v>20571</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B258" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>19502</v>
+        <v>20033</v>
       </c>
       <c r="D258" t="n">
-        <v>20104</v>
+        <v>20624</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B259" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
-        <v>19575</v>
+        <v>20119</v>
       </c>
       <c r="D259" t="n">
-        <v>20177</v>
+        <v>20710</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B260" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>19651</v>
+        <v>20195</v>
       </c>
       <c r="D260" t="n">
-        <v>20253</v>
+        <v>20786</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
       </c>
       <c r="C261" t="n">
-        <v>19737</v>
+        <v>20248</v>
       </c>
       <c r="D261" t="n">
-        <v>20339</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C262" t="n">
-        <v>19793</v>
+        <v>20324</v>
       </c>
       <c r="D262" t="n">
-        <v>20395</v>
+        <v>20915</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B263" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C263" t="n">
-        <v>19892</v>
+        <v>20412</v>
       </c>
       <c r="D263" t="n">
-        <v>20494</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B264" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C264" t="n">
-        <v>19975</v>
+        <v>20495</v>
       </c>
       <c r="D264" t="n">
-        <v>20577</v>
+        <v>21086</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C265" t="n">
-        <v>20028</v>
+        <v>20571</v>
       </c>
       <c r="D265" t="n">
-        <v>20630</v>
+        <v>21162</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B266" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C266" t="n">
-        <v>20104</v>
+        <v>20624</v>
       </c>
       <c r="D266" t="n">
-        <v>20706</v>
+        <v>21215</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B267" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C267" t="n">
-        <v>20177</v>
+        <v>20710</v>
       </c>
       <c r="D267" t="n">
-        <v>20779</v>
+        <v>21301</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>20253</v>
+        <v>20786</v>
       </c>
       <c r="D268" t="n">
-        <v>20855</v>
+        <v>21377</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
       </c>
       <c r="C269" t="n">
-        <v>20339</v>
+        <v>20839</v>
       </c>
       <c r="D269" t="n">
-        <v>20941</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C270" t="n">
-        <v>20395</v>
+        <v>20915</v>
       </c>
       <c r="D270" t="n">
-        <v>20997</v>
+        <v>21506</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>20494</v>
+        <v>21000</v>
       </c>
       <c r="D271" t="n">
-        <v>21096</v>
+        <v>21588</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B272" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C272" t="n">
-        <v>20577</v>
+        <v>21086</v>
       </c>
       <c r="D272" t="n">
-        <v>21179</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B273" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C273" t="n">
-        <v>20630</v>
+        <v>21162</v>
       </c>
       <c r="D273" t="n">
-        <v>21232</v>
+        <v>21753</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B274" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C274" t="n">
-        <v>20706</v>
+        <v>21215</v>
       </c>
       <c r="D274" t="n">
-        <v>21308</v>
+        <v>21806</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B275" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C275" t="n">
-        <v>20779</v>
+        <v>21301</v>
       </c>
       <c r="D275" t="n">
-        <v>21381</v>
+        <v>21892</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>20855</v>
+        <v>21377</v>
       </c>
       <c r="D276" t="n">
-        <v>21457</v>
+        <v>21968</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
       </c>
       <c r="C277" t="n">
-        <v>20941</v>
+        <v>21430</v>
       </c>
       <c r="D277" t="n">
-        <v>21543</v>
+        <v>22021</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B278" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C278" t="n">
-        <v>21096</v>
+        <v>21506</v>
       </c>
       <c r="D278" t="n">
-        <v>21684</v>
+        <v>22097</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>21179</v>
+        <v>21588</v>
       </c>
       <c r="D279" t="n">
-        <v>21767</v>
+        <v>22176</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B280" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C280" t="n">
-        <v>21232</v>
+        <v>21677</v>
       </c>
       <c r="D280" t="n">
-        <v>21823</v>
+        <v>22268</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B281" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C281" t="n">
-        <v>21308</v>
+        <v>21753</v>
       </c>
       <c r="D281" t="n">
-        <v>21899</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B282" t="n">
         <v>8</v>
       </c>
       <c r="C282" t="n">
-        <v>21381</v>
+        <v>21806</v>
       </c>
       <c r="D282" t="n">
-        <v>21972</v>
+        <v>22397</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B283" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C283" t="n">
-        <v>21457</v>
+        <v>21892</v>
       </c>
       <c r="D283" t="n">
-        <v>22048</v>
+        <v>22483</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>21543</v>
+        <v>21968</v>
       </c>
       <c r="D284" t="n">
-        <v>22162</v>
+        <v>22559</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C285" t="n">
-        <v>21684</v>
+        <v>22021</v>
       </c>
       <c r="D285" t="n">
-        <v>22272</v>
+        <v>22612</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B286" t="n">
         <v>3</v>
       </c>
       <c r="C286" t="n">
-        <v>21767</v>
+        <v>22097</v>
       </c>
       <c r="D286" t="n">
-        <v>22355</v>
+        <v>22688</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C287" t="n">
-        <v>21823</v>
+        <v>22176</v>
       </c>
       <c r="D287" t="n">
-        <v>22414</v>
+        <v>22764</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C288" t="n">
-        <v>21899</v>
+        <v>22268</v>
       </c>
       <c r="D288" t="n">
-        <v>22490</v>
+        <v>22859</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B289" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="n">
-        <v>21972</v>
+        <v>22344</v>
       </c>
       <c r="D289" t="n">
-        <v>22563</v>
+        <v>22935</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B290" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C290" t="n">
-        <v>22048</v>
+        <v>22397</v>
       </c>
       <c r="D290" t="n">
-        <v>22639</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>22134</v>
+        <v>22483</v>
       </c>
       <c r="D291" t="n">
-        <v>22725</v>
+        <v>23074</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>22162</v>
+        <v>22559</v>
       </c>
       <c r="D292" t="n">
-        <v>22778</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B293" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C293" t="n">
-        <v>22272</v>
+        <v>22612</v>
       </c>
       <c r="D293" t="n">
-        <v>22880</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B294" t="n">
         <v>3</v>
       </c>
       <c r="C294" t="n">
-        <v>22355</v>
+        <v>22688</v>
       </c>
       <c r="D294" t="n">
-        <v>22963</v>
+        <v>23279</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B295" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C295" t="n">
-        <v>22414</v>
+        <v>22764</v>
       </c>
       <c r="D295" t="n">
-        <v>23016</v>
+        <v>23352</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C296" t="n">
-        <v>22490</v>
+        <v>22859</v>
       </c>
       <c r="D296" t="n">
-        <v>23092</v>
+        <v>23450</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B297" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C297" t="n">
-        <v>22563</v>
+        <v>22935</v>
       </c>
       <c r="D297" t="n">
-        <v>23165</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B298" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C298" t="n">
-        <v>22639</v>
+        <v>22988</v>
       </c>
       <c r="D298" t="n">
-        <v>23241</v>
+        <v>23579</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C299" t="n">
-        <v>22725</v>
+        <v>23074</v>
       </c>
       <c r="D299" t="n">
-        <v>23327</v>
+        <v>23665</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>22778</v>
+        <v>23150</v>
       </c>
       <c r="D300" t="n">
-        <v>23380</v>
+        <v>23741</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B301" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>22880</v>
+        <v>23203</v>
       </c>
       <c r="D301" t="n">
-        <v>23482</v>
+        <v>23794</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B302" t="n">
         <v>3</v>
       </c>
       <c r="C302" t="n">
-        <v>22963</v>
+        <v>23279</v>
       </c>
       <c r="D302" t="n">
-        <v>23565</v>
+        <v>23870</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B303" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C303" t="n">
-        <v>23016</v>
+        <v>23352</v>
       </c>
       <c r="D303" t="n">
-        <v>23618</v>
+        <v>23943</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C304" t="n">
-        <v>23092</v>
+        <v>23450</v>
       </c>
       <c r="D304" t="n">
-        <v>23694</v>
+        <v>24041</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B305" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C305" t="n">
-        <v>23165</v>
+        <v>23526</v>
       </c>
       <c r="D305" t="n">
-        <v>23767</v>
+        <v>24117</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B306" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C306" t="n">
-        <v>23241</v>
+        <v>23579</v>
       </c>
       <c r="D306" t="n">
-        <v>23843</v>
+        <v>24170</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C307" t="n">
-        <v>23327</v>
+        <v>23665</v>
       </c>
       <c r="D307" t="n">
-        <v>23929</v>
+        <v>24256</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>23380</v>
+        <v>23741</v>
       </c>
       <c r="D308" t="n">
-        <v>23982</v>
+        <v>24332</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B309" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C309" t="n">
-        <v>23482</v>
+        <v>23794</v>
       </c>
       <c r="D309" t="n">
-        <v>24084</v>
+        <v>24385</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B310" t="n">
         <v>3</v>
       </c>
       <c r="C310" t="n">
-        <v>23565</v>
+        <v>23870</v>
       </c>
       <c r="D310" t="n">
-        <v>24167</v>
+        <v>24461</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
-        <v>23618</v>
+        <v>23943</v>
       </c>
       <c r="D311" t="n">
-        <v>24220</v>
+        <v>24534</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B312" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C312" t="n">
-        <v>23694</v>
+        <v>24041</v>
       </c>
       <c r="D312" t="n">
-        <v>24296</v>
+        <v>24632</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B313" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C313" t="n">
-        <v>23767</v>
+        <v>24117</v>
       </c>
       <c r="D313" t="n">
-        <v>24369</v>
+        <v>24708</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B314" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C314" t="n">
-        <v>23843</v>
+        <v>24170</v>
       </c>
       <c r="D314" t="n">
-        <v>24445</v>
+        <v>24761</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C315" t="n">
-        <v>23929</v>
+        <v>24256</v>
       </c>
       <c r="D315" t="n">
-        <v>24531</v>
+        <v>24847</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>23982</v>
+        <v>24332</v>
       </c>
       <c r="D316" t="n">
-        <v>24584</v>
+        <v>24923</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B317" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C317" t="n">
-        <v>24084</v>
+        <v>24385</v>
       </c>
       <c r="D317" t="n">
-        <v>24686</v>
+        <v>24976</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B318" t="n">
         <v>3</v>
       </c>
       <c r="C318" t="n">
-        <v>24167</v>
+        <v>24461</v>
       </c>
       <c r="D318" t="n">
-        <v>24769</v>
+        <v>25052</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B319" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C319" t="n">
-        <v>24220</v>
+        <v>24534</v>
       </c>
       <c r="D319" t="n">
-        <v>24822</v>
+        <v>25125</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B320" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C320" t="n">
-        <v>24296</v>
+        <v>24632</v>
       </c>
       <c r="D320" t="n">
-        <v>24898</v>
+        <v>25223</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B321" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C321" t="n">
-        <v>24369</v>
+        <v>24708</v>
       </c>
       <c r="D321" t="n">
-        <v>24971</v>
+        <v>25299</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B322" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C322" t="n">
-        <v>24445</v>
+        <v>24761</v>
       </c>
       <c r="D322" t="n">
-        <v>25047</v>
+        <v>25352</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C323" t="n">
-        <v>24531</v>
+        <v>24847</v>
       </c>
       <c r="D323" t="n">
-        <v>25133</v>
+        <v>25438</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>24584</v>
+        <v>24923</v>
       </c>
       <c r="D324" t="n">
-        <v>25186</v>
+        <v>25514</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B325" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C325" t="n">
-        <v>24686</v>
+        <v>24976</v>
       </c>
       <c r="D325" t="n">
-        <v>25288</v>
+        <v>25567</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B326" t="n">
         <v>3</v>
       </c>
       <c r="C326" t="n">
-        <v>24769</v>
+        <v>25052</v>
       </c>
       <c r="D326" t="n">
-        <v>25371</v>
+        <v>25643</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B327" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C327" t="n">
-        <v>24822</v>
+        <v>25125</v>
       </c>
       <c r="D327" t="n">
-        <v>25424</v>
+        <v>25716</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B328" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C328" t="n">
-        <v>24898</v>
+        <v>25223</v>
       </c>
       <c r="D328" t="n">
-        <v>25500</v>
+        <v>25814</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B329" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329" t="n">
-        <v>24971</v>
+        <v>25299</v>
       </c>
       <c r="D329" t="n">
-        <v>25573</v>
+        <v>25890</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B330" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C330" t="n">
-        <v>25047</v>
+        <v>25352</v>
       </c>
       <c r="D330" t="n">
-        <v>25649</v>
+        <v>25943</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C331" t="n">
-        <v>25133</v>
+        <v>25438</v>
       </c>
       <c r="D331" t="n">
-        <v>25735</v>
+        <v>26029</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>25186</v>
+        <v>25514</v>
       </c>
       <c r="D332" t="n">
-        <v>25788</v>
+        <v>26105</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C333" t="n">
-        <v>25288</v>
+        <v>25643</v>
       </c>
       <c r="D333" t="n">
-        <v>25890</v>
+        <v>26231</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B334" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C334" t="n">
-        <v>25371</v>
+        <v>25716</v>
       </c>
       <c r="D334" t="n">
-        <v>25973</v>
+        <v>26304</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C335" t="n">
-        <v>25424</v>
+        <v>25814</v>
       </c>
       <c r="D335" t="n">
-        <v>26026</v>
+        <v>26405</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B336" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C336" t="n">
-        <v>25500</v>
+        <v>25890</v>
       </c>
       <c r="D336" t="n">
-        <v>26102</v>
+        <v>26481</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B337" t="n">
         <v>8</v>
       </c>
       <c r="C337" t="n">
-        <v>25573</v>
+        <v>25943</v>
       </c>
       <c r="D337" t="n">
-        <v>26175</v>
+        <v>26534</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B338" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C338" t="n">
-        <v>25649</v>
+        <v>26029</v>
       </c>
       <c r="D338" t="n">
-        <v>26251</v>
+        <v>26620</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>25735</v>
+        <v>26105</v>
       </c>
       <c r="D339" t="n">
-        <v>26337</v>
+        <v>26696</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C340" t="n">
-        <v>25788</v>
+        <v>26304</v>
       </c>
       <c r="D340" t="n">
-        <v>26390</v>
+        <v>26956</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B341" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C341" t="n">
-        <v>25890</v>
+        <v>26405</v>
       </c>
       <c r="D341" t="n">
-        <v>26492</v>
+        <v>27009</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B342" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C342" t="n">
-        <v>25973</v>
+        <v>26481</v>
       </c>
       <c r="D342" t="n">
-        <v>26575</v>
+        <v>27085</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B343" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C343" t="n">
-        <v>26026</v>
+        <v>26534</v>
       </c>
       <c r="D343" t="n">
-        <v>26628</v>
+        <v>27138</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B344" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" t="n">
-        <v>26102</v>
+        <v>26620</v>
       </c>
       <c r="D344" t="n">
-        <v>26704</v>
+        <v>27224</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B345" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>26175</v>
+        <v>26696</v>
       </c>
       <c r="D345" t="n">
-        <v>26777</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B346" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C346" t="n">
-        <v>26251</v>
+        <v>26895</v>
       </c>
       <c r="D346" t="n">
-        <v>26853</v>
+        <v>27486</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C347" t="n">
-        <v>26337</v>
+        <v>26956</v>
       </c>
       <c r="D347" t="n">
-        <v>26939</v>
+        <v>27572</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C348" t="n">
-        <v>26390</v>
+        <v>27009</v>
       </c>
       <c r="D348" t="n">
-        <v>26992</v>
+        <v>27625</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B349" t="n">
         <v>7</v>
       </c>
       <c r="C349" t="n">
-        <v>26492</v>
+        <v>27085</v>
       </c>
       <c r="D349" t="n">
-        <v>27094</v>
+        <v>27701</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B350" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>26575</v>
+        <v>27138</v>
       </c>
       <c r="D350" t="n">
-        <v>27177</v>
+        <v>27754</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B351" t="n">
         <v>4</v>
       </c>
       <c r="C351" t="n">
-        <v>26628</v>
+        <v>27224</v>
       </c>
       <c r="D351" t="n">
-        <v>27230</v>
+        <v>27868</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B352" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>26704</v>
+        <v>27300</v>
       </c>
       <c r="D352" t="n">
-        <v>27306</v>
+        <v>27944</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B353" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C353" t="n">
-        <v>26777</v>
+        <v>27486</v>
       </c>
       <c r="D353" t="n">
-        <v>27379</v>
+        <v>28077</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B354" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>26853</v>
+        <v>27572</v>
       </c>
       <c r="D354" t="n">
-        <v>27455</v>
+        <v>28163</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C355" t="n">
-        <v>26939</v>
+        <v>27625</v>
       </c>
       <c r="D355" t="n">
-        <v>27541</v>
+        <v>28216</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C356" t="n">
-        <v>26992</v>
+        <v>27701</v>
       </c>
       <c r="D356" t="n">
-        <v>27594</v>
+        <v>28292</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B357" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C357" t="n">
-        <v>27094</v>
+        <v>27754</v>
       </c>
       <c r="D357" t="n">
-        <v>27696</v>
+        <v>28345</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B358" t="n">
         <v>3</v>
       </c>
       <c r="C358" t="n">
-        <v>27177</v>
+        <v>27840</v>
       </c>
       <c r="D358" t="n">
-        <v>27779</v>
+        <v>28431</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B359" t="n">
         <v>4</v>
       </c>
       <c r="C359" t="n">
-        <v>27230</v>
+        <v>27868</v>
       </c>
       <c r="D359" t="n">
-        <v>27832</v>
+        <v>28484</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B360" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>27306</v>
+        <v>27944</v>
       </c>
       <c r="D360" t="n">
-        <v>27908</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" t="n">
-        <v>363</v>
-      </c>
-      <c r="B361" t="n">
-        <v>8</v>
-      </c>
-      <c r="C361" t="n">
-        <v>27379</v>
-      </c>
-      <c r="D361" t="n">
-        <v>27981</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362" t="n">
-        <v>364</v>
-      </c>
-      <c r="B362" t="n">
-        <v>6</v>
-      </c>
-      <c r="C362" t="n">
-        <v>27455</v>
-      </c>
-      <c r="D362" t="n">
-        <v>28057</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" t="n">
-        <v>365</v>
-      </c>
-      <c r="B363" t="n">
-        <v>1</v>
-      </c>
-      <c r="C363" t="n">
-        <v>27541</v>
-      </c>
-      <c r="D363" t="n">
-        <v>28143</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" t="n">
-        <v>366</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2</v>
-      </c>
-      <c r="C364" t="n">
-        <v>27594</v>
-      </c>
-      <c r="D364" t="n">
-        <v>28196</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" t="n">
-        <v>367</v>
-      </c>
-      <c r="B365" t="n">
-        <v>7</v>
-      </c>
-      <c r="C365" t="n">
-        <v>27696</v>
-      </c>
-      <c r="D365" t="n">
-        <v>28298</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" t="n">
-        <v>368</v>
-      </c>
-      <c r="B366" t="n">
-        <v>3</v>
-      </c>
-      <c r="C366" t="n">
-        <v>27779</v>
-      </c>
-      <c r="D366" t="n">
-        <v>28381</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" t="n">
-        <v>369</v>
-      </c>
-      <c r="B367" t="n">
-        <v>4</v>
-      </c>
-      <c r="C367" t="n">
-        <v>27832</v>
-      </c>
-      <c r="D367" t="n">
-        <v>28434</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" t="n">
-        <v>370</v>
-      </c>
-      <c r="B368" t="n">
-        <v>5</v>
-      </c>
-      <c r="C368" t="n">
-        <v>27908</v>
-      </c>
-      <c r="D368" t="n">
-        <v>28510</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" t="n">
-        <v>371</v>
-      </c>
-      <c r="B369" t="n">
-        <v>8</v>
-      </c>
-      <c r="C369" t="n">
-        <v>27981</v>
-      </c>
-      <c r="D369" t="n">
-        <v>28583</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" t="n">
-        <v>372</v>
-      </c>
-      <c r="B370" t="n">
-        <v>6</v>
-      </c>
-      <c r="C370" t="n">
-        <v>28057</v>
-      </c>
-      <c r="D370" t="n">
-        <v>28659</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" t="n">
-        <v>373</v>
-      </c>
-      <c r="B371" t="n">
-        <v>1</v>
-      </c>
-      <c r="C371" t="n">
-        <v>28143</v>
-      </c>
-      <c r="D371" t="n">
-        <v>28745</v>
+        <v>28560</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,4566 +861,4580 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>2414</v>
+        <v>2490</v>
       </c>
       <c r="D35" t="n">
-        <v>3005</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>2490</v>
+        <v>2543</v>
       </c>
       <c r="D36" t="n">
-        <v>3081</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>2543</v>
+        <v>2619</v>
       </c>
       <c r="D37" t="n">
-        <v>3134</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>2619</v>
+        <v>2672</v>
       </c>
       <c r="D38" t="n">
-        <v>3210</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>2672</v>
+        <v>2748</v>
       </c>
       <c r="D39" t="n">
-        <v>3263</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>2748</v>
+        <v>2801</v>
       </c>
       <c r="D40" t="n">
-        <v>3339</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2801</v>
+        <v>2940</v>
       </c>
       <c r="D41" t="n">
-        <v>3392</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>2940</v>
+        <v>3078</v>
       </c>
       <c r="D42" t="n">
-        <v>3528</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>3005</v>
+        <v>3134</v>
       </c>
       <c r="D43" t="n">
-        <v>3596</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>3081</v>
+        <v>3210</v>
       </c>
       <c r="D44" t="n">
-        <v>3672</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>3134</v>
+        <v>3263</v>
       </c>
       <c r="D45" t="n">
-        <v>3725</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>3210</v>
+        <v>3339</v>
       </c>
       <c r="D46" t="n">
-        <v>3801</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>3263</v>
+        <v>3392</v>
       </c>
       <c r="D47" t="n">
-        <v>3854</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>3339</v>
+        <v>3528</v>
       </c>
       <c r="D48" t="n">
-        <v>3930</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3392</v>
+        <v>3666</v>
       </c>
       <c r="D49" t="n">
-        <v>3983</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>3528</v>
+        <v>3725</v>
       </c>
       <c r="D50" t="n">
-        <v>4116</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>3596</v>
+        <v>3801</v>
       </c>
       <c r="D51" t="n">
-        <v>4187</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>3672</v>
+        <v>3854</v>
       </c>
       <c r="D52" t="n">
-        <v>4263</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>3725</v>
+        <v>3930</v>
       </c>
       <c r="D53" t="n">
-        <v>4316</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>3801</v>
+        <v>3983</v>
       </c>
       <c r="D54" t="n">
-        <v>4392</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>3854</v>
+        <v>4087</v>
       </c>
       <c r="D55" t="n">
-        <v>4445</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>3930</v>
+        <v>4118</v>
       </c>
       <c r="D56" t="n">
-        <v>4521</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>3983</v>
+        <v>4254</v>
       </c>
       <c r="D57" t="n">
-        <v>4574</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>4116</v>
+        <v>4316</v>
       </c>
       <c r="D58" t="n">
-        <v>4704</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>4187</v>
+        <v>4392</v>
       </c>
       <c r="D59" t="n">
-        <v>4778</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>4263</v>
+        <v>4445</v>
       </c>
       <c r="D60" t="n">
-        <v>4854</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>4316</v>
+        <v>4521</v>
       </c>
       <c r="D61" t="n">
-        <v>4907</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>4392</v>
+        <v>4574</v>
       </c>
       <c r="D62" t="n">
-        <v>4983</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>4445</v>
+        <v>4678</v>
       </c>
       <c r="D63" t="n">
-        <v>5036</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>4521</v>
+        <v>4734</v>
       </c>
       <c r="D64" t="n">
-        <v>5112</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>4574</v>
+        <v>4842</v>
       </c>
       <c r="D65" t="n">
-        <v>5165</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>4704</v>
+        <v>4907</v>
       </c>
       <c r="D66" t="n">
-        <v>5292</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>4778</v>
+        <v>4983</v>
       </c>
       <c r="D67" t="n">
-        <v>5369</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>4854</v>
+        <v>5036</v>
       </c>
       <c r="D68" t="n">
-        <v>5445</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>4907</v>
+        <v>5112</v>
       </c>
       <c r="D69" t="n">
-        <v>5498</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>4983</v>
+        <v>5165</v>
       </c>
       <c r="D70" t="n">
-        <v>5574</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>5036</v>
+        <v>5269</v>
       </c>
       <c r="D71" t="n">
-        <v>5627</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>5112</v>
+        <v>5325</v>
       </c>
       <c r="D72" t="n">
-        <v>5703</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>5165</v>
+        <v>5430</v>
       </c>
       <c r="D73" t="n">
-        <v>5756</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>5292</v>
+        <v>5498</v>
       </c>
       <c r="D74" t="n">
-        <v>5880</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>5369</v>
+        <v>5574</v>
       </c>
       <c r="D75" t="n">
-        <v>5960</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>5445</v>
+        <v>5627</v>
       </c>
       <c r="D76" t="n">
-        <v>6036</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>5498</v>
+        <v>5703</v>
       </c>
       <c r="D77" t="n">
-        <v>6089</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>5574</v>
+        <v>5756</v>
       </c>
       <c r="D78" t="n">
-        <v>6165</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>5627</v>
+        <v>5860</v>
       </c>
       <c r="D79" t="n">
-        <v>6218</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>5703</v>
+        <v>5916</v>
       </c>
       <c r="D80" t="n">
-        <v>6294</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>5756</v>
+        <v>6018</v>
       </c>
       <c r="D81" t="n">
-        <v>6347</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>5880</v>
+        <v>6089</v>
       </c>
       <c r="D82" t="n">
-        <v>6468</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>5960</v>
+        <v>6165</v>
       </c>
       <c r="D83" t="n">
-        <v>6551</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C84" t="n">
-        <v>6036</v>
+        <v>6218</v>
       </c>
       <c r="D84" t="n">
-        <v>6627</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>6089</v>
+        <v>6294</v>
       </c>
       <c r="D85" t="n">
-        <v>6680</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>6165</v>
+        <v>6347</v>
       </c>
       <c r="D86" t="n">
-        <v>6756</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>6218</v>
+        <v>6451</v>
       </c>
       <c r="D87" t="n">
-        <v>6809</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>6294</v>
+        <v>6507</v>
       </c>
       <c r="D88" t="n">
-        <v>6885</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>6347</v>
+        <v>6606</v>
       </c>
       <c r="D89" t="n">
-        <v>6938</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>6468</v>
+        <v>6680</v>
       </c>
       <c r="D90" t="n">
-        <v>7056</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>6551</v>
+        <v>6756</v>
       </c>
       <c r="D91" t="n">
-        <v>7142</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>6627</v>
+        <v>6809</v>
       </c>
       <c r="D92" t="n">
-        <v>7218</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>6680</v>
+        <v>6885</v>
       </c>
       <c r="D93" t="n">
-        <v>7271</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>6756</v>
+        <v>6938</v>
       </c>
       <c r="D94" t="n">
-        <v>7347</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>6809</v>
+        <v>7042</v>
       </c>
       <c r="D95" t="n">
-        <v>7400</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6885</v>
+        <v>7098</v>
       </c>
       <c r="D96" t="n">
-        <v>7476</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>6938</v>
+        <v>7194</v>
       </c>
       <c r="D97" t="n">
-        <v>7529</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>7056</v>
+        <v>7271</v>
       </c>
       <c r="D98" t="n">
-        <v>7644</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>7142</v>
+        <v>7347</v>
       </c>
       <c r="D99" t="n">
-        <v>7733</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
-        <v>7218</v>
+        <v>7400</v>
       </c>
       <c r="D100" t="n">
-        <v>7809</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>7271</v>
+        <v>7476</v>
       </c>
       <c r="D101" t="n">
-        <v>7862</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>7347</v>
+        <v>7529</v>
       </c>
       <c r="D102" t="n">
-        <v>7938</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>7400</v>
+        <v>7633</v>
       </c>
       <c r="D103" t="n">
-        <v>7991</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>7644</v>
+        <v>7689</v>
       </c>
       <c r="D104" t="n">
-        <v>8232</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>7733</v>
+        <v>7782</v>
       </c>
       <c r="D105" t="n">
-        <v>8324</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>7809</v>
+        <v>7862</v>
       </c>
       <c r="D106" t="n">
-        <v>8400</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>7862</v>
+        <v>7938</v>
       </c>
       <c r="D107" t="n">
-        <v>8453</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7938</v>
+        <v>7991</v>
       </c>
       <c r="D108" t="n">
-        <v>8529</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>7991</v>
+        <v>8067</v>
       </c>
       <c r="D109" t="n">
-        <v>8582</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>8232</v>
+        <v>8120</v>
       </c>
       <c r="D110" t="n">
-        <v>8820</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>8324</v>
+        <v>8224</v>
       </c>
       <c r="D111" t="n">
-        <v>8915</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>8400</v>
+        <v>8280</v>
       </c>
       <c r="D112" t="n">
-        <v>8991</v>
+        <v>8871</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>8453</v>
+        <v>8370</v>
       </c>
       <c r="D113" t="n">
-        <v>9044</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>8529</v>
+        <v>8453</v>
       </c>
       <c r="D114" t="n">
-        <v>9120</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>8582</v>
+        <v>8529</v>
       </c>
       <c r="D115" t="n">
-        <v>9173</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
-        <v>8658</v>
+        <v>8582</v>
       </c>
       <c r="D116" t="n">
-        <v>9249</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C117" t="n">
-        <v>8820</v>
+        <v>8658</v>
       </c>
       <c r="D117" t="n">
-        <v>9408</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>8915</v>
+        <v>8711</v>
       </c>
       <c r="D118" t="n">
-        <v>9506</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>8991</v>
+        <v>8815</v>
       </c>
       <c r="D119" t="n">
-        <v>9582</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>9044</v>
+        <v>8871</v>
       </c>
       <c r="D120" t="n">
-        <v>9635</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>9120</v>
+        <v>8958</v>
       </c>
       <c r="D121" t="n">
-        <v>9711</v>
+        <v>9546</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" t="n">
-        <v>9173</v>
+        <v>9044</v>
       </c>
       <c r="D122" t="n">
-        <v>9764</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>9249</v>
+        <v>9120</v>
       </c>
       <c r="D123" t="n">
-        <v>9840</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="n">
-        <v>9302</v>
+        <v>9173</v>
       </c>
       <c r="D124" t="n">
-        <v>9893</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
-        <v>9408</v>
+        <v>9249</v>
       </c>
       <c r="D125" t="n">
-        <v>9996</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>9506</v>
+        <v>9302</v>
       </c>
       <c r="D126" t="n">
-        <v>10097</v>
+        <v>9893</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>9582</v>
+        <v>9406</v>
       </c>
       <c r="D127" t="n">
-        <v>10173</v>
+        <v>9997</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>9635</v>
+        <v>9462</v>
       </c>
       <c r="D128" t="n">
-        <v>10226</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>9711</v>
+        <v>9546</v>
       </c>
       <c r="D129" t="n">
-        <v>10302</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>9764</v>
+        <v>9635</v>
       </c>
       <c r="D130" t="n">
-        <v>10355</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>9840</v>
+        <v>9711</v>
       </c>
       <c r="D131" t="n">
-        <v>10431</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>9893</v>
+        <v>9764</v>
       </c>
       <c r="D132" t="n">
-        <v>10484</v>
+        <v>10355</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>9996</v>
+        <v>9840</v>
       </c>
       <c r="D133" t="n">
-        <v>10586</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>10097</v>
+        <v>9893</v>
       </c>
       <c r="D134" t="n">
-        <v>10688</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>10173</v>
+        <v>9997</v>
       </c>
       <c r="D135" t="n">
-        <v>10764</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>10226</v>
+        <v>10053</v>
       </c>
       <c r="D136" t="n">
-        <v>10817</v>
+        <v>10644</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>10302</v>
+        <v>10134</v>
       </c>
       <c r="D137" t="n">
-        <v>10893</v>
+        <v>10722</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
-        <v>10355</v>
+        <v>10226</v>
       </c>
       <c r="D138" t="n">
-        <v>10946</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>10431</v>
+        <v>10302</v>
       </c>
       <c r="D139" t="n">
-        <v>11022</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>10484</v>
+        <v>10355</v>
       </c>
       <c r="D140" t="n">
-        <v>11075</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>10688</v>
+        <v>10431</v>
       </c>
       <c r="D141" t="n">
-        <v>11279</v>
+        <v>11022</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>10764</v>
+        <v>10484</v>
       </c>
       <c r="D142" t="n">
-        <v>11355</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>10817</v>
+        <v>10588</v>
       </c>
       <c r="D143" t="n">
-        <v>11408</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>10893</v>
+        <v>10644</v>
       </c>
       <c r="D144" t="n">
-        <v>11484</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>10946</v>
+        <v>10722</v>
       </c>
       <c r="D145" t="n">
-        <v>11537</v>
+        <v>11310</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>11022</v>
+        <v>10817</v>
       </c>
       <c r="D146" t="n">
-        <v>11613</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>11075</v>
+        <v>10893</v>
       </c>
       <c r="D147" t="n">
-        <v>11666</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>11279</v>
+        <v>10946</v>
       </c>
       <c r="D148" t="n">
-        <v>11870</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C149" t="n">
-        <v>11355</v>
+        <v>11022</v>
       </c>
       <c r="D149" t="n">
-        <v>11946</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>11484</v>
+        <v>11075</v>
       </c>
       <c r="D150" t="n">
-        <v>12077</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>11537</v>
+        <v>11179</v>
       </c>
       <c r="D151" t="n">
-        <v>12130</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>11613</v>
+        <v>11235</v>
       </c>
       <c r="D152" t="n">
-        <v>12206</v>
+        <v>11826</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>11666</v>
+        <v>11310</v>
       </c>
       <c r="D153" t="n">
-        <v>12259</v>
+        <v>11899</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154" t="n">
-        <v>11870</v>
+        <v>11408</v>
       </c>
       <c r="D154" t="n">
-        <v>12461</v>
+        <v>11999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>11946</v>
+        <v>11484</v>
       </c>
       <c r="D155" t="n">
-        <v>12537</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C156" t="n">
-        <v>12019</v>
+        <v>11537</v>
       </c>
       <c r="D156" t="n">
-        <v>12610</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
-        <v>12077</v>
+        <v>11613</v>
       </c>
       <c r="D157" t="n">
-        <v>12734</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>12130</v>
+        <v>11666</v>
       </c>
       <c r="D158" t="n">
-        <v>12787</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>12206</v>
+        <v>11770</v>
       </c>
       <c r="D159" t="n">
-        <v>12863</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>12259</v>
+        <v>11826</v>
       </c>
       <c r="D160" t="n">
-        <v>12916</v>
+        <v>12417</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>12461</v>
+        <v>11899</v>
       </c>
       <c r="D161" t="n">
-        <v>13052</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>12537</v>
+        <v>11999</v>
       </c>
       <c r="D162" t="n">
-        <v>13128</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>12610</v>
+        <v>12075</v>
       </c>
       <c r="D163" t="n">
-        <v>13201</v>
+        <v>12666</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>12683</v>
+        <v>12128</v>
       </c>
       <c r="D164" t="n">
-        <v>13274</v>
+        <v>12719</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="n">
-        <v>12734</v>
+        <v>12204</v>
       </c>
       <c r="D165" t="n">
-        <v>13350</v>
+        <v>12795</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>12787</v>
+        <v>12257</v>
       </c>
       <c r="D166" t="n">
-        <v>13403</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>12863</v>
+        <v>12361</v>
       </c>
       <c r="D167" t="n">
-        <v>13479</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B168" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>12916</v>
+        <v>12417</v>
       </c>
       <c r="D168" t="n">
-        <v>13532</v>
+        <v>13008</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>13052</v>
+        <v>12490</v>
       </c>
       <c r="D169" t="n">
-        <v>13643</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C170" t="n">
-        <v>13128</v>
+        <v>12590</v>
       </c>
       <c r="D170" t="n">
-        <v>13719</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>13201</v>
+        <v>12666</v>
       </c>
       <c r="D171" t="n">
-        <v>13792</v>
+        <v>13257</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>13274</v>
+        <v>12719</v>
       </c>
       <c r="D172" t="n">
-        <v>13865</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="n">
-        <v>13350</v>
+        <v>12795</v>
       </c>
       <c r="D173" t="n">
-        <v>13941</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="n">
-        <v>13403</v>
+        <v>12848</v>
       </c>
       <c r="D174" t="n">
-        <v>13994</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>13479</v>
+        <v>12952</v>
       </c>
       <c r="D175" t="n">
-        <v>14070</v>
+        <v>13543</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>13532</v>
+        <v>13008</v>
       </c>
       <c r="D176" t="n">
-        <v>14123</v>
+        <v>13599</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
-        <v>13643</v>
+        <v>13081</v>
       </c>
       <c r="D177" t="n">
-        <v>14234</v>
+        <v>13672</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C178" t="n">
-        <v>13719</v>
+        <v>13181</v>
       </c>
       <c r="D178" t="n">
-        <v>14310</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>13792</v>
+        <v>13257</v>
       </c>
       <c r="D179" t="n">
-        <v>14383</v>
+        <v>13848</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>13865</v>
+        <v>13310</v>
       </c>
       <c r="D180" t="n">
-        <v>14456</v>
+        <v>13901</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
-        <v>13941</v>
+        <v>13386</v>
       </c>
       <c r="D181" t="n">
-        <v>14532</v>
+        <v>13977</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
-        <v>13994</v>
+        <v>13439</v>
       </c>
       <c r="D182" t="n">
-        <v>14585</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>14070</v>
+        <v>13543</v>
       </c>
       <c r="D183" t="n">
-        <v>14661</v>
+        <v>14134</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>14123</v>
+        <v>13599</v>
       </c>
       <c r="D184" t="n">
-        <v>14714</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>14234</v>
+        <v>13672</v>
       </c>
       <c r="D185" t="n">
-        <v>14825</v>
+        <v>14263</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186" t="n">
-        <v>14310</v>
+        <v>13772</v>
       </c>
       <c r="D186" t="n">
-        <v>14901</v>
+        <v>14363</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B187" t="n">
         <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>14532</v>
+        <v>13848</v>
       </c>
       <c r="D187" t="n">
-        <v>15120</v>
+        <v>14439</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B188" t="n">
         <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v>14585</v>
+        <v>13901</v>
       </c>
       <c r="D188" t="n">
-        <v>15176</v>
+        <v>14492</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="n">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B189" t="n">
         <v>7</v>
       </c>
       <c r="C189" t="n">
-        <v>14661</v>
+        <v>13977</v>
       </c>
       <c r="D189" t="n">
-        <v>15252</v>
+        <v>14568</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B190" t="n">
         <v>8</v>
       </c>
       <c r="C190" t="n">
-        <v>14714</v>
+        <v>14030</v>
       </c>
       <c r="D190" t="n">
-        <v>15305</v>
+        <v>14621</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>14825</v>
+        <v>14134</v>
       </c>
       <c r="D191" t="n">
-        <v>15416</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>14901</v>
+        <v>14190</v>
       </c>
       <c r="D192" t="n">
-        <v>15492</v>
+        <v>14781</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>15120</v>
+        <v>14263</v>
       </c>
       <c r="D193" t="n">
-        <v>15708</v>
+        <v>14854</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C194" t="n">
-        <v>15176</v>
+        <v>14363</v>
       </c>
       <c r="D194" t="n">
-        <v>15767</v>
+        <v>14954</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>15252</v>
+        <v>14439</v>
       </c>
       <c r="D195" t="n">
-        <v>15843</v>
+        <v>15030</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="n">
-        <v>15305</v>
+        <v>14568</v>
       </c>
       <c r="D196" t="n">
-        <v>15896</v>
+        <v>15156</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C197" t="n">
-        <v>15416</v>
+        <v>14621</v>
       </c>
       <c r="D197" t="n">
-        <v>16061</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>15492</v>
+        <v>14781</v>
       </c>
       <c r="D198" t="n">
-        <v>16137</v>
+        <v>15369</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" t="n">
-        <v>15708</v>
+        <v>14954</v>
       </c>
       <c r="D199" t="n">
-        <v>16296</v>
+        <v>15589</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="n">
-        <v>15767</v>
+        <v>15030</v>
       </c>
       <c r="D200" t="n">
-        <v>16358</v>
+        <v>15665</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B201" t="n">
         <v>7</v>
       </c>
       <c r="C201" t="n">
-        <v>15843</v>
+        <v>15156</v>
       </c>
       <c r="D201" t="n">
-        <v>16434</v>
+        <v>15861</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B202" t="n">
         <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>15896</v>
+        <v>15212</v>
       </c>
       <c r="D202" t="n">
-        <v>16487</v>
+        <v>15914</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>15982</v>
+        <v>15369</v>
       </c>
       <c r="D203" t="n">
-        <v>16573</v>
+        <v>16016</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>16033</v>
+        <v>15538</v>
       </c>
       <c r="D204" t="n">
-        <v>16649</v>
+        <v>16129</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C205" t="n">
-        <v>16061</v>
+        <v>15589</v>
       </c>
       <c r="D205" t="n">
-        <v>16702</v>
+        <v>16205</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>16137</v>
+        <v>15665</v>
       </c>
       <c r="D206" t="n">
-        <v>16778</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C207" t="n">
-        <v>16296</v>
+        <v>15784</v>
       </c>
       <c r="D207" t="n">
-        <v>16884</v>
+        <v>16375</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B208" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>16358</v>
+        <v>15861</v>
       </c>
       <c r="D208" t="n">
-        <v>16949</v>
+        <v>16477</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>16434</v>
+        <v>15914</v>
       </c>
       <c r="D209" t="n">
-        <v>17025</v>
+        <v>16530</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B210" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>16487</v>
+        <v>16016</v>
       </c>
       <c r="D210" t="n">
-        <v>17078</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
-        <v>16573</v>
+        <v>16129</v>
       </c>
       <c r="D211" t="n">
-        <v>17164</v>
+        <v>16753</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C212" t="n">
-        <v>16649</v>
+        <v>16205</v>
       </c>
       <c r="D212" t="n">
-        <v>17240</v>
+        <v>16829</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C213" t="n">
-        <v>16702</v>
+        <v>16281</v>
       </c>
       <c r="D213" t="n">
-        <v>17293</v>
+        <v>16905</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="n">
-        <v>16778</v>
+        <v>16375</v>
       </c>
       <c r="D214" t="n">
-        <v>17369</v>
+        <v>16988</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>16884</v>
+        <v>16477</v>
       </c>
       <c r="D215" t="n">
-        <v>17472</v>
+        <v>17090</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B216" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="n">
-        <v>16949</v>
+        <v>16530</v>
       </c>
       <c r="D216" t="n">
-        <v>17540</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B217" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>17025</v>
+        <v>16632</v>
       </c>
       <c r="D217" t="n">
-        <v>17616</v>
+        <v>17245</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>17078</v>
+        <v>16705</v>
       </c>
       <c r="D218" t="n">
-        <v>17669</v>
+        <v>17318</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C219" t="n">
-        <v>17164</v>
+        <v>16753</v>
       </c>
       <c r="D219" t="n">
-        <v>17755</v>
+        <v>17391</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C220" t="n">
-        <v>17240</v>
+        <v>16829</v>
       </c>
       <c r="D220" t="n">
-        <v>17831</v>
+        <v>17467</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C221" t="n">
-        <v>17293</v>
+        <v>16905</v>
       </c>
       <c r="D221" t="n">
-        <v>17884</v>
+        <v>17543</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>17369</v>
+        <v>16988</v>
       </c>
       <c r="D222" t="n">
-        <v>17960</v>
+        <v>17626</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="n">
-        <v>17472</v>
+        <v>17090</v>
       </c>
       <c r="D223" t="n">
-        <v>18060</v>
+        <v>17728</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B224" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>17540</v>
+        <v>17143</v>
       </c>
       <c r="D224" t="n">
-        <v>18131</v>
+        <v>17781</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>17616</v>
+        <v>17245</v>
       </c>
       <c r="D225" t="n">
-        <v>18207</v>
+        <v>17883</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B226" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>17669</v>
+        <v>17318</v>
       </c>
       <c r="D226" t="n">
-        <v>18260</v>
+        <v>17956</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B227" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
-        <v>17755</v>
+        <v>17391</v>
       </c>
       <c r="D227" t="n">
-        <v>18346</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C228" t="n">
-        <v>17831</v>
+        <v>17467</v>
       </c>
       <c r="D228" t="n">
-        <v>18422</v>
+        <v>18105</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>17884</v>
+        <v>17543</v>
       </c>
       <c r="D229" t="n">
-        <v>18475</v>
+        <v>18181</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="n">
-        <v>17960</v>
+        <v>17626</v>
       </c>
       <c r="D230" t="n">
-        <v>18551</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
-        <v>18060</v>
+        <v>17728</v>
       </c>
       <c r="D231" t="n">
-        <v>18648</v>
+        <v>18366</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>18131</v>
+        <v>17781</v>
       </c>
       <c r="D232" t="n">
-        <v>18722</v>
+        <v>18419</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>18207</v>
+        <v>17883</v>
       </c>
       <c r="D233" t="n">
-        <v>18798</v>
+        <v>18521</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B234" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C234" t="n">
-        <v>18260</v>
+        <v>17956</v>
       </c>
       <c r="D234" t="n">
-        <v>18851</v>
+        <v>18594</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C235" t="n">
-        <v>18346</v>
+        <v>18029</v>
       </c>
       <c r="D235" t="n">
-        <v>18937</v>
+        <v>18667</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C236" t="n">
-        <v>18422</v>
+        <v>18105</v>
       </c>
       <c r="D236" t="n">
-        <v>19013</v>
+        <v>18743</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>18475</v>
+        <v>18181</v>
       </c>
       <c r="D237" t="n">
-        <v>19066</v>
+        <v>18819</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="n">
-        <v>18551</v>
+        <v>18264</v>
       </c>
       <c r="D238" t="n">
-        <v>19142</v>
+        <v>18902</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="n">
-        <v>18648</v>
+        <v>18366</v>
       </c>
       <c r="D239" t="n">
-        <v>19236</v>
+        <v>19004</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B240" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="n">
-        <v>18722</v>
+        <v>18419</v>
       </c>
       <c r="D240" t="n">
-        <v>19313</v>
+        <v>19057</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>18798</v>
+        <v>18521</v>
       </c>
       <c r="D241" t="n">
-        <v>19389</v>
+        <v>19159</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B242" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>18851</v>
+        <v>18594</v>
       </c>
       <c r="D242" t="n">
-        <v>19442</v>
+        <v>19232</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C243" t="n">
-        <v>18937</v>
+        <v>18667</v>
       </c>
       <c r="D243" t="n">
-        <v>19528</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C244" t="n">
-        <v>19013</v>
+        <v>18743</v>
       </c>
       <c r="D244" t="n">
-        <v>19604</v>
+        <v>19381</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C245" t="n">
-        <v>19066</v>
+        <v>18819</v>
       </c>
       <c r="D245" t="n">
-        <v>19657</v>
+        <v>19457</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="n">
-        <v>19142</v>
+        <v>18902</v>
       </c>
       <c r="D246" t="n">
-        <v>19733</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B247" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="n">
-        <v>19236</v>
+        <v>19004</v>
       </c>
       <c r="D247" t="n">
-        <v>19824</v>
+        <v>19642</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B248" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="n">
-        <v>19313</v>
+        <v>19057</v>
       </c>
       <c r="D248" t="n">
-        <v>19904</v>
+        <v>19695</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B249" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>19389</v>
+        <v>19159</v>
       </c>
       <c r="D249" t="n">
-        <v>19980</v>
+        <v>19797</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B250" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>19442</v>
+        <v>19232</v>
       </c>
       <c r="D250" t="n">
-        <v>20033</v>
+        <v>19870</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C251" t="n">
-        <v>19528</v>
+        <v>19305</v>
       </c>
       <c r="D251" t="n">
-        <v>20119</v>
+        <v>19943</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C252" t="n">
-        <v>19604</v>
+        <v>19381</v>
       </c>
       <c r="D252" t="n">
-        <v>20195</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>19657</v>
+        <v>19457</v>
       </c>
       <c r="D253" t="n">
-        <v>20248</v>
+        <v>20095</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="n">
-        <v>19733</v>
+        <v>19540</v>
       </c>
       <c r="D254" t="n">
-        <v>20324</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B255" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="n">
-        <v>19824</v>
+        <v>19642</v>
       </c>
       <c r="D255" t="n">
-        <v>20412</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="n">
-        <v>19904</v>
+        <v>19695</v>
       </c>
       <c r="D256" t="n">
-        <v>20495</v>
+        <v>20333</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>19980</v>
+        <v>19797</v>
       </c>
       <c r="D257" t="n">
-        <v>20571</v>
+        <v>20435</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B258" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C258" t="n">
-        <v>20033</v>
+        <v>19870</v>
       </c>
       <c r="D258" t="n">
-        <v>20624</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C259" t="n">
-        <v>20119</v>
+        <v>19943</v>
       </c>
       <c r="D259" t="n">
-        <v>20710</v>
+        <v>20581</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
-        <v>20195</v>
+        <v>20019</v>
       </c>
       <c r="D260" t="n">
-        <v>20786</v>
+        <v>20657</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>20248</v>
+        <v>20095</v>
       </c>
       <c r="D261" t="n">
-        <v>20839</v>
+        <v>20733</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="n">
-        <v>20324</v>
+        <v>20178</v>
       </c>
       <c r="D262" t="n">
-        <v>20915</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B263" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C263" t="n">
-        <v>20412</v>
+        <v>20280</v>
       </c>
       <c r="D263" t="n">
-        <v>21000</v>
+        <v>20918</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B264" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C264" t="n">
-        <v>20495</v>
+        <v>20333</v>
       </c>
       <c r="D264" t="n">
-        <v>21086</v>
+        <v>20971</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B265" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>20571</v>
+        <v>20435</v>
       </c>
       <c r="D265" t="n">
-        <v>21162</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B266" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C266" t="n">
-        <v>20624</v>
+        <v>20508</v>
       </c>
       <c r="D266" t="n">
-        <v>21215</v>
+        <v>21146</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C267" t="n">
-        <v>20710</v>
+        <v>20581</v>
       </c>
       <c r="D267" t="n">
-        <v>21301</v>
+        <v>21219</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C268" t="n">
-        <v>20786</v>
+        <v>20657</v>
       </c>
       <c r="D268" t="n">
-        <v>21377</v>
+        <v>21295</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>20839</v>
+        <v>20733</v>
       </c>
       <c r="D269" t="n">
-        <v>21430</v>
+        <v>21371</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="n">
-        <v>20915</v>
+        <v>20816</v>
       </c>
       <c r="D270" t="n">
-        <v>21506</v>
+        <v>21454</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B271" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C271" t="n">
-        <v>21000</v>
+        <v>20918</v>
       </c>
       <c r="D271" t="n">
-        <v>21588</v>
+        <v>21556</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C272" t="n">
-        <v>21086</v>
+        <v>20971</v>
       </c>
       <c r="D272" t="n">
-        <v>21677</v>
+        <v>21609</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B273" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>21162</v>
+        <v>21073</v>
       </c>
       <c r="D273" t="n">
-        <v>21753</v>
+        <v>21711</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B274" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>21215</v>
+        <v>21146</v>
       </c>
       <c r="D274" t="n">
-        <v>21806</v>
+        <v>21784</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C275" t="n">
-        <v>21301</v>
+        <v>21219</v>
       </c>
       <c r="D275" t="n">
-        <v>21892</v>
+        <v>21857</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C276" t="n">
-        <v>21377</v>
+        <v>21295</v>
       </c>
       <c r="D276" t="n">
-        <v>21968</v>
+        <v>21933</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B277" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
-        <v>21430</v>
+        <v>21371</v>
       </c>
       <c r="D277" t="n">
-        <v>22021</v>
+        <v>22009</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>21506</v>
+        <v>21454</v>
       </c>
       <c r="D278" t="n">
-        <v>22097</v>
+        <v>22092</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B279" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C279" t="n">
-        <v>21588</v>
+        <v>21556</v>
       </c>
       <c r="D279" t="n">
-        <v>22176</v>
+        <v>22194</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B280" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C280" t="n">
-        <v>21677</v>
+        <v>21609</v>
       </c>
       <c r="D280" t="n">
-        <v>22268</v>
+        <v>22247</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B281" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>21753</v>
+        <v>21711</v>
       </c>
       <c r="D281" t="n">
-        <v>22344</v>
+        <v>22349</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B282" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C282" t="n">
-        <v>21806</v>
+        <v>21784</v>
       </c>
       <c r="D282" t="n">
-        <v>22397</v>
+        <v>22422</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C283" t="n">
-        <v>21892</v>
+        <v>21857</v>
       </c>
       <c r="D283" t="n">
-        <v>22483</v>
+        <v>22495</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C284" t="n">
-        <v>21968</v>
+        <v>21933</v>
       </c>
       <c r="D284" t="n">
-        <v>22559</v>
+        <v>22571</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C285" t="n">
-        <v>22021</v>
+        <v>22009</v>
       </c>
       <c r="D285" t="n">
-        <v>22612</v>
+        <v>22647</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" t="n">
-        <v>22097</v>
+        <v>22092</v>
       </c>
       <c r="D286" t="n">
-        <v>22688</v>
+        <v>22730</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B287" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C287" t="n">
-        <v>22176</v>
+        <v>22194</v>
       </c>
       <c r="D287" t="n">
-        <v>22764</v>
+        <v>22832</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B288" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C288" t="n">
-        <v>22268</v>
+        <v>22247</v>
       </c>
       <c r="D288" t="n">
-        <v>22859</v>
+        <v>22885</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>22344</v>
+        <v>22349</v>
       </c>
       <c r="D289" t="n">
-        <v>22935</v>
+        <v>22987</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B290" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C290" t="n">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="D290" t="n">
-        <v>22988</v>
+        <v>23060</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C291" t="n">
-        <v>22483</v>
+        <v>22495</v>
       </c>
       <c r="D291" t="n">
-        <v>23074</v>
+        <v>23133</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C292" t="n">
-        <v>22559</v>
+        <v>22571</v>
       </c>
       <c r="D292" t="n">
-        <v>23150</v>
+        <v>23209</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>22612</v>
+        <v>22647</v>
       </c>
       <c r="D293" t="n">
-        <v>23203</v>
+        <v>23285</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" t="n">
-        <v>22688</v>
+        <v>22730</v>
       </c>
       <c r="D294" t="n">
-        <v>23279</v>
+        <v>23368</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B295" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C295" t="n">
-        <v>22764</v>
+        <v>22832</v>
       </c>
       <c r="D295" t="n">
-        <v>23352</v>
+        <v>23470</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B296" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C296" t="n">
-        <v>22859</v>
+        <v>22885</v>
       </c>
       <c r="D296" t="n">
-        <v>23450</v>
+        <v>23523</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B297" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>22935</v>
+        <v>22987</v>
       </c>
       <c r="D297" t="n">
-        <v>23526</v>
+        <v>23625</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B298" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C298" t="n">
-        <v>22988</v>
+        <v>23060</v>
       </c>
       <c r="D298" t="n">
-        <v>23579</v>
+        <v>23698</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C299" t="n">
-        <v>23074</v>
+        <v>23133</v>
       </c>
       <c r="D299" t="n">
-        <v>23665</v>
+        <v>23771</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C300" t="n">
-        <v>23150</v>
+        <v>23209</v>
       </c>
       <c r="D300" t="n">
-        <v>23741</v>
+        <v>23847</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C301" t="n">
-        <v>23203</v>
+        <v>23285</v>
       </c>
       <c r="D301" t="n">
-        <v>23794</v>
+        <v>23923</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="n">
-        <v>23279</v>
+        <v>23368</v>
       </c>
       <c r="D302" t="n">
-        <v>23870</v>
+        <v>24006</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B303" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C303" t="n">
-        <v>23352</v>
+        <v>23470</v>
       </c>
       <c r="D303" t="n">
-        <v>23943</v>
+        <v>24108</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B304" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
-        <v>23450</v>
+        <v>23523</v>
       </c>
       <c r="D304" t="n">
-        <v>24041</v>
+        <v>24161</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B305" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>23526</v>
+        <v>23625</v>
       </c>
       <c r="D305" t="n">
-        <v>24117</v>
+        <v>24263</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B306" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C306" t="n">
-        <v>23579</v>
+        <v>23698</v>
       </c>
       <c r="D306" t="n">
-        <v>24170</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B307" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>23665</v>
+        <v>23771</v>
       </c>
       <c r="D307" t="n">
-        <v>24256</v>
+        <v>24409</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C308" t="n">
-        <v>23741</v>
+        <v>23847</v>
       </c>
       <c r="D308" t="n">
-        <v>24332</v>
+        <v>24485</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
-        <v>23794</v>
+        <v>23923</v>
       </c>
       <c r="D309" t="n">
-        <v>24385</v>
+        <v>24561</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310" t="n">
-        <v>23870</v>
+        <v>24006</v>
       </c>
       <c r="D310" t="n">
-        <v>24461</v>
+        <v>24644</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B311" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C311" t="n">
-        <v>23943</v>
+        <v>24108</v>
       </c>
       <c r="D311" t="n">
-        <v>24534</v>
+        <v>24746</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B312" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C312" t="n">
-        <v>24041</v>
+        <v>24161</v>
       </c>
       <c r="D312" t="n">
-        <v>24632</v>
+        <v>24799</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B313" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>24117</v>
+        <v>24263</v>
       </c>
       <c r="D313" t="n">
-        <v>24708</v>
+        <v>24901</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B314" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C314" t="n">
-        <v>24170</v>
+        <v>24336</v>
       </c>
       <c r="D314" t="n">
-        <v>24761</v>
+        <v>24974</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B315" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C315" t="n">
-        <v>24256</v>
+        <v>24409</v>
       </c>
       <c r="D315" t="n">
-        <v>24847</v>
+        <v>25047</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C316" t="n">
-        <v>24332</v>
+        <v>24485</v>
       </c>
       <c r="D316" t="n">
-        <v>24923</v>
+        <v>25123</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C317" t="n">
-        <v>24385</v>
+        <v>24561</v>
       </c>
       <c r="D317" t="n">
-        <v>24976</v>
+        <v>25199</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" t="n">
-        <v>24461</v>
+        <v>24644</v>
       </c>
       <c r="D318" t="n">
-        <v>25052</v>
+        <v>25282</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B319" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C319" t="n">
-        <v>24534</v>
+        <v>24746</v>
       </c>
       <c r="D319" t="n">
-        <v>25125</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B320" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C320" t="n">
-        <v>24632</v>
+        <v>24799</v>
       </c>
       <c r="D320" t="n">
-        <v>25223</v>
+        <v>25437</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>24708</v>
+        <v>24901</v>
       </c>
       <c r="D321" t="n">
-        <v>25299</v>
+        <v>25539</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B322" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C322" t="n">
-        <v>24761</v>
+        <v>24974</v>
       </c>
       <c r="D322" t="n">
-        <v>25352</v>
+        <v>25612</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B323" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C323" t="n">
-        <v>24847</v>
+        <v>25047</v>
       </c>
       <c r="D323" t="n">
-        <v>25438</v>
+        <v>25685</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C324" t="n">
-        <v>24923</v>
+        <v>25123</v>
       </c>
       <c r="D324" t="n">
-        <v>25514</v>
+        <v>25761</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C325" t="n">
-        <v>24976</v>
+        <v>25199</v>
       </c>
       <c r="D325" t="n">
-        <v>25567</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" t="n">
-        <v>25052</v>
+        <v>25282</v>
       </c>
       <c r="D326" t="n">
-        <v>25643</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B327" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C327" t="n">
-        <v>25125</v>
+        <v>25384</v>
       </c>
       <c r="D327" t="n">
-        <v>25716</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B328" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C328" t="n">
-        <v>25223</v>
+        <v>25437</v>
       </c>
       <c r="D328" t="n">
-        <v>25814</v>
+        <v>26075</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B329" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>25299</v>
+        <v>25539</v>
       </c>
       <c r="D329" t="n">
-        <v>25890</v>
+        <v>26177</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B330" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C330" t="n">
-        <v>25352</v>
+        <v>25612</v>
       </c>
       <c r="D330" t="n">
-        <v>25943</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B331" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C331" t="n">
-        <v>25438</v>
+        <v>25685</v>
       </c>
       <c r="D331" t="n">
-        <v>26029</v>
+        <v>26323</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C332" t="n">
-        <v>25514</v>
+        <v>25761</v>
       </c>
       <c r="D332" t="n">
-        <v>26105</v>
+        <v>26399</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B333" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C333" t="n">
-        <v>25643</v>
+        <v>25837</v>
       </c>
       <c r="D333" t="n">
-        <v>26231</v>
+        <v>26475</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B334" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C334" t="n">
-        <v>25716</v>
+        <v>25920</v>
       </c>
       <c r="D334" t="n">
-        <v>26304</v>
+        <v>26558</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B335" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C335" t="n">
-        <v>25814</v>
+        <v>26022</v>
       </c>
       <c r="D335" t="n">
-        <v>26405</v>
+        <v>26660</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B336" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C336" t="n">
-        <v>25890</v>
+        <v>26075</v>
       </c>
       <c r="D336" t="n">
-        <v>26481</v>
+        <v>26713</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B337" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>25943</v>
+        <v>26177</v>
       </c>
       <c r="D337" t="n">
-        <v>26534</v>
+        <v>26815</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B338" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C338" t="n">
-        <v>26029</v>
+        <v>26250</v>
       </c>
       <c r="D338" t="n">
-        <v>26620</v>
+        <v>26888</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C339" t="n">
-        <v>26105</v>
+        <v>26323</v>
       </c>
       <c r="D339" t="n">
-        <v>26696</v>
+        <v>26961</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="n">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C340" t="n">
-        <v>26304</v>
+        <v>26399</v>
       </c>
       <c r="D340" t="n">
-        <v>26956</v>
+        <v>27037</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B341" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C341" t="n">
-        <v>26405</v>
+        <v>26475</v>
       </c>
       <c r="D341" t="n">
-        <v>27009</v>
+        <v>27113</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B342" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C342" t="n">
-        <v>26481</v>
+        <v>26558</v>
       </c>
       <c r="D342" t="n">
-        <v>27085</v>
+        <v>27196</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B343" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C343" t="n">
-        <v>26534</v>
+        <v>26660</v>
       </c>
       <c r="D343" t="n">
-        <v>27138</v>
+        <v>27298</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B344" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C344" t="n">
-        <v>26620</v>
+        <v>26713</v>
       </c>
       <c r="D344" t="n">
-        <v>27224</v>
+        <v>27351</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>26696</v>
+        <v>26815</v>
       </c>
       <c r="D345" t="n">
-        <v>27300</v>
+        <v>27453</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C346" t="n">
-        <v>26895</v>
+        <v>26888</v>
       </c>
       <c r="D346" t="n">
-        <v>27486</v>
+        <v>27526</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B347" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C347" t="n">
-        <v>26956</v>
+        <v>26961</v>
       </c>
       <c r="D347" t="n">
-        <v>27572</v>
+        <v>27599</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B348" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C348" t="n">
-        <v>27009</v>
+        <v>27037</v>
       </c>
       <c r="D348" t="n">
-        <v>27625</v>
+        <v>27675</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B349" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C349" t="n">
-        <v>27085</v>
+        <v>27113</v>
       </c>
       <c r="D349" t="n">
-        <v>27701</v>
+        <v>27751</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B350" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C350" t="n">
-        <v>27138</v>
+        <v>27196</v>
       </c>
       <c r="D350" t="n">
-        <v>27754</v>
+        <v>27834</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B351" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C351" t="n">
-        <v>27224</v>
+        <v>27298</v>
       </c>
       <c r="D351" t="n">
-        <v>27868</v>
+        <v>27936</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C352" t="n">
-        <v>27300</v>
+        <v>27351</v>
       </c>
       <c r="D352" t="n">
-        <v>27944</v>
+        <v>27989</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>27486</v>
+        <v>27453</v>
       </c>
       <c r="D353" t="n">
-        <v>28077</v>
+        <v>28091</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B354" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C354" t="n">
-        <v>27572</v>
+        <v>27526</v>
       </c>
       <c r="D354" t="n">
-        <v>28163</v>
+        <v>28164</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B355" t="n">
         <v>6</v>
       </c>
       <c r="C355" t="n">
-        <v>27625</v>
+        <v>27599</v>
       </c>
       <c r="D355" t="n">
-        <v>28216</v>
+        <v>28237</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C356" t="n">
-        <v>27701</v>
+        <v>27675</v>
       </c>
       <c r="D356" t="n">
-        <v>28292</v>
+        <v>28313</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B357" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C357" t="n">
-        <v>27754</v>
+        <v>27751</v>
       </c>
       <c r="D357" t="n">
-        <v>28345</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C358" t="n">
-        <v>27840</v>
+        <v>27834</v>
       </c>
       <c r="D358" t="n">
-        <v>28431</v>
+        <v>28472</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B359" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C359" t="n">
-        <v>27868</v>
+        <v>27936</v>
       </c>
       <c r="D359" t="n">
-        <v>28484</v>
+        <v>28574</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B360" t="n">
+        <v>8</v>
+      </c>
+      <c r="C360" t="n">
+        <v>27989</v>
+      </c>
+      <c r="D360" t="n">
+        <v>28627</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="n">
+        <v>364</v>
+      </c>
+      <c r="B361" t="n">
         <v>1</v>
       </c>
-      <c r="C360" t="n">
-        <v>27944</v>
-      </c>
-      <c r="D360" t="n">
-        <v>28560</v>
+      <c r="C361" t="n">
+        <v>28091</v>
+      </c>
+      <c r="D361" t="n">
+        <v>28729</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D8" t="n">
-        <v>975</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D9" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D10" t="n">
-        <v>1176</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="D11" t="n">
-        <v>1232</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="D12" t="n">
-        <v>1308</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D13" t="n">
-        <v>1361</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="D14" t="n">
-        <v>1437</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="D15" t="n">
-        <v>1490</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="D16" t="n">
-        <v>1566</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="D17" t="n">
-        <v>1619</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1176</v>
+        <v>1144</v>
       </c>
       <c r="D18" t="n">
-        <v>1764</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1232</v>
+        <v>1201</v>
       </c>
       <c r="D19" t="n">
-        <v>1823</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1308</v>
+        <v>1276</v>
       </c>
       <c r="D20" t="n">
-        <v>1899</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="D21" t="n">
-        <v>1952</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -685,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>1437</v>
+        <v>1403</v>
       </c>
       <c r="D22" t="n">
-        <v>2028</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -699,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1490</v>
+        <v>1455</v>
       </c>
       <c r="D23" t="n">
-        <v>2081</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -713,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1566</v>
+        <v>1530</v>
       </c>
       <c r="D24" t="n">
-        <v>2157</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -727,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>1619</v>
+        <v>1582</v>
       </c>
       <c r="D25" t="n">
-        <v>2210</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1764</v>
+        <v>1716</v>
       </c>
       <c r="D26" t="n">
-        <v>2352</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -755,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1823</v>
+        <v>1778</v>
       </c>
       <c r="D27" t="n">
-        <v>2414</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>1899</v>
+        <v>1853</v>
       </c>
       <c r="D28" t="n">
-        <v>2490</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -783,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>1952</v>
+        <v>1905</v>
       </c>
       <c r="D29" t="n">
-        <v>2543</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -797,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2028</v>
+        <v>1980</v>
       </c>
       <c r="D30" t="n">
-        <v>2619</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>2081</v>
+        <v>2032</v>
       </c>
       <c r="D31" t="n">
-        <v>2672</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -825,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>2157</v>
+        <v>2107</v>
       </c>
       <c r="D32" t="n">
-        <v>2748</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -839,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>2210</v>
+        <v>2159</v>
       </c>
       <c r="D33" t="n">
-        <v>2801</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -853,1074 +853,1074 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2352</v>
+        <v>2288</v>
       </c>
       <c r="D34" t="n">
-        <v>2940</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2490</v>
+        <v>2355</v>
       </c>
       <c r="D35" t="n">
-        <v>3078</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2543</v>
+        <v>2430</v>
       </c>
       <c r="D36" t="n">
-        <v>3134</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>2619</v>
+        <v>2482</v>
       </c>
       <c r="D37" t="n">
-        <v>3210</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>2672</v>
+        <v>2557</v>
       </c>
       <c r="D38" t="n">
-        <v>3263</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>2748</v>
+        <v>2609</v>
       </c>
       <c r="D39" t="n">
-        <v>3339</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2801</v>
+        <v>2684</v>
       </c>
       <c r="D40" t="n">
-        <v>3392</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>2940</v>
+        <v>2736</v>
       </c>
       <c r="D41" t="n">
-        <v>3528</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>3078</v>
+        <v>2860</v>
       </c>
       <c r="D42" t="n">
-        <v>3666</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3134</v>
+        <v>2932</v>
       </c>
       <c r="D43" t="n">
-        <v>3725</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>3210</v>
+        <v>3007</v>
       </c>
       <c r="D44" t="n">
-        <v>3801</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>3263</v>
+        <v>3059</v>
       </c>
       <c r="D45" t="n">
-        <v>3854</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>3339</v>
+        <v>3134</v>
       </c>
       <c r="D46" t="n">
-        <v>3930</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>3392</v>
+        <v>3186</v>
       </c>
       <c r="D47" t="n">
-        <v>3983</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>3528</v>
+        <v>3261</v>
       </c>
       <c r="D48" t="n">
-        <v>4118</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>3666</v>
+        <v>3313</v>
       </c>
       <c r="D49" t="n">
-        <v>4254</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>3725</v>
+        <v>3432</v>
       </c>
       <c r="D50" t="n">
-        <v>4316</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>3801</v>
+        <v>3509</v>
       </c>
       <c r="D51" t="n">
-        <v>4392</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>3854</v>
+        <v>3584</v>
       </c>
       <c r="D52" t="n">
-        <v>4445</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>3930</v>
+        <v>3636</v>
       </c>
       <c r="D53" t="n">
-        <v>4521</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>3983</v>
+        <v>3711</v>
       </c>
       <c r="D54" t="n">
-        <v>4574</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>4087</v>
+        <v>3763</v>
       </c>
       <c r="D55" t="n">
-        <v>4678</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>4118</v>
+        <v>3838</v>
       </c>
       <c r="D56" t="n">
-        <v>4734</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>4254</v>
+        <v>3890</v>
       </c>
       <c r="D57" t="n">
-        <v>4842</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4316</v>
+        <v>4004</v>
       </c>
       <c r="D58" t="n">
-        <v>4907</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4392</v>
+        <v>4086</v>
       </c>
       <c r="D59" t="n">
-        <v>4983</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>4445</v>
+        <v>4161</v>
       </c>
       <c r="D60" t="n">
-        <v>5036</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>4521</v>
+        <v>4213</v>
       </c>
       <c r="D61" t="n">
-        <v>5112</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>4574</v>
+        <v>4288</v>
       </c>
       <c r="D62" t="n">
-        <v>5165</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>4678</v>
+        <v>4340</v>
       </c>
       <c r="D63" t="n">
-        <v>5269</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>4734</v>
+        <v>4415</v>
       </c>
       <c r="D64" t="n">
-        <v>5325</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>4842</v>
+        <v>4467</v>
       </c>
       <c r="D65" t="n">
-        <v>5430</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>4907</v>
+        <v>4576</v>
       </c>
       <c r="D66" t="n">
-        <v>5498</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>4983</v>
+        <v>4663</v>
       </c>
       <c r="D67" t="n">
-        <v>5574</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>5036</v>
+        <v>4738</v>
       </c>
       <c r="D68" t="n">
-        <v>5627</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>5112</v>
+        <v>4790</v>
       </c>
       <c r="D69" t="n">
-        <v>5703</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>5165</v>
+        <v>4865</v>
       </c>
       <c r="D70" t="n">
-        <v>5756</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>5269</v>
+        <v>4917</v>
       </c>
       <c r="D71" t="n">
-        <v>5860</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>5325</v>
+        <v>4992</v>
       </c>
       <c r="D72" t="n">
-        <v>5916</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>5430</v>
+        <v>5044</v>
       </c>
       <c r="D73" t="n">
-        <v>6018</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>5498</v>
+        <v>5148</v>
       </c>
       <c r="D74" t="n">
-        <v>6089</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5574</v>
+        <v>5240</v>
       </c>
       <c r="D75" t="n">
-        <v>6165</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>5627</v>
+        <v>5315</v>
       </c>
       <c r="D76" t="n">
-        <v>6218</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>5703</v>
+        <v>5367</v>
       </c>
       <c r="D77" t="n">
-        <v>6294</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>5756</v>
+        <v>5442</v>
       </c>
       <c r="D78" t="n">
-        <v>6347</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>5860</v>
+        <v>5494</v>
       </c>
       <c r="D79" t="n">
-        <v>6451</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>5916</v>
+        <v>5569</v>
       </c>
       <c r="D80" t="n">
-        <v>6507</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>6018</v>
+        <v>5621</v>
       </c>
       <c r="D81" t="n">
-        <v>6606</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>6089</v>
+        <v>5724</v>
       </c>
       <c r="D82" t="n">
-        <v>6680</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>6165</v>
+        <v>5817</v>
       </c>
       <c r="D83" t="n">
-        <v>6756</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>6218</v>
+        <v>5892</v>
       </c>
       <c r="D84" t="n">
-        <v>6809</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6294</v>
+        <v>5944</v>
       </c>
       <c r="D85" t="n">
-        <v>6885</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>6347</v>
+        <v>6019</v>
       </c>
       <c r="D86" t="n">
-        <v>6938</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>6451</v>
+        <v>6071</v>
       </c>
       <c r="D87" t="n">
-        <v>7042</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>6507</v>
+        <v>6146</v>
       </c>
       <c r="D88" t="n">
-        <v>7098</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6606</v>
+        <v>6198</v>
       </c>
       <c r="D89" t="n">
-        <v>7194</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>6680</v>
+        <v>6301</v>
       </c>
       <c r="D90" t="n">
-        <v>7271</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>6756</v>
+        <v>6394</v>
       </c>
       <c r="D91" t="n">
-        <v>7347</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>6809</v>
+        <v>6469</v>
       </c>
       <c r="D92" t="n">
-        <v>7400</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>6885</v>
+        <v>6521</v>
       </c>
       <c r="D93" t="n">
-        <v>7476</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>6938</v>
+        <v>6596</v>
       </c>
       <c r="D94" t="n">
-        <v>7529</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>7042</v>
+        <v>6648</v>
       </c>
       <c r="D95" t="n">
-        <v>7633</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>7098</v>
+        <v>6723</v>
       </c>
       <c r="D96" t="n">
-        <v>7689</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>7194</v>
+        <v>6775</v>
       </c>
       <c r="D97" t="n">
-        <v>7782</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>7271</v>
+        <v>6878</v>
       </c>
       <c r="D98" t="n">
-        <v>7862</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>7347</v>
+        <v>6971</v>
       </c>
       <c r="D99" t="n">
-        <v>7938</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7400</v>
+        <v>7046</v>
       </c>
       <c r="D100" t="n">
-        <v>7991</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>7476</v>
+        <v>7098</v>
       </c>
       <c r="D101" t="n">
-        <v>8067</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>7529</v>
+        <v>7173</v>
       </c>
       <c r="D102" t="n">
-        <v>8120</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>7633</v>
+        <v>7225</v>
       </c>
       <c r="D103" t="n">
-        <v>8224</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>7689</v>
+        <v>7300</v>
       </c>
       <c r="D104" t="n">
-        <v>8280</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>7782</v>
+        <v>7352</v>
       </c>
       <c r="D105" t="n">
-        <v>8370</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>7862</v>
+        <v>7455</v>
       </c>
       <c r="D106" t="n">
-        <v>8453</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>7938</v>
+        <v>7548</v>
       </c>
       <c r="D107" t="n">
-        <v>8529</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>7991</v>
+        <v>7623</v>
       </c>
       <c r="D108" t="n">
-        <v>8582</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>8067</v>
+        <v>7675</v>
       </c>
       <c r="D109" t="n">
-        <v>8658</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>8120</v>
+        <v>7750</v>
       </c>
       <c r="D110" t="n">
-        <v>8711</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>8224</v>
+        <v>7877</v>
       </c>
       <c r="D111" t="n">
-        <v>8815</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>8280</v>
+        <v>7929</v>
       </c>
       <c r="D112" t="n">
-        <v>8871</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>8370</v>
+        <v>8032</v>
       </c>
       <c r="D113" t="n">
-        <v>8958</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>8453</v>
+        <v>8125</v>
       </c>
       <c r="D114" t="n">
-        <v>9044</v>
+        <v>8702</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>8529</v>
+        <v>8200</v>
       </c>
       <c r="D115" t="n">
-        <v>9120</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
-        <v>8582</v>
+        <v>8252</v>
       </c>
       <c r="D116" t="n">
-        <v>9173</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>8658</v>
+        <v>8327</v>
       </c>
       <c r="D117" t="n">
-        <v>9249</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>8711</v>
+        <v>8449</v>
       </c>
       <c r="D118" t="n">
-        <v>9302</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C119" t="n">
-        <v>8815</v>
+        <v>8506</v>
       </c>
       <c r="D119" t="n">
-        <v>9406</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>8871</v>
+        <v>8609</v>
       </c>
       <c r="D120" t="n">
-        <v>9462</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>8958</v>
+        <v>8702</v>
       </c>
       <c r="D121" t="n">
-        <v>9546</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>9044</v>
+        <v>8777</v>
       </c>
       <c r="D122" t="n">
-        <v>9635</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>9120</v>
+        <v>8829</v>
       </c>
       <c r="D123" t="n">
-        <v>9711</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>9173</v>
+        <v>8904</v>
       </c>
       <c r="D124" t="n">
-        <v>9764</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>9249</v>
+        <v>8956</v>
       </c>
       <c r="D125" t="n">
-        <v>9840</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>9302</v>
+        <v>9021</v>
       </c>
       <c r="D126" t="n">
-        <v>9893</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>9406</v>
+        <v>9083</v>
       </c>
       <c r="D127" t="n">
-        <v>9997</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2169,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>9462</v>
+        <v>9186</v>
       </c>
       <c r="D128" t="n">
-        <v>10053</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>9546</v>
+        <v>9279</v>
       </c>
       <c r="D129" t="n">
-        <v>10134</v>
+        <v>9856</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>9635</v>
+        <v>9354</v>
       </c>
       <c r="D130" t="n">
-        <v>10226</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
-        <v>9711</v>
+        <v>9406</v>
       </c>
       <c r="D131" t="n">
-        <v>10302</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>9764</v>
+        <v>9481</v>
       </c>
       <c r="D132" t="n">
-        <v>10355</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>9840</v>
+        <v>9533</v>
       </c>
       <c r="D133" t="n">
-        <v>10431</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>9893</v>
+        <v>9608</v>
       </c>
       <c r="D134" t="n">
-        <v>10484</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
-        <v>9997</v>
+        <v>9660</v>
       </c>
       <c r="D135" t="n">
-        <v>10588</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2281,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>10053</v>
+        <v>9763</v>
       </c>
       <c r="D136" t="n">
-        <v>10644</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>10134</v>
+        <v>9856</v>
       </c>
       <c r="D137" t="n">
-        <v>10722</v>
+        <v>10433</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>10226</v>
+        <v>9931</v>
       </c>
       <c r="D138" t="n">
-        <v>10817</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" t="n">
-        <v>10302</v>
+        <v>9983</v>
       </c>
       <c r="D139" t="n">
-        <v>10893</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>10355</v>
+        <v>10058</v>
       </c>
       <c r="D140" t="n">
-        <v>10946</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>10431</v>
+        <v>10110</v>
       </c>
       <c r="D141" t="n">
-        <v>11022</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>10484</v>
+        <v>10185</v>
       </c>
       <c r="D142" t="n">
-        <v>11075</v>
+        <v>10762</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C143" t="n">
-        <v>10588</v>
+        <v>10237</v>
       </c>
       <c r="D143" t="n">
-        <v>11179</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>10644</v>
+        <v>10340</v>
       </c>
       <c r="D144" t="n">
-        <v>11235</v>
+        <v>10917</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>10722</v>
+        <v>10433</v>
       </c>
       <c r="D145" t="n">
-        <v>11310</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>10817</v>
+        <v>10508</v>
       </c>
       <c r="D146" t="n">
-        <v>11408</v>
+        <v>11085</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>10893</v>
+        <v>10560</v>
       </c>
       <c r="D147" t="n">
-        <v>11484</v>
+        <v>11137</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>10946</v>
+        <v>10635</v>
       </c>
       <c r="D148" t="n">
-        <v>11537</v>
+        <v>11212</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>11022</v>
+        <v>10687</v>
       </c>
       <c r="D149" t="n">
-        <v>11613</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>11075</v>
+        <v>10762</v>
       </c>
       <c r="D150" t="n">
-        <v>11666</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>11179</v>
+        <v>10814</v>
       </c>
       <c r="D151" t="n">
-        <v>11770</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2505,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>11235</v>
+        <v>10917</v>
       </c>
       <c r="D152" t="n">
-        <v>11826</v>
+        <v>11494</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>11310</v>
+        <v>11010</v>
       </c>
       <c r="D153" t="n">
-        <v>11899</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>11408</v>
+        <v>11085</v>
       </c>
       <c r="D154" t="n">
-        <v>11999</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>11484</v>
+        <v>11137</v>
       </c>
       <c r="D155" t="n">
-        <v>12075</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>11537</v>
+        <v>11212</v>
       </c>
       <c r="D156" t="n">
-        <v>12128</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>11613</v>
+        <v>11264</v>
       </c>
       <c r="D157" t="n">
-        <v>12204</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>11666</v>
+        <v>11339</v>
       </c>
       <c r="D158" t="n">
-        <v>12257</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>11770</v>
+        <v>11391</v>
       </c>
       <c r="D159" t="n">
-        <v>12361</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>11826</v>
+        <v>11494</v>
       </c>
       <c r="D160" t="n">
-        <v>12417</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>11899</v>
+        <v>11587</v>
       </c>
       <c r="D161" t="n">
-        <v>12490</v>
+        <v>12164</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>11999</v>
+        <v>11662</v>
       </c>
       <c r="D162" t="n">
-        <v>12590</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
-        <v>12075</v>
+        <v>11714</v>
       </c>
       <c r="D163" t="n">
-        <v>12666</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
-        <v>12128</v>
+        <v>11789</v>
       </c>
       <c r="D164" t="n">
-        <v>12719</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="n">
-        <v>12204</v>
+        <v>11841</v>
       </c>
       <c r="D165" t="n">
-        <v>12795</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>12257</v>
+        <v>11916</v>
       </c>
       <c r="D166" t="n">
-        <v>12848</v>
+        <v>12493</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>12361</v>
+        <v>11968</v>
       </c>
       <c r="D167" t="n">
-        <v>12952</v>
+        <v>12545</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2729,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>12417</v>
+        <v>12071</v>
       </c>
       <c r="D168" t="n">
-        <v>13008</v>
+        <v>12648</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>12490</v>
+        <v>12164</v>
       </c>
       <c r="D169" t="n">
-        <v>13081</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
-        <v>12590</v>
+        <v>12239</v>
       </c>
       <c r="D170" t="n">
-        <v>13181</v>
+        <v>12816</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>12666</v>
+        <v>12291</v>
       </c>
       <c r="D171" t="n">
-        <v>13257</v>
+        <v>12868</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>12719</v>
+        <v>12366</v>
       </c>
       <c r="D172" t="n">
-        <v>13310</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="n">
-        <v>12795</v>
+        <v>12418</v>
       </c>
       <c r="D173" t="n">
-        <v>13386</v>
+        <v>12995</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>12848</v>
+        <v>12493</v>
       </c>
       <c r="D174" t="n">
-        <v>13439</v>
+        <v>13070</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C175" t="n">
-        <v>12952</v>
+        <v>12545</v>
       </c>
       <c r="D175" t="n">
-        <v>13543</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2841,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>13008</v>
+        <v>12648</v>
       </c>
       <c r="D176" t="n">
-        <v>13599</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>13081</v>
+        <v>12741</v>
       </c>
       <c r="D177" t="n">
-        <v>13672</v>
+        <v>13318</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>13181</v>
+        <v>12816</v>
       </c>
       <c r="D178" t="n">
-        <v>13772</v>
+        <v>13393</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>13257</v>
+        <v>12868</v>
       </c>
       <c r="D179" t="n">
-        <v>13848</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>13310</v>
+        <v>12943</v>
       </c>
       <c r="D180" t="n">
-        <v>13901</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="n">
-        <v>13386</v>
+        <v>12995</v>
       </c>
       <c r="D181" t="n">
-        <v>13977</v>
+        <v>13572</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>13439</v>
+        <v>13070</v>
       </c>
       <c r="D182" t="n">
-        <v>14030</v>
+        <v>13647</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C183" t="n">
-        <v>13543</v>
+        <v>13122</v>
       </c>
       <c r="D183" t="n">
-        <v>14134</v>
+        <v>13699</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>13599</v>
+        <v>13225</v>
       </c>
       <c r="D184" t="n">
-        <v>14190</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>13672</v>
+        <v>13318</v>
       </c>
       <c r="D185" t="n">
-        <v>14263</v>
+        <v>13895</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>13772</v>
+        <v>13393</v>
       </c>
       <c r="D186" t="n">
-        <v>14363</v>
+        <v>13970</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>13848</v>
+        <v>13445</v>
       </c>
       <c r="D187" t="n">
-        <v>14439</v>
+        <v>14022</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>13901</v>
+        <v>13520</v>
       </c>
       <c r="D188" t="n">
-        <v>14492</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v>13977</v>
+        <v>13572</v>
       </c>
       <c r="D189" t="n">
-        <v>14568</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="n">
-        <v>14030</v>
+        <v>13647</v>
       </c>
       <c r="D190" t="n">
-        <v>14621</v>
+        <v>14224</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C191" t="n">
-        <v>14134</v>
+        <v>13699</v>
       </c>
       <c r="D191" t="n">
-        <v>14725</v>
+        <v>14276</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>14190</v>
+        <v>13802</v>
       </c>
       <c r="D192" t="n">
-        <v>14781</v>
+        <v>14379</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>14263</v>
+        <v>13895</v>
       </c>
       <c r="D193" t="n">
-        <v>14854</v>
+        <v>14472</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>14363</v>
+        <v>13970</v>
       </c>
       <c r="D194" t="n">
-        <v>14954</v>
+        <v>14547</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,2239 +3104,2239 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>14439</v>
+        <v>14022</v>
       </c>
       <c r="D195" t="n">
-        <v>15030</v>
+        <v>14599</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="n">
-        <v>14568</v>
+        <v>14097</v>
       </c>
       <c r="D196" t="n">
-        <v>15156</v>
+        <v>14674</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>14621</v>
+        <v>14149</v>
       </c>
       <c r="D197" t="n">
-        <v>15212</v>
+        <v>14726</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>14781</v>
+        <v>14224</v>
       </c>
       <c r="D198" t="n">
-        <v>15369</v>
+        <v>14801</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C199" t="n">
-        <v>14954</v>
+        <v>14276</v>
       </c>
       <c r="D199" t="n">
-        <v>15589</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>15030</v>
+        <v>14379</v>
       </c>
       <c r="D200" t="n">
-        <v>15665</v>
+        <v>14956</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>15156</v>
+        <v>14472</v>
       </c>
       <c r="D201" t="n">
-        <v>15861</v>
+        <v>15049</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C202" t="n">
-        <v>15212</v>
+        <v>14547</v>
       </c>
       <c r="D202" t="n">
-        <v>15914</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>15369</v>
+        <v>14599</v>
       </c>
       <c r="D203" t="n">
-        <v>16016</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B204" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>15538</v>
+        <v>14674</v>
       </c>
       <c r="D204" t="n">
-        <v>16129</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>15589</v>
+        <v>14726</v>
       </c>
       <c r="D205" t="n">
-        <v>16205</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>15665</v>
+        <v>14801</v>
       </c>
       <c r="D206" t="n">
-        <v>16281</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C207" t="n">
-        <v>15784</v>
+        <v>14853</v>
       </c>
       <c r="D207" t="n">
-        <v>16375</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>15861</v>
+        <v>14956</v>
       </c>
       <c r="D208" t="n">
-        <v>16477</v>
+        <v>15533</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B209" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C209" t="n">
-        <v>15914</v>
+        <v>15049</v>
       </c>
       <c r="D209" t="n">
-        <v>16530</v>
+        <v>15626</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>16016</v>
+        <v>15124</v>
       </c>
       <c r="D210" t="n">
-        <v>16632</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B211" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C211" t="n">
-        <v>16129</v>
+        <v>15176</v>
       </c>
       <c r="D211" t="n">
-        <v>16753</v>
+        <v>15753</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C212" t="n">
-        <v>16205</v>
+        <v>15251</v>
       </c>
       <c r="D212" t="n">
-        <v>16829</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="n">
-        <v>16281</v>
+        <v>15303</v>
       </c>
       <c r="D213" t="n">
-        <v>16905</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>16375</v>
+        <v>15378</v>
       </c>
       <c r="D214" t="n">
-        <v>16988</v>
+        <v>15955</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="n">
-        <v>16477</v>
+        <v>15430</v>
       </c>
       <c r="D215" t="n">
-        <v>17090</v>
+        <v>16007</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B216" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>16530</v>
+        <v>15533</v>
       </c>
       <c r="D216" t="n">
-        <v>17143</v>
+        <v>16110</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C217" t="n">
-        <v>16632</v>
+        <v>15626</v>
       </c>
       <c r="D217" t="n">
-        <v>17245</v>
+        <v>16203</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B218" t="n">
         <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>16705</v>
+        <v>15701</v>
       </c>
       <c r="D218" t="n">
-        <v>17318</v>
+        <v>16278</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B219" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C219" t="n">
-        <v>16753</v>
+        <v>15753</v>
       </c>
       <c r="D219" t="n">
-        <v>17391</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C220" t="n">
-        <v>16829</v>
+        <v>15828</v>
       </c>
       <c r="D220" t="n">
-        <v>17467</v>
+        <v>16405</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="n">
-        <v>16905</v>
+        <v>15880</v>
       </c>
       <c r="D221" t="n">
-        <v>17543</v>
+        <v>16457</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C222" t="n">
-        <v>16988</v>
+        <v>15955</v>
       </c>
       <c r="D222" t="n">
-        <v>17626</v>
+        <v>16532</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>17090</v>
+        <v>16007</v>
       </c>
       <c r="D223" t="n">
-        <v>17728</v>
+        <v>16584</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B224" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>17143</v>
+        <v>16110</v>
       </c>
       <c r="D224" t="n">
-        <v>17781</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>17245</v>
+        <v>16203</v>
       </c>
       <c r="D225" t="n">
-        <v>17883</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B226" t="n">
         <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>17318</v>
+        <v>16278</v>
       </c>
       <c r="D226" t="n">
-        <v>17956</v>
+        <v>16855</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B227" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C227" t="n">
-        <v>17391</v>
+        <v>16330</v>
       </c>
       <c r="D227" t="n">
-        <v>18029</v>
+        <v>16907</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>17467</v>
+        <v>16405</v>
       </c>
       <c r="D228" t="n">
-        <v>18105</v>
+        <v>16982</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="n">
-        <v>17543</v>
+        <v>16457</v>
       </c>
       <c r="D229" t="n">
-        <v>18181</v>
+        <v>17034</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>17626</v>
+        <v>16532</v>
       </c>
       <c r="D230" t="n">
-        <v>18264</v>
+        <v>17109</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="n">
-        <v>17728</v>
+        <v>16584</v>
       </c>
       <c r="D231" t="n">
-        <v>18366</v>
+        <v>17161</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B232" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>17781</v>
+        <v>16687</v>
       </c>
       <c r="D232" t="n">
-        <v>18419</v>
+        <v>17264</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="n">
-        <v>17883</v>
+        <v>16780</v>
       </c>
       <c r="D233" t="n">
-        <v>18521</v>
+        <v>17357</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B234" t="n">
         <v>3</v>
       </c>
       <c r="C234" t="n">
-        <v>17956</v>
+        <v>16855</v>
       </c>
       <c r="D234" t="n">
-        <v>18594</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B235" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>18029</v>
+        <v>16907</v>
       </c>
       <c r="D235" t="n">
-        <v>18667</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>18105</v>
+        <v>16982</v>
       </c>
       <c r="D236" t="n">
-        <v>18743</v>
+        <v>17559</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="n">
-        <v>18181</v>
+        <v>17034</v>
       </c>
       <c r="D237" t="n">
-        <v>18819</v>
+        <v>17611</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C238" t="n">
-        <v>18264</v>
+        <v>17109</v>
       </c>
       <c r="D238" t="n">
-        <v>18902</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>18366</v>
+        <v>17161</v>
       </c>
       <c r="D239" t="n">
-        <v>19004</v>
+        <v>17738</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B240" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>18419</v>
+        <v>17264</v>
       </c>
       <c r="D240" t="n">
-        <v>19057</v>
+        <v>17841</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="n">
-        <v>18521</v>
+        <v>17357</v>
       </c>
       <c r="D241" t="n">
-        <v>19159</v>
+        <v>17934</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B242" t="n">
         <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>18594</v>
+        <v>17432</v>
       </c>
       <c r="D242" t="n">
-        <v>19232</v>
+        <v>18009</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C243" t="n">
-        <v>18667</v>
+        <v>17484</v>
       </c>
       <c r="D243" t="n">
-        <v>19305</v>
+        <v>18061</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C244" t="n">
-        <v>18743</v>
+        <v>17559</v>
       </c>
       <c r="D244" t="n">
-        <v>19381</v>
+        <v>18136</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="n">
-        <v>18819</v>
+        <v>17611</v>
       </c>
       <c r="D245" t="n">
-        <v>19457</v>
+        <v>18188</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C246" t="n">
-        <v>18902</v>
+        <v>17686</v>
       </c>
       <c r="D246" t="n">
-        <v>19540</v>
+        <v>18263</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="n">
-        <v>19004</v>
+        <v>17738</v>
       </c>
       <c r="D247" t="n">
-        <v>19642</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>19057</v>
+        <v>17841</v>
       </c>
       <c r="D248" t="n">
-        <v>19695</v>
+        <v>18418</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="n">
-        <v>19159</v>
+        <v>17934</v>
       </c>
       <c r="D249" t="n">
-        <v>19797</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B250" t="n">
         <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>19232</v>
+        <v>18009</v>
       </c>
       <c r="D250" t="n">
-        <v>19870</v>
+        <v>18586</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
-        <v>19305</v>
+        <v>18061</v>
       </c>
       <c r="D251" t="n">
-        <v>19943</v>
+        <v>18638</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>19381</v>
+        <v>18136</v>
       </c>
       <c r="D252" t="n">
-        <v>20019</v>
+        <v>18713</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="n">
-        <v>19457</v>
+        <v>18188</v>
       </c>
       <c r="D253" t="n">
-        <v>20095</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>19540</v>
+        <v>18263</v>
       </c>
       <c r="D254" t="n">
-        <v>20178</v>
+        <v>18840</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="n">
-        <v>19642</v>
+        <v>18315</v>
       </c>
       <c r="D255" t="n">
-        <v>20280</v>
+        <v>18892</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>19695</v>
+        <v>18418</v>
       </c>
       <c r="D256" t="n">
-        <v>20333</v>
+        <v>18995</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" t="n">
-        <v>19797</v>
+        <v>18511</v>
       </c>
       <c r="D257" t="n">
-        <v>20435</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B258" t="n">
         <v>3</v>
       </c>
       <c r="C258" t="n">
-        <v>19870</v>
+        <v>18586</v>
       </c>
       <c r="D258" t="n">
-        <v>20508</v>
+        <v>19163</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
-        <v>19943</v>
+        <v>18638</v>
       </c>
       <c r="D259" t="n">
-        <v>20581</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B260" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>20019</v>
+        <v>18713</v>
       </c>
       <c r="D260" t="n">
-        <v>20657</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C261" t="n">
-        <v>20095</v>
+        <v>18765</v>
       </c>
       <c r="D261" t="n">
-        <v>20733</v>
+        <v>19342</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C262" t="n">
-        <v>20178</v>
+        <v>18840</v>
       </c>
       <c r="D262" t="n">
-        <v>20816</v>
+        <v>19417</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B263" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C263" t="n">
-        <v>20280</v>
+        <v>18892</v>
       </c>
       <c r="D263" t="n">
-        <v>20918</v>
+        <v>19469</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B264" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>20333</v>
+        <v>18995</v>
       </c>
       <c r="D264" t="n">
-        <v>20971</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="n">
-        <v>20435</v>
+        <v>19088</v>
       </c>
       <c r="D265" t="n">
-        <v>21073</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B266" t="n">
         <v>3</v>
       </c>
       <c r="C266" t="n">
-        <v>20508</v>
+        <v>19163</v>
       </c>
       <c r="D266" t="n">
-        <v>21146</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267" t="n">
-        <v>20581</v>
+        <v>19215</v>
       </c>
       <c r="D267" t="n">
-        <v>21219</v>
+        <v>19792</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>20657</v>
+        <v>19290</v>
       </c>
       <c r="D268" t="n">
-        <v>21295</v>
+        <v>19867</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C269" t="n">
-        <v>20733</v>
+        <v>19342</v>
       </c>
       <c r="D269" t="n">
-        <v>21371</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>20816</v>
+        <v>19417</v>
       </c>
       <c r="D270" t="n">
-        <v>21454</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C271" t="n">
-        <v>20918</v>
+        <v>19469</v>
       </c>
       <c r="D271" t="n">
-        <v>21556</v>
+        <v>20046</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>20971</v>
+        <v>19572</v>
       </c>
       <c r="D272" t="n">
-        <v>21609</v>
+        <v>20149</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="n">
-        <v>21073</v>
+        <v>19665</v>
       </c>
       <c r="D273" t="n">
-        <v>21711</v>
+        <v>20242</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B274" t="n">
         <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>21146</v>
+        <v>19740</v>
       </c>
       <c r="D274" t="n">
-        <v>21784</v>
+        <v>20317</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B275" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C275" t="n">
-        <v>21219</v>
+        <v>19792</v>
       </c>
       <c r="D275" t="n">
-        <v>21857</v>
+        <v>20369</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>21295</v>
+        <v>19867</v>
       </c>
       <c r="D276" t="n">
-        <v>21933</v>
+        <v>20444</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B277" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C277" t="n">
-        <v>21371</v>
+        <v>19919</v>
       </c>
       <c r="D277" t="n">
-        <v>22009</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>21454</v>
+        <v>19994</v>
       </c>
       <c r="D278" t="n">
-        <v>22092</v>
+        <v>20571</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B279" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>21556</v>
+        <v>20046</v>
       </c>
       <c r="D279" t="n">
-        <v>22194</v>
+        <v>20623</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B280" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>21609</v>
+        <v>20149</v>
       </c>
       <c r="D280" t="n">
-        <v>22247</v>
+        <v>20726</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" t="n">
-        <v>21711</v>
+        <v>20242</v>
       </c>
       <c r="D281" t="n">
-        <v>22349</v>
+        <v>20819</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C282" t="n">
-        <v>21784</v>
+        <v>20369</v>
       </c>
       <c r="D282" t="n">
-        <v>22422</v>
+        <v>20946</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>21857</v>
+        <v>20444</v>
       </c>
       <c r="D283" t="n">
-        <v>22495</v>
+        <v>21021</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C284" t="n">
-        <v>21933</v>
+        <v>20496</v>
       </c>
       <c r="D284" t="n">
-        <v>22571</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>22009</v>
+        <v>20571</v>
       </c>
       <c r="D285" t="n">
-        <v>22647</v>
+        <v>21148</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C286" t="n">
-        <v>22092</v>
+        <v>20623</v>
       </c>
       <c r="D286" t="n">
-        <v>22730</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>22194</v>
+        <v>20726</v>
       </c>
       <c r="D287" t="n">
-        <v>22832</v>
+        <v>21303</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C288" t="n">
-        <v>22247</v>
+        <v>20819</v>
       </c>
       <c r="D288" t="n">
-        <v>22885</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C289" t="n">
-        <v>22349</v>
+        <v>20946</v>
       </c>
       <c r="D289" t="n">
-        <v>22987</v>
+        <v>21523</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C290" t="n">
-        <v>22422</v>
+        <v>21021</v>
       </c>
       <c r="D290" t="n">
-        <v>23060</v>
+        <v>21598</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B291" t="n">
         <v>6</v>
       </c>
       <c r="C291" t="n">
-        <v>22495</v>
+        <v>21073</v>
       </c>
       <c r="D291" t="n">
-        <v>23133</v>
+        <v>21650</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C292" t="n">
-        <v>22571</v>
+        <v>21148</v>
       </c>
       <c r="D292" t="n">
-        <v>23209</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C293" t="n">
-        <v>22647</v>
+        <v>21200</v>
       </c>
       <c r="D293" t="n">
-        <v>23285</v>
+        <v>21777</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>22730</v>
+        <v>21303</v>
       </c>
       <c r="D294" t="n">
-        <v>23368</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>22832</v>
+        <v>21373</v>
       </c>
       <c r="D295" t="n">
-        <v>23470</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C296" t="n">
-        <v>22885</v>
+        <v>21418</v>
       </c>
       <c r="D296" t="n">
-        <v>23523</v>
+        <v>22020</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C297" t="n">
-        <v>22987</v>
+        <v>21523</v>
       </c>
       <c r="D297" t="n">
-        <v>23625</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>23060</v>
+        <v>21598</v>
       </c>
       <c r="D298" t="n">
-        <v>23698</v>
+        <v>22175</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B299" t="n">
         <v>6</v>
       </c>
       <c r="C299" t="n">
-        <v>23133</v>
+        <v>21650</v>
       </c>
       <c r="D299" t="n">
-        <v>23771</v>
+        <v>22227</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C300" t="n">
-        <v>23209</v>
+        <v>21725</v>
       </c>
       <c r="D300" t="n">
-        <v>23847</v>
+        <v>22302</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C301" t="n">
-        <v>23285</v>
+        <v>21777</v>
       </c>
       <c r="D301" t="n">
-        <v>23923</v>
+        <v>22354</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>23368</v>
+        <v>21880</v>
       </c>
       <c r="D302" t="n">
-        <v>24006</v>
+        <v>22457</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B303" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C303" t="n">
-        <v>23470</v>
+        <v>21950</v>
       </c>
       <c r="D303" t="n">
-        <v>24108</v>
+        <v>22527</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B304" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C304" t="n">
-        <v>23523</v>
+        <v>22020</v>
       </c>
       <c r="D304" t="n">
-        <v>24161</v>
+        <v>22597</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C305" t="n">
-        <v>23625</v>
+        <v>22175</v>
       </c>
       <c r="D305" t="n">
-        <v>24263</v>
+        <v>22747</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>23698</v>
+        <v>22227</v>
       </c>
       <c r="D306" t="n">
-        <v>24336</v>
+        <v>22804</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B307" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C307" t="n">
-        <v>23771</v>
+        <v>22302</v>
       </c>
       <c r="D307" t="n">
-        <v>24409</v>
+        <v>22879</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B308" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C308" t="n">
-        <v>23847</v>
+        <v>22354</v>
       </c>
       <c r="D308" t="n">
-        <v>24485</v>
+        <v>22931</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B309" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>23923</v>
+        <v>22457</v>
       </c>
       <c r="D309" t="n">
-        <v>24561</v>
+        <v>23070</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C310" t="n">
-        <v>24006</v>
+        <v>22527</v>
       </c>
       <c r="D310" t="n">
-        <v>24644</v>
+        <v>23140</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B311" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C311" t="n">
-        <v>24108</v>
+        <v>22597</v>
       </c>
       <c r="D311" t="n">
-        <v>24746</v>
+        <v>23210</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B312" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
-        <v>24161</v>
+        <v>22747</v>
       </c>
       <c r="D312" t="n">
-        <v>24799</v>
+        <v>23319</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C313" t="n">
-        <v>24263</v>
+        <v>22804</v>
       </c>
       <c r="D313" t="n">
-        <v>24901</v>
+        <v>23381</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>24336</v>
+        <v>22879</v>
       </c>
       <c r="D314" t="n">
-        <v>24974</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B315" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C315" t="n">
-        <v>24409</v>
+        <v>22931</v>
       </c>
       <c r="D315" t="n">
-        <v>25047</v>
+        <v>23508</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316" t="n">
         <v>4</v>
       </c>
       <c r="C316" t="n">
-        <v>24485</v>
+        <v>23020</v>
       </c>
       <c r="D316" t="n">
-        <v>25123</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B317" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>24561</v>
+        <v>23070</v>
       </c>
       <c r="D317" t="n">
-        <v>25199</v>
+        <v>23672</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C318" t="n">
-        <v>24644</v>
+        <v>23140</v>
       </c>
       <c r="D318" t="n">
-        <v>25282</v>
+        <v>23742</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B319" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C319" t="n">
-        <v>24746</v>
+        <v>23210</v>
       </c>
       <c r="D319" t="n">
-        <v>25384</v>
+        <v>23812</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B320" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
-        <v>24799</v>
+        <v>23319</v>
       </c>
       <c r="D320" t="n">
-        <v>25437</v>
+        <v>23901</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C321" t="n">
-        <v>24901</v>
+        <v>23381</v>
       </c>
       <c r="D321" t="n">
-        <v>25539</v>
+        <v>23958</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C322" t="n">
-        <v>24974</v>
+        <v>23456</v>
       </c>
       <c r="D322" t="n">
-        <v>25612</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B323" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C323" t="n">
-        <v>25047</v>
+        <v>23508</v>
       </c>
       <c r="D323" t="n">
-        <v>25685</v>
+        <v>24085</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B324" t="n">
         <v>4</v>
       </c>
       <c r="C324" t="n">
-        <v>25123</v>
+        <v>23597</v>
       </c>
       <c r="D324" t="n">
-        <v>25761</v>
+        <v>24174</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B325" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>25199</v>
+        <v>23672</v>
       </c>
       <c r="D325" t="n">
-        <v>25837</v>
+        <v>24249</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C326" t="n">
-        <v>25282</v>
+        <v>23742</v>
       </c>
       <c r="D326" t="n">
-        <v>25920</v>
+        <v>24319</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B327" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C327" t="n">
-        <v>25384</v>
+        <v>23812</v>
       </c>
       <c r="D327" t="n">
-        <v>26022</v>
+        <v>24389</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B328" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>25437</v>
+        <v>23901</v>
       </c>
       <c r="D328" t="n">
-        <v>26075</v>
+        <v>24478</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C329" t="n">
-        <v>25539</v>
+        <v>23958</v>
       </c>
       <c r="D329" t="n">
-        <v>26177</v>
+        <v>24535</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B330" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>25612</v>
+        <v>24033</v>
       </c>
       <c r="D330" t="n">
-        <v>26250</v>
+        <v>24610</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B331" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C331" t="n">
-        <v>25685</v>
+        <v>24085</v>
       </c>
       <c r="D331" t="n">
-        <v>26323</v>
+        <v>24662</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B332" t="n">
         <v>4</v>
       </c>
       <c r="C332" t="n">
-        <v>25761</v>
+        <v>24174</v>
       </c>
       <c r="D332" t="n">
-        <v>26399</v>
+        <v>24751</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B333" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>25837</v>
+        <v>24249</v>
       </c>
       <c r="D333" t="n">
-        <v>26475</v>
+        <v>24826</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C334" t="n">
-        <v>25920</v>
+        <v>24319</v>
       </c>
       <c r="D334" t="n">
-        <v>26558</v>
+        <v>24896</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B335" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C335" t="n">
-        <v>26022</v>
+        <v>24389</v>
       </c>
       <c r="D335" t="n">
-        <v>26660</v>
+        <v>24966</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B336" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>26075</v>
+        <v>24478</v>
       </c>
       <c r="D336" t="n">
-        <v>26713</v>
+        <v>25055</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C337" t="n">
-        <v>26177</v>
+        <v>24535</v>
       </c>
       <c r="D337" t="n">
-        <v>26815</v>
+        <v>25112</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B338" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C338" t="n">
-        <v>26250</v>
+        <v>24610</v>
       </c>
       <c r="D338" t="n">
-        <v>26888</v>
+        <v>25187</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B339" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C339" t="n">
-        <v>26323</v>
+        <v>24662</v>
       </c>
       <c r="D339" t="n">
-        <v>26961</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B340" t="n">
         <v>4</v>
       </c>
       <c r="C340" t="n">
-        <v>26399</v>
+        <v>24751</v>
       </c>
       <c r="D340" t="n">
-        <v>27037</v>
+        <v>25328</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B341" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>26475</v>
+        <v>24826</v>
       </c>
       <c r="D341" t="n">
-        <v>27113</v>
+        <v>25403</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C342" t="n">
-        <v>26558</v>
+        <v>24896</v>
       </c>
       <c r="D342" t="n">
-        <v>27196</v>
+        <v>25473</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>26660</v>
+        <v>24966</v>
       </c>
       <c r="D343" t="n">
-        <v>27298</v>
+        <v>25543</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B344" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>26713</v>
+        <v>25055</v>
       </c>
       <c r="D344" t="n">
-        <v>27351</v>
+        <v>25632</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C345" t="n">
-        <v>26815</v>
+        <v>25112</v>
       </c>
       <c r="D345" t="n">
-        <v>27453</v>
+        <v>25689</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B346" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C346" t="n">
-        <v>26888</v>
+        <v>25187</v>
       </c>
       <c r="D346" t="n">
-        <v>27526</v>
+        <v>25764</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B347" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C347" t="n">
-        <v>26961</v>
+        <v>25239</v>
       </c>
       <c r="D347" t="n">
-        <v>27599</v>
+        <v>25816</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B348" t="n">
         <v>4</v>
       </c>
       <c r="C348" t="n">
-        <v>27037</v>
+        <v>25328</v>
       </c>
       <c r="D348" t="n">
-        <v>27675</v>
+        <v>25905</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B349" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>27113</v>
+        <v>25403</v>
       </c>
       <c r="D349" t="n">
-        <v>27751</v>
+        <v>25980</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C350" t="n">
-        <v>27196</v>
+        <v>25473</v>
       </c>
       <c r="D350" t="n">
-        <v>27834</v>
+        <v>26050</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B351" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C351" t="n">
-        <v>27298</v>
+        <v>25543</v>
       </c>
       <c r="D351" t="n">
-        <v>27936</v>
+        <v>26120</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B352" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>27351</v>
+        <v>25632</v>
       </c>
       <c r="D352" t="n">
-        <v>27989</v>
+        <v>26209</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C353" t="n">
-        <v>27453</v>
+        <v>25689</v>
       </c>
       <c r="D353" t="n">
-        <v>28091</v>
+        <v>26266</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>27526</v>
+        <v>25764</v>
       </c>
       <c r="D354" t="n">
-        <v>28164</v>
+        <v>26341</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>358</v>
       </c>
       <c r="B355" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C355" t="n">
-        <v>27599</v>
+        <v>25905</v>
       </c>
       <c r="D355" t="n">
-        <v>28237</v>
+        <v>26482</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>359</v>
       </c>
       <c r="B356" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>27675</v>
+        <v>25980</v>
       </c>
       <c r="D356" t="n">
-        <v>28313</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>360</v>
       </c>
       <c r="B357" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C357" t="n">
-        <v>27751</v>
+        <v>26050</v>
       </c>
       <c r="D357" t="n">
-        <v>28389</v>
+        <v>26627</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5389,10 +5389,10 @@
         <v>2</v>
       </c>
       <c r="C358" t="n">
-        <v>27834</v>
+        <v>26120</v>
       </c>
       <c r="D358" t="n">
-        <v>28472</v>
+        <v>26697</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5400,41 +5400,335 @@
         <v>362</v>
       </c>
       <c r="B359" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C359" t="n">
-        <v>27936</v>
+        <v>26209</v>
       </c>
       <c r="D359" t="n">
-        <v>28574</v>
+        <v>26786</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B360" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C360" t="n">
-        <v>27989</v>
+        <v>26341</v>
       </c>
       <c r="D360" t="n">
-        <v>28627</v>
+        <v>26913</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B361" t="n">
+        <v>4</v>
+      </c>
+      <c r="C361" t="n">
+        <v>26482</v>
+      </c>
+      <c r="D361" t="n">
+        <v>27059</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="n">
+        <v>366</v>
+      </c>
+      <c r="B362" t="n">
         <v>1</v>
       </c>
-      <c r="C361" t="n">
-        <v>28091</v>
-      </c>
-      <c r="D361" t="n">
-        <v>28729</v>
+      <c r="C362" t="n">
+        <v>26557</v>
+      </c>
+      <c r="D362" t="n">
+        <v>27134</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="n">
+        <v>367</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3</v>
+      </c>
+      <c r="C363" t="n">
+        <v>26627</v>
+      </c>
+      <c r="D363" t="n">
+        <v>27204</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="n">
+        <v>368</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>26697</v>
+      </c>
+      <c r="D364" t="n">
+        <v>27274</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="n">
+        <v>369</v>
+      </c>
+      <c r="B365" t="n">
+        <v>5</v>
+      </c>
+      <c r="C365" t="n">
+        <v>26786</v>
+      </c>
+      <c r="D365" t="n">
+        <v>27363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="n">
+        <v>370</v>
+      </c>
+      <c r="B366" t="n">
+        <v>7</v>
+      </c>
+      <c r="C366" t="n">
+        <v>26913</v>
+      </c>
+      <c r="D366" t="n">
+        <v>27497</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="n">
+        <v>371</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4</v>
+      </c>
+      <c r="C367" t="n">
+        <v>27059</v>
+      </c>
+      <c r="D367" t="n">
+        <v>27636</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="n">
+        <v>372</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+      <c r="C368" t="n">
+        <v>27134</v>
+      </c>
+      <c r="D368" t="n">
+        <v>27711</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="n">
+        <v>373</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3</v>
+      </c>
+      <c r="C369" t="n">
+        <v>27204</v>
+      </c>
+      <c r="D369" t="n">
+        <v>27781</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="n">
+        <v>374</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2</v>
+      </c>
+      <c r="C370" t="n">
+        <v>27274</v>
+      </c>
+      <c r="D370" t="n">
+        <v>27851</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="n">
+        <v>375</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5</v>
+      </c>
+      <c r="C371" t="n">
+        <v>27363</v>
+      </c>
+      <c r="D371" t="n">
+        <v>27940</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="n">
+        <v>376</v>
+      </c>
+      <c r="B372" t="n">
+        <v>6</v>
+      </c>
+      <c r="C372" t="n">
+        <v>27415</v>
+      </c>
+      <c r="D372" t="n">
+        <v>27992</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="n">
+        <v>378</v>
+      </c>
+      <c r="B373" t="n">
+        <v>7</v>
+      </c>
+      <c r="C373" t="n">
+        <v>27497</v>
+      </c>
+      <c r="D373" t="n">
+        <v>28069</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="n">
+        <v>377</v>
+      </c>
+      <c r="B374" t="n">
+        <v>8</v>
+      </c>
+      <c r="C374" t="n">
+        <v>27465</v>
+      </c>
+      <c r="D374" t="n">
+        <v>28121</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="n">
+        <v>379</v>
+      </c>
+      <c r="B375" t="n">
+        <v>4</v>
+      </c>
+      <c r="C375" t="n">
+        <v>27636</v>
+      </c>
+      <c r="D375" t="n">
+        <v>28213</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="n">
+        <v>380</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" t="n">
+        <v>27711</v>
+      </c>
+      <c r="D376" t="n">
+        <v>28288</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="n">
+        <v>381</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3</v>
+      </c>
+      <c r="C377" t="n">
+        <v>27781</v>
+      </c>
+      <c r="D377" t="n">
+        <v>28358</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="n">
+        <v>382</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+      <c r="C378" t="n">
+        <v>27851</v>
+      </c>
+      <c r="D378" t="n">
+        <v>28428</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="n">
+        <v>383</v>
+      </c>
+      <c r="B379" t="n">
+        <v>5</v>
+      </c>
+      <c r="C379" t="n">
+        <v>27940</v>
+      </c>
+      <c r="D379" t="n">
+        <v>28517</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="n">
+        <v>384</v>
+      </c>
+      <c r="B380" t="n">
+        <v>6</v>
+      </c>
+      <c r="C380" t="n">
+        <v>27992</v>
+      </c>
+      <c r="D380" t="n">
+        <v>28569</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="n">
+        <v>385</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7</v>
+      </c>
+      <c r="C381" t="n">
+        <v>28069</v>
+      </c>
+      <c r="D381" t="n">
+        <v>28644</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="n">
+        <v>386</v>
+      </c>
+      <c r="B382" t="n">
+        <v>8</v>
+      </c>
+      <c r="C382" t="n">
+        <v>28121</v>
+      </c>
+      <c r="D382" t="n">
+        <v>28698</v>
       </c>
     </row>
   </sheetData>
